--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
+    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$2</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -63,6 +64,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Elliot John Brown</author>
+    <author>MTS</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
@@ -230,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +242,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Elliot John Brown:</t>
+          <t>MTS:</t>
         </r>
         <r>
           <rPr>
@@ -323,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +503,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -608,7 +610,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -635,7 +637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -659,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -683,7 +685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -709,7 +711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -741,7 +743,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -963,7 +965,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Esther Beukhof:</t>
         </r>
@@ -972,7 +974,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Write here the pressure variable studied in the paper, e.g. fishing mortality, fishing hours, number of litter items, catch, change in selectivity, bycatch exclusion device etc.
@@ -980,7 +982,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1006,7 +1008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1033,7 +1035,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1057,7 +1059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1081,7 +1083,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1106,7 +1108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1131,7 +1133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1156,7 +1158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1180,7 +1182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2395,7 +2397,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="648">
   <si>
     <t>SearchID</t>
   </si>
@@ -3156,6 +3158,9 @@
     <t>Article</t>
   </si>
   <si>
+    <t>4.4</t>
+  </si>
+  <si>
     <t>EwE</t>
   </si>
   <si>
@@ -3177,9 +3182,6 @@
     <t>biomass</t>
   </si>
   <si>
-    <t>50% near top of foodweb</t>
-  </si>
-  <si>
     <t>SW4_0062</t>
   </si>
   <si>
@@ -3216,21 +3218,12 @@
     <t>Using a functional indicator applied to 54 underwater video transects, we mapped the sensitivity to trawling of epibenthic invertebrates and fish communities in the Celtic Sea. We determined the relative influence of environmental and fishing variables on sensitivity and traits distribution. Our results suggest that community sensitivity to trawling is mainly driven by a spatial gradient of depth and primary productivity that separates the area into two main regions: a shallow, productive area, with low sensitivity and a higher abundance of swimming and crawling organisms, and a deeper, less productive area, with higher sensitivity due to a higher abundance of fixed, filter-feeding organisms. Fishing intensity also drives the sensitivity of communities confirming that they have already been shaped by a long history of mixed fisheries. The methodology used here provides a valuable monitoring tool and could be used to predict communities’ response to changes in fishing intensity and climate change.</t>
   </si>
   <si>
-    <t>demersal fish _ benthos</t>
-  </si>
-  <si>
     <t>fishing intensity</t>
   </si>
   <si>
     <t>demersal fish</t>
   </si>
   <si>
-    <t>diversity of bentho-demersal community</t>
-  </si>
-  <si>
-    <t>hard to quantify for non-expert</t>
-  </si>
-  <si>
     <t>SW4_0130</t>
   </si>
   <si>
@@ -3264,6 +3257,9 @@
     <t>All Open Access, Bronze</t>
   </si>
   <si>
+    <t>None</t>
+  </si>
+  <si>
     <t>SW4_0131</t>
   </si>
   <si>
@@ -3294,12 +3290,6 @@
     <t xml:space="preserve"> we investigated if whistle structure, in terms of frequency and time parameters, changes depending on these three foraging contexts. In Sardinia, during foraging in interaction with trawlers, whistles differed from those emitted during the other foraging contexts. Conversely, in Cres-Loˇsinj, significant variations in whistles were found to be related mainly to the presence of motor boats. This study represents the first report on how two dolphin populations adopt different acoustic tactics in the context of similar foraging behaviour. By investigating the effects of opportunistic foraging on acoustic repertoires, we provide new findings on the acoustic adaptation of dolphins to local conditions and contribute to understanding the relationships between dolphins and human activities, such as fishing and boat traffic.</t>
   </si>
   <si>
-    <t>dolphins</t>
-  </si>
-  <si>
-    <t>behavioural - whistle signalling</t>
-  </si>
-  <si>
     <t>SW4_0154</t>
   </si>
   <si>
@@ -3324,16 +3314,10 @@
     <t>All Open Access, Bronze, Green</t>
   </si>
   <si>
-    <t>observation of cacth</t>
-  </si>
-  <si>
     <t>experiment could only assess short-term impact of discarding as only 1 week long.</t>
   </si>
   <si>
     <t>Survival mixture models with Weibull-type survival functions</t>
-  </si>
-  <si>
-    <t>asterias rubens _ maja brachydactyla _ atelecyclus undecimendatus _ aphrodita aculeata _ pagurus sp _ buccinium undatum</t>
   </si>
   <si>
     <t>survival</t>
@@ -3453,9 +3437,6 @@
     <t>fish _ echinoderms _ crustaceans _ molluscs _ annelids _ others</t>
   </si>
   <si>
-    <t>variable</t>
-  </si>
-  <si>
     <t>benthic dredge impacts depend on mud content, temperature, and organic content.</t>
   </si>
   <si>
@@ -3528,18 +3509,6 @@
     <t>The codend is generally presumed to be the place where the main selectivity of fish occurs in towed fishing gears, but other parts of the net have been found to contribute to the selectivity process of several invertebrate species. This means that conventional selectivity or survival studies may ignore the selectivity of net parts other than the codend for certain species. By attaching 12 small meshed collecting bags to different parts of a Danish anchor seine net and conducting normal commercial fishing activities, this study showed that there is a substantial escapement of fish and (especially) invertebrates from the forward parts of the seine net. For seven species of demersal fish, most fish escaped through the lower panel close to the codend. All invertebrate species were found in higher numbers in the collecting bags than in the codend where many organisms escaped in the lower panel of the wings or the belly. Mean levels of visible damage ranged from 1.00 to 3.25 for collected invertebrates and were similar for all gear parts. Common starfish (Asterias rubens), however, showed highest damage in the extension part of the net.</t>
   </si>
   <si>
-    <t>fish _ crabs _ mussels _ urchins _ starfish _ anemones _ sponges _ whelk _ scallop</t>
-  </si>
-  <si>
-    <t>cod _ haddock _ plaice</t>
-  </si>
-  <si>
-    <t>damage to non-target species</t>
-  </si>
-  <si>
-    <t>not quantified, but less damage accumulates at the front of the gear. The further back the catch, the more damage accumulates. For invertebrates that cannot avoid the gear, escape options near the front are important to reduce damage; cod-end is less important.</t>
-  </si>
-  <si>
     <t>SW4_0513</t>
   </si>
   <si>
@@ -3594,30 +3563,9 @@
     <t>Discard management needs to draw on scientific research and advice, usually supported by specific statistical modeling analysis. A wide range of statistical analysis methods were applied to fishery data in an attempt to distinguish factors that influence the species discard composition. While such approaches are important, they are still incomplete for disaggregating the economic and spatial-temporal factors for analyzing of this process and obtain a whole view of this issue. Our study aims to fill this gap by identifying, describing, and quantifying factors that influence discards of trawl fisheries using a multivariate approach based on five complementary aspects: “economic”, “vessel characteristics”, “spatial”, “temporal” and “environmental”. In addition, a spatial multi-criteria approach were used to investigate discard hot-spot areas using ecological criteria such as vulnerability and resilience of the discarded species. Using these ecological criteria will concentrate conservation efforts on the most relevant sites minimizing discards of a variety of potentially vulnerable species. This approach was applied to a case study of a multi-species demersal bottom trawl fisheries in north Spain, Cantabrian Sea (ICES area VIIIc). Results showed how spatial and economic factors highly affect species discard composition, identifying specific spatial-temporal discard hot-spots to be preferentially avoided by fishers. Mitigation measures for future fisheries management strategies should be implemented at multiple stages of the discarding process, both in the selection of the fishing grounds and the economic valorization of the discarded species. © 2016 Elsevier Ltd</t>
   </si>
   <si>
-    <t>note - fisheries observer programme</t>
-  </si>
-  <si>
-    <t>RDA statistical analysis</t>
-  </si>
-  <si>
-    <t>Discard management needs to draw on scientific research and advice, usually supported by specific statistical modeling analysis. A wide range of statistical analysis methods were applied to fishery data in an attempt to distinguish factors that influence the species discard composition. While such approaches are important, they are still incomplete for disaggregating the economic and spatial-temporal factors for analyzing of this process and obtain a whole view of this issue. Our study aims to fill this gap by identifying, describing, and quantifying factors that influence discards of trawl fisheries using a multivariate approach based on five complementary aspects: “economic”, “vessel characteristics”, “spatial”, “temporal” and “environmental”. In addition, a spatial multi-criteria approach were used to investigate discard hot-spot areas using ecological criteria such as vulnerability and resilience of the discarded species. Using these ecological criteria will concentrate conservation efforts on the most relevant sites minimizing discards of a variety of potentially vulnerable species. This approach was applied to a case study of a multi-species demersal bottom trawl fisheries in north Spain, Cantabrian Sea (ICES area VIIIc). Results showed how spatial and economic factors highly affect species discard composition, identifying specific spatial-temporal discard hot-spots to be preferentially avoided by fishers. Mitigation measures for future fisheries management strategies should be implemented at multiple stages of the discarding process, both in the selection of the fishing grounds and the economic valorization of the discarded species.</t>
-  </si>
-  <si>
     <t>demersal fish _ pelagic fish</t>
   </si>
   <si>
-    <t>hake</t>
-  </si>
-  <si>
-    <t>megrim _ anglerfish</t>
-  </si>
-  <si>
-    <t>discards</t>
-  </si>
-  <si>
-    <t>discards much higher in the East - exclusion from a small area can reduce discards a lot</t>
-  </si>
-  <si>
     <t>SW4_0702</t>
   </si>
   <si>
@@ -3690,9 +3638,6 @@
     <t>all gears _ fisheriesbiomass</t>
   </si>
   <si>
-    <t>varies - input data are partly subjective as fisheries knowledge is used to populate trend categories</t>
-  </si>
-  <si>
     <t>An interesting broad picture based on interviews with skippers, so of necessity basic data is semi-qualitative. However by getting the fishermen to select categories, it becomes amenable to statistical inference.</t>
   </si>
   <si>
@@ -3726,15 +3671,9 @@
     <t>demersal fish _ pelagic fish _ zooplankton _ phytoplankton _ benthos _ biogeochemistry</t>
   </si>
   <si>
-    <t>fishing mortality</t>
-  </si>
-  <si>
     <t>12 fleets</t>
   </si>
   <si>
-    <t>varies</t>
-  </si>
-  <si>
     <t>Study uses parsimonious end-to-end model for "big picture" ecosystem response to fishing and other pressures. It shows that ending discarding does not necessarily lead to the positive effects we seek unless coupled with other changes. Hence discarding must be viewed in the round.</t>
   </si>
   <si>
@@ -3957,15 +3896,6 @@
     <t>Story seems reasonable in general but only one snapshot taken so would be useful to revisit. Methodolgy to compare specialist benthos feeder plaice with benthos generalist dab and demersal whiting was good.</t>
   </si>
   <si>
-    <t>plaice</t>
-  </si>
-  <si>
-    <t>dab</t>
-  </si>
-  <si>
-    <t>whiting</t>
-  </si>
-  <si>
     <t>trawl frequency</t>
   </si>
   <si>
@@ -4041,6 +3971,9 @@
     <t>The impact of fisheries within a Natura 2000 area in western Greece was assessed over a 12-month period in 2007. The estimated total biomass removed annually by 307 fishing boats averaged 3503.5 t. Purse seiners, beach seiners and trawlers took 70% of the total landings. Purse seiners, contributing 3% of the total fishing fleet, were responsible for 33% of total biomass removed. Beach and purse seiners primarily caught small pelagic species, whereas trawlers and trammel netters mostly demersal species. A mismatch was found between the Common Fisheries Register (CFR) and an in situ assessment of the active fishing fleet; the number of industrial fishing boats exceeded those registered in CFR for the three administrative ports involved, and a large proportion of the CFR netters were small and effectively inactive. Fishery management measures for the recovery of an ecosystem considerably damaged by overfishing are proposed. © 2010 Blackwell Publishing Ltd.</t>
   </si>
   <si>
+    <t>4.3 _ 4.4</t>
+  </si>
+  <si>
     <t>Talks about the general impact of fishing on the Natura 2000 site, but mostly in terms of direct biomass removals.</t>
   </si>
   <si>
@@ -4152,6 +4085,9 @@
     <t>Sea trials were performed on two zones with different fishing efforts on the continental shelf of the Bay of Biscay (‘Grande-Vasière’ area of muddy sand) in order to assess particulate matter resuspension and seabed disturbances (i.e., penetration, reworking, grain size changes) induced by different types of trawls. Optical and acoustic measurements made in the water column indicate a significant trawling-induced resuspension mainly due to the scraping action of doors. It manifests as a highly dynamic turbid plume confined near the seabed, where suspended sediment concentrations can reach 200 mg l-1. Concentration levels measured behind an “alternative” configuration (trawls with jumper doors instead of classical doors penetrating the sediment) are significantly lower (around 10–20 mg l-1), which indicates a potential limiting impact regarding the seabed. Grain size analyses of the surficial sediment led to highlight a potential reworking influence of bottom trawling. On the intensively trawled zone, this reworking manifests as an upward coarsening trend in the first 5 cm of the cores. A significant decrease in mud content (30 %) has been also witnessed on this zone between 1967 and 2014, which suggests an influence on the seabed evolution. The geometric analysis of bottom tracks (4–5-cm depth, 20-cm width) observed with a benthic video sledge was used to compute an experimental trawling-induced erosion rate of 0.13 kg m-2. This erosion rate was combined with fishing effort data, in order to estimate trawling-induced erosion fluxes which were then compared to natural erosion fluxes over the Grande-Vasière at monthly, seasonal and annual scales. Winter storms control the annual resuspended load and trawling contribution to annual resuspension is in the order of 1 %. However, results show that trawling resuspension can become dominant during the fishing high season (i.e., until several times the natural one in summer). In addition, the contribution of trawling-induced resuspension is shown to increase with water depth, because of the rapid decay of wave effects. Finally, the seasonal evolution of the respective contributions for erosion (mainly trawling and waves) could be mapped for the whole study area. © 2016, Springer-Verlag Berlin Heidelberg.</t>
   </si>
   <si>
+    <t>4.3</t>
+  </si>
+  <si>
     <t>Box core and trawl - sampling of sediment plume</t>
   </si>
   <si>
@@ -4254,9 +4190,6 @@
     <t>Two surveys, that cover the Norway pout distribution well, have been analyzed and both showed a clear decrease in total mortality consistent with the decline in predator populations. The estimated average predation mortality is similar to that obtained from Multispecies Virtual Population Analysis (MSVPA), but MSVPA does not reflect the variation in mortality over time. It is speculated that this might be a consequence of the model ignoring a potentially high mortality of age 2 and older fish caused by spawning or growth stress.</t>
   </si>
   <si>
-    <t>Norway pout</t>
-  </si>
-  <si>
     <t>predation</t>
   </si>
   <si>
@@ -4275,10 +4208,160 @@
     <t>Changes in target communities were manifested as i) decline in catch per unit effort, ii) increase in CPUE of scorpaena porcus, symphodus tinca, maja crispata, decrease in labriadae, serranidae, mullus, octopus vulgaris, iii) changes in length frequency of scorpaena porcus, symphodus tinca, mullus surmuletus. Changes are due to intensive fishing which distorts the foodweb. Some fishes are more vulnerable to fishing pressure than others.</t>
   </si>
   <si>
-    <t>Scorpaena porcus _ Symphodus tinca _ Maja crispata</t>
-  </si>
-  <si>
-    <t>Labridae _ Serranidae _ Mullus spp _ Octopus vulgaris</t>
+    <t>Asterias rubens _ Maja brachydactyla _ Atelecyclus undecimendatus _ Aphrodita aculeata _ Pagurus sp _ Buccinium undatum</t>
+  </si>
+  <si>
+    <t>Scophthalmus maximus _ Platichthys flesus</t>
+  </si>
+  <si>
+    <t>Pleuronectes platessa</t>
+  </si>
+  <si>
+    <t>Limanda limanda</t>
+  </si>
+  <si>
+    <t>Merlangius merlangus</t>
+  </si>
+  <si>
+    <t>Trisopterus esmarkii</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tursiops truncatus </t>
+  </si>
+  <si>
+    <t>Foraging during interaction with trawlers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The results of the present study indicate that whistles produced during FT (foraging interacting with trawling) in Sardinia are similar and that these whistles differed from the whistles produced during other foraging contexts (FN and FB; no trawling and motor boats). Contrary to the results found in Sardinia, in Croatia whistle structure during FT did not differ from that of whistles produced during FN. </t>
+  </si>
+  <si>
+    <t>Mullus barbatus _ Mullus surmuletus _ Merluccius merluccius _ Melicertus kerathurus _ Parapenaeus longirostris _ Sepia _ Octopus</t>
+  </si>
+  <si>
+    <t>Engraulis encrasicolus _ Sardina pilchardus _ Scomber colias</t>
+  </si>
+  <si>
+    <t>Small-scale fisheries that deploy several gears, wide variety of species</t>
+  </si>
+  <si>
+    <t>As far as the impact of the fishing fleets on the various compartments of the ecosystem is concerned, small scale fisheries had the highest overall negative impact, particularly affecting dolphins, the loggerhead turtle, large pelagic fishes and flatfishes due to fishing and bycatch, while benefiting demersal fishes 1 and other gadiforms by removing some of the predation mortality exerted on them by flatfishes. All the future scenarios of reduced fishing effort resulted in higher biomass in the ecosystem but fewer catches.</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>Trawling activity</t>
+  </si>
+  <si>
+    <t>Fishing activity included as variable in PCA on community composistion, but was not really explaining much of the variation compared to environmental variables. [...] ‘Facies des formes sessiles’ that are characterized by some habitatforming species such as Veretillum cynomorium, Pennatula sp. and Alcyonium palmatum. These soft bottom octocorals were also detected in the Bay of Málaga but in low numbers, probably due to the intense trawling activity which may have caused their decline over decades as detected in other areas (Ruiz-Pico et al., 2017). The abundance and biomass of commercial species collected in this study do not seem to be high, which could be a result of the overfishing experienced in the Bay of Málaga by several fishing fleets (trawling fishing fleet, purse-seine fishing fleet and artisanal fishing fleet) (Baro et al., 2015). Regarding this, the minimum abundance and biomass values of epibenthic and demersal species were generally recorded in spring and summer, along with increases in the trawling activity within the bay. This trawling activity may not only impact commercial species, but also those sensitive habitat-forming species which were found in low numbers in the bay (e.g. sea-pens).</t>
+  </si>
+  <si>
+    <t>principally targeting demersal fish and occasionally small pelagics</t>
+  </si>
+  <si>
+    <t>Abundance ranking</t>
+  </si>
+  <si>
+    <t>Atlantic mackerel, poor cod, scorpionfishes, striped seabream, and John Dory demonstrated a decreasing trend in the fishers’ perceived abundance, while Mediterranean parrotfish, common pandora, cuttlefish, blue and red shrimp, and mullets gave indications of an increasing temporal trend. Although, as a rule, trawler captains did not report any cataclysmic changes (e.g. extinctions), when they were invited to estimate total catches, a clear decreasing pattern emerged; this being a notable finding taking into account the steep escalation of fishing efficiency during the past century.</t>
+  </si>
+  <si>
+    <t>Fishers' knowledge of fishing practices</t>
+  </si>
+  <si>
+    <t>Change in average body size</t>
+  </si>
+  <si>
+    <t>Fishers' knowledge of fishing practices and activity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal changes in the size of the specimen caught were less noticeable than changes in abundance. The cases of poor cod (Trisopterus minutus capelanus) and scorpionfishes (Scorpaena spp.) need to be highlighted, since both of them exhibited a simultaneous decrease in abundance and size. Moreover, one of the most common commercial species driving Mediterranean demersal fisheries, the European hake (Merluccius merluccius), was among the list of ‘shrinking’ fish. </t>
+  </si>
+  <si>
+    <t>artisanal </t>
+  </si>
+  <si>
+    <t>whistle signalling</t>
+  </si>
+  <si>
+    <t>Selectivity of other parts of the net than the cod-end</t>
+  </si>
+  <si>
+    <t>Pleuronectes platessa _ Melanogrammus aeglefinus _ Gadus morhua</t>
+  </si>
+  <si>
+    <t>crabs _ mussels _ urchins _ starfish _ anemones _ sponges _ whelk _ scallop</t>
+  </si>
+  <si>
+    <t>Escapement</t>
+  </si>
+  <si>
+    <t>This study showed that there is a substantial escapement of fish and (especially) invertebrates from the forward parts of the seine net</t>
+  </si>
+  <si>
+    <t>The results also showed an intense exploitation by fisheries in early 2000s. Different strategies between Spanish and French fleets were also found. French fleets were mainly focussed on low trophic level forage fish (e.g., sardine and anchovy) and had larger impacts on higher trophic levels, while Spanish fleets mostly focussed on higher trophic level forage fishes (e.g., mackerel, horse mackerel and blue whiting) but also targeting sardine and anchovy; and displayed lower impacts on higher trophic levels.</t>
+  </si>
+  <si>
+    <t>Physical contact with gear</t>
+  </si>
+  <si>
+    <t>crabs _  urchins _ starfish _ anemones _ sponges _ whelk</t>
+  </si>
+  <si>
+    <t>Damage index</t>
+  </si>
+  <si>
+    <t>The assessment of the invertebrates damage indicated relatively low levels of visual damage, which is likely due to their robust exoskeleton or shells. Less damage accumulates at the front of the gear. The further back the catch, the more damage accumulates. For invertebrates that cannot avoid the gear, escape options near the front are important to reduce damage; cod-end is less important.</t>
+  </si>
+  <si>
+    <t>Maja crispata</t>
+  </si>
+  <si>
+    <t>Scorpaenidae _ Scorpaena porcus _  Symphodus tinca</t>
+  </si>
+  <si>
+    <t>Octopus vulgaris</t>
+  </si>
+  <si>
+    <t>Labridae _ Serranidae _ Mullus</t>
+  </si>
+  <si>
+    <t>CPUE</t>
+  </si>
+  <si>
+    <t>Scorpaena porcus _ Symphodus tinca _ Mullus surmuletus</t>
+  </si>
+  <si>
+    <t>Mean total body length</t>
+  </si>
+  <si>
+    <t>The observed changes in basic biometric characters of target fish species and alteration of the presence of some fish families and species in experimental trammel net bottom set catches are, no doubt, the results of complex events in coastal communities. These changes are very likely due to exploitation.</t>
+  </si>
+  <si>
+    <t>This decline [quantity of fish and edible invertebrates] probably results from the impoverishment of the biological basis due to intensive fishing.</t>
+  </si>
+  <si>
+    <t>depth _ chlorophyll a _ latitude _ longitude</t>
+  </si>
+  <si>
+    <t>Index of sensitivity to trawling</t>
+  </si>
+  <si>
+    <t>As expected, community sensitivity was negatively impacted by fishing intensity, although to a lesser extent than by environmental variables. Our results showed that areas subjected to high fishing pressure exhibit communities that are faintly sensitive to fishing.</t>
+  </si>
+  <si>
+    <t>The ‘discards-landed’ scenario caused bottom-up cascades— reductions in the biomasses of all the components in the scavenger compartment of the food web (carnivore/scavenge feeding benthos, birds and mammals) due to reductions in their food intake (Fig. 5). The magnitude of the effect increased with exploitation intensity in line with the ‘status-quo’ discard rates of fish and benthos.</t>
+  </si>
+  <si>
+    <t>Carnivore/scavenge feeding benthos</t>
+  </si>
+  <si>
+    <t>Scenario of all discards are landed</t>
+  </si>
+  <si>
+    <t>Harvest rate</t>
+  </si>
+  <si>
+    <t>‘Discards-landed’ results in a bottom-up cascade effect with conservation penalties for scavenging seabirds, marine mammals and seabed fauna, and no benefit to fish stocks. Annual catches of demersal and pelagic fish in the ‘discards-landed’ runs were indistinguishable from the corresponding ‘status-quo’ since the harvest rates were identical.</t>
   </si>
 </sst>
 </file>
@@ -4436,7 +4519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4464,6 +4547,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4770,10 +4854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX38"/>
+  <dimension ref="A1:AX53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AT14" sqref="AT14"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4793,70 +4877,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="18" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="21" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
+      <c r="AM1" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="16" t="s">
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
+      <c r="AV1" s="17"/>
+      <c r="AW1" s="17"/>
+      <c r="AX1" s="17"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -5010,7 +5094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5062,6 +5146,9 @@
       <c r="Q3" t="s">
         <v>21</v>
       </c>
+      <c r="R3" t="s">
+        <v>253</v>
+      </c>
       <c r="S3" t="s">
         <v>26</v>
       </c>
@@ -5081,7 +5168,7 @@
         <v>80</v>
       </c>
       <c r="Z3" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5093,10 +5180,10 @@
         <v>3</v>
       </c>
       <c r="AD3" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE3" t="s">
         <v>255</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>254</v>
       </c>
       <c r="AF3">
         <v>4.4000000000000004</v>
@@ -5114,45 +5201,48 @@
         <v>160</v>
       </c>
       <c r="AO3" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP3" t="s">
         <v>257</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>256</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
       </c>
       <c r="AR3" t="s">
-        <v>113</v>
+        <v>239</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>175</v>
       </c>
       <c r="AT3" t="s">
-        <v>258</v>
+        <v>605</v>
       </c>
       <c r="AU3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
       </c>
       <c r="AW3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX3" t="s">
-        <v>260</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="4" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>583</v>
+        <v>242</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>584</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>585</v>
+        <v>245</v>
       </c>
       <c r="E4">
         <v>2022</v>
@@ -5173,13 +5263,13 @@
         <v>248</v>
       </c>
       <c r="K4" t="s">
-        <v>586</v>
+        <v>249</v>
       </c>
       <c r="L4" t="s">
         <v>248</v>
       </c>
       <c r="M4" t="s">
-        <v>587</v>
+        <v>250</v>
       </c>
       <c r="N4" t="s">
         <v>251</v>
@@ -5193,17 +5283,20 @@
       <c r="Q4" t="s">
         <v>21</v>
       </c>
+      <c r="R4" t="s">
+        <v>253</v>
+      </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s">
         <v>55</v>
@@ -5212,22 +5305,22 @@
         <v>80</v>
       </c>
       <c r="Z4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AA4">
         <v>2</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>3</v>
       </c>
-      <c r="AD4" s="12" t="s">
-        <v>588</v>
+      <c r="AD4" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="AE4" t="s">
-        <v>589</v>
+        <v>255</v>
       </c>
       <c r="AF4">
         <v>4.4000000000000004</v>
@@ -5245,63 +5338,75 @@
         <v>160</v>
       </c>
       <c r="AO4" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP4" t="s">
         <v>257</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
       </c>
+      <c r="AR4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>181</v>
+      </c>
       <c r="AT4" t="s">
-        <v>258</v>
+        <v>606</v>
       </c>
       <c r="AU4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
       </c>
       <c r="AW4" t="s">
-        <v>208</v>
+        <v>209</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>608</v>
       </c>
     </row>
-    <row r="5" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C5" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="E5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="I5" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="K5" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="L5" t="s">
         <v>248</v>
       </c>
       <c r="M5" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="N5" t="s">
         <v>251</v>
@@ -5315,118 +5420,127 @@
       <c r="Q5" t="s">
         <v>21</v>
       </c>
+      <c r="R5" t="s">
+        <v>253</v>
+      </c>
       <c r="S5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="T5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X5" t="s">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="AA5">
         <v>2</v>
       </c>
       <c r="AB5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>272</v>
+        <v>256</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>255</v>
       </c>
       <c r="AF5">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH5" t="s">
         <v>124</v>
       </c>
-      <c r="AL5" t="s">
-        <v>273</v>
-      </c>
       <c r="AM5" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>160</v>
       </c>
       <c r="AO5" t="s">
-        <v>274</v>
+        <v>258</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>257</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
       </c>
       <c r="AR5" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>275</v>
+        <v>169</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>185</v>
       </c>
       <c r="AU5" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="AV5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AW5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX5" t="s">
-        <v>277</v>
+        <v>608</v>
       </c>
     </row>
-    <row r="6" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="E6">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="G6" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="H6" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="I6" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="J6" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="K6" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="L6" t="s">
         <v>248</v>
       </c>
       <c r="M6" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="N6" t="s">
         <v>251</v>
@@ -5435,34 +5549,111 @@
         <v>252</v>
       </c>
       <c r="P6" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="Q6" t="s">
         <v>21</v>
       </c>
-      <c r="AD6" s="12"/>
+      <c r="R6" t="s">
+        <v>253</v>
+      </c>
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" t="s">
+        <v>41</v>
+      </c>
+      <c r="W6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AA6">
+        <v>2</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>607</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>608</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>561</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>290</v>
+        <v>562</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>563</v>
       </c>
       <c r="E7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="H7" t="s">
         <v>248</v>
@@ -5474,13 +5665,13 @@
         <v>248</v>
       </c>
       <c r="K7" t="s">
-        <v>294</v>
+        <v>564</v>
       </c>
       <c r="L7" t="s">
         <v>248</v>
       </c>
       <c r="M7" t="s">
-        <v>295</v>
+        <v>565</v>
       </c>
       <c r="N7" t="s">
         <v>251</v>
@@ -5494,29 +5685,29 @@
       <c r="Q7" t="s">
         <v>21</v>
       </c>
+      <c r="R7" t="s">
+        <v>253</v>
+      </c>
       <c r="S7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="W7" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="X7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -5525,93 +5716,90 @@
         <v>2</v>
       </c>
       <c r="AC7">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="13" t="s">
-        <v>298</v>
+        <v>3</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>567</v>
       </c>
       <c r="AF7">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AH7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>129</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>299</v>
+        <v>124</v>
       </c>
       <c r="AM7" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>258</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
       </c>
-      <c r="AR7" t="s">
-        <v>113</v>
-      </c>
       <c r="AT7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AU7" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AV7" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="AW7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX7" t="s">
-        <v>277</v>
+        <v>626</v>
       </c>
     </row>
-    <row r="8" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C8" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F8" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="H8" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="I8" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="J8" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="K8" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="L8" t="s">
         <v>248</v>
       </c>
       <c r="M8" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="N8" t="s">
         <v>251</v>
@@ -5620,73 +5808,67 @@
         <v>252</v>
       </c>
       <c r="P8" t="s">
-        <v>308</v>
+        <v>248</v>
       </c>
       <c r="Q8" t="s">
         <v>21</v>
       </c>
+      <c r="R8" t="s">
+        <v>253</v>
+      </c>
       <c r="S8" t="s">
         <v>25</v>
       </c>
       <c r="T8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="U8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="X8" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>309</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="AA8">
         <v>2</v>
       </c>
       <c r="AB8">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="13">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="AC8">
+        <v>2</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="AE8" s="13" t="s">
-        <v>310</v>
+        <v>272</v>
+      </c>
+      <c r="AF8">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>110</v>
       </c>
       <c r="AH8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>312</v>
+        <v>144</v>
       </c>
       <c r="AM8" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>162</v>
+        <v>233</v>
       </c>
       <c r="AO8" t="s">
-        <v>257</v>
+        <v>273</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>640</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5695,60 +5877,60 @@
         <v>239</v>
       </c>
       <c r="AT8" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="AU8" t="s">
-        <v>313</v>
+        <v>641</v>
       </c>
       <c r="AV8" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="AW8" t="s">
         <v>208</v>
       </c>
-      <c r="AX8" t="s">
-        <v>314</v>
+      <c r="AX8" s="15" t="s">
+        <v>642</v>
       </c>
     </row>
-    <row r="9" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>261</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C9" t="s">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>318</v>
+        <v>263</v>
       </c>
       <c r="E9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F9" t="s">
-        <v>319</v>
+        <v>264</v>
       </c>
       <c r="G9" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="H9" t="s">
-        <v>321</v>
+        <v>266</v>
       </c>
       <c r="I9" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
       <c r="J9" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="K9" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="L9" t="s">
         <v>248</v>
       </c>
       <c r="M9" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="N9" t="s">
         <v>251</v>
@@ -5757,51 +5939,132 @@
         <v>252</v>
       </c>
       <c r="P9" t="s">
-        <v>324</v>
+        <v>248</v>
       </c>
       <c r="Q9" t="s">
         <v>21</v>
       </c>
+      <c r="R9" t="s">
+        <v>253</v>
+      </c>
+      <c r="S9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" t="s">
+        <v>46</v>
+      </c>
+      <c r="U9" t="s">
+        <v>57</v>
+      </c>
+      <c r="V9" t="s">
+        <v>43</v>
+      </c>
+      <c r="W9" t="s">
+        <v>56</v>
+      </c>
+      <c r="X9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>271</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>273</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>640</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>641</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX9" s="15" t="s">
+        <v>642</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C10" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="D10" t="s">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="E10">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="H10" t="s">
-        <v>248</v>
+        <v>280</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="J10" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="K10" t="s">
-        <v>330</v>
+        <v>283</v>
       </c>
       <c r="L10" t="s">
         <v>248</v>
       </c>
       <c r="M10" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="N10" t="s">
         <v>251</v>
@@ -5810,51 +6073,55 @@
         <v>252</v>
       </c>
       <c r="P10" t="s">
-        <v>332</v>
+        <v>285</v>
       </c>
       <c r="Q10" t="s">
         <v>21</v>
       </c>
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" s="12"/>
     </row>
-    <row r="11" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="D11" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="E11">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="F11" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="G11" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
       <c r="H11" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="I11" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="J11" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="K11" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="L11" t="s">
         <v>248</v>
       </c>
       <c r="M11" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="N11" t="s">
         <v>251</v>
@@ -5868,6 +6135,9 @@
       <c r="Q11" t="s">
         <v>21</v>
       </c>
+      <c r="R11" t="s">
+        <v>286</v>
+      </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
@@ -5875,19 +6145,22 @@
         <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="V11" t="s">
         <v>40</v>
       </c>
       <c r="W11" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="X11" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>294</v>
       </c>
       <c r="Z11" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -5896,87 +6169,96 @@
         <v>2</v>
       </c>
       <c r="AC11">
-        <v>3</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>349</v>
+        <v>2</v>
+      </c>
+      <c r="AD11" s="13" t="s">
+        <v>296</v>
       </c>
       <c r="AF11">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH11" t="s">
-        <v>124</v>
+        <v>115</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>602</v>
       </c>
       <c r="AM11" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AO11" t="s">
-        <v>348</v>
+        <v>603</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
       </c>
       <c r="AR11" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AT11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AU11" t="s">
-        <v>259</v>
+        <v>620</v>
       </c>
       <c r="AV11" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="AW11" t="s">
         <v>209</v>
       </c>
       <c r="AX11" t="s">
-        <v>345</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="D12" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="E12">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F12" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="H12" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="I12" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="J12" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="K12" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="L12" t="s">
         <v>248</v>
       </c>
       <c r="M12" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="N12" t="s">
         <v>251</v>
@@ -5985,49 +6267,52 @@
         <v>252</v>
       </c>
       <c r="P12" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="Q12" t="s">
         <v>21</v>
       </c>
+      <c r="R12" t="s">
+        <v>286</v>
+      </c>
       <c r="S12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="U12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="V12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="W12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="X12" t="s">
-        <v>216</v>
+        <v>69</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>359</v>
       </c>
       <c r="Z12" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="AA12">
         <v>2</v>
       </c>
       <c r="AB12">
-        <v>2</v>
-      </c>
-      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="13">
         <v>3</v>
       </c>
-      <c r="AE12" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF12">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>110</v>
+      <c r="AD12" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE12" s="13" t="s">
+        <v>305</v>
       </c>
       <c r="AH12" t="s">
         <v>120</v>
@@ -6039,81 +6324,81 @@
         <v>113</v>
       </c>
       <c r="AK12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="AL12" t="s">
-        <v>344</v>
+        <v>596</v>
       </c>
       <c r="AM12" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>162</v>
       </c>
       <c r="AO12" t="s">
-        <v>348</v>
+        <v>258</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
       </c>
       <c r="AR12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS12" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="AT12" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AU12" t="s">
-        <v>259</v>
+        <v>307</v>
       </c>
       <c r="AV12" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="AW12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="D13" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="E13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F13" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="G13" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="H13" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="I13" t="s">
-        <v>339</v>
+        <v>248</v>
       </c>
       <c r="J13" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="K13" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="L13" t="s">
         <v>248</v>
       </c>
       <c r="M13" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
       <c r="N13" t="s">
         <v>251</v>
@@ -6122,129 +6407,54 @@
         <v>252</v>
       </c>
       <c r="P13" t="s">
-        <v>248</v>
+        <v>318</v>
       </c>
       <c r="Q13" t="s">
         <v>21</v>
       </c>
-      <c r="S13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13" t="s">
-        <v>41</v>
-      </c>
-      <c r="U13" t="s">
-        <v>55</v>
-      </c>
-      <c r="V13" t="s">
-        <v>40</v>
-      </c>
-      <c r="W13" t="s">
-        <v>53</v>
-      </c>
-      <c r="X13" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA13">
-        <v>2</v>
-      </c>
-      <c r="AB13">
-        <v>2</v>
-      </c>
-      <c r="AC13">
-        <v>3</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>344</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>348</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR13" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS13" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>347</v>
+      <c r="R13" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="D14" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="E14">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="F14" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="G14" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="H14" t="s">
         <v>248</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>248</v>
       </c>
       <c r="J14" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
       <c r="K14" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="L14" t="s">
         <v>248</v>
       </c>
       <c r="M14" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="N14" t="s">
         <v>251</v>
@@ -6253,51 +6463,54 @@
         <v>252</v>
       </c>
       <c r="P14" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="Q14" t="s">
         <v>21</v>
       </c>
+      <c r="R14" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>327</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>358</v>
+        <v>328</v>
       </c>
       <c r="D15" t="s">
-        <v>359</v>
+        <v>329</v>
       </c>
       <c r="E15">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F15" t="s">
-        <v>264</v>
+        <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="H15" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="I15" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="J15" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="K15" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="L15" t="s">
         <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
       <c r="N15" t="s">
         <v>251</v>
@@ -6306,34 +6519,34 @@
         <v>252</v>
       </c>
       <c r="P15" t="s">
-        <v>365</v>
+        <v>248</v>
       </c>
       <c r="Q15" t="s">
         <v>21</v>
       </c>
+      <c r="R15" t="s">
+        <v>253</v>
+      </c>
       <c r="S15" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T15" t="s">
         <v>41</v>
       </c>
       <c r="U15" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="V15" t="s">
         <v>40</v>
       </c>
       <c r="W15" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="X15" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>366</v>
+        <v>216</v>
       </c>
       <c r="Z15" t="s">
-        <v>367</v>
+        <v>609</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6342,69 +6555,90 @@
         <v>2</v>
       </c>
       <c r="AC15">
-        <v>2</v>
-      </c>
-      <c r="AD15" s="12" t="s">
-        <v>369</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="s">
-        <v>368</v>
+        <v>342</v>
       </c>
       <c r="AF15">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>370</v>
+        <v>117</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>610</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>611</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="D16" t="s">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="E16">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F16" t="s">
-        <v>377</v>
+        <v>330</v>
       </c>
       <c r="G16" t="s">
-        <v>378</v>
+        <v>331</v>
       </c>
       <c r="H16" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="I16" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="J16" t="s">
-        <v>248</v>
+        <v>334</v>
       </c>
       <c r="K16" t="s">
-        <v>380</v>
+        <v>335</v>
       </c>
       <c r="L16" t="s">
         <v>248</v>
       </c>
       <c r="M16" t="s">
-        <v>381</v>
+        <v>336</v>
       </c>
       <c r="N16" t="s">
         <v>251</v>
@@ -6413,84 +6647,123 @@
         <v>252</v>
       </c>
       <c r="P16" t="s">
-        <v>382</v>
+        <v>248</v>
       </c>
       <c r="Q16" t="s">
         <v>21</v>
       </c>
+      <c r="R16" t="s">
+        <v>253</v>
+      </c>
+      <c r="S16" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" t="s">
+        <v>55</v>
+      </c>
+      <c r="V16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" t="s">
+        <v>53</v>
+      </c>
+      <c r="X16" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA16">
+        <v>2</v>
+      </c>
+      <c r="AB16">
+        <v>2</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>120</v>
+      </c>
       <c r="AM16" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO16" t="s">
-        <v>274</v>
+        <v>610</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
       </c>
       <c r="AR16" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="AT16" t="s">
-        <v>371</v>
+        <v>259</v>
       </c>
       <c r="AU16" t="s">
-        <v>372</v>
+        <v>260</v>
       </c>
       <c r="AV16" t="s">
-        <v>113</v>
+        <v>206</v>
       </c>
       <c r="AW16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX16" t="s">
-        <v>373</v>
+        <v>611</v>
       </c>
     </row>
-    <row r="17" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="D17" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="E17">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F17" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="G17" t="s">
-        <v>387</v>
+        <v>331</v>
       </c>
       <c r="H17" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="I17" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="J17" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="K17" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="L17" t="s">
         <v>248</v>
       </c>
       <c r="M17" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="N17" t="s">
         <v>251</v>
@@ -6504,29 +6777,29 @@
       <c r="Q17" t="s">
         <v>21</v>
       </c>
+      <c r="R17" t="s">
+        <v>253</v>
+      </c>
       <c r="S17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="W17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X17" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>392</v>
+        <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6537,94 +6810,100 @@
       <c r="AC17">
         <v>3</v>
       </c>
-      <c r="AD17" s="12" t="s">
-        <v>394</v>
+      <c r="AE17" t="s">
+        <v>342</v>
       </c>
       <c r="AF17">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>113</v>
       </c>
       <c r="AK17" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="AL17" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="AM17" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
       </c>
       <c r="AR17" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AT17" t="s">
-        <v>396</v>
+        <v>259</v>
       </c>
       <c r="AU17" t="s">
-        <v>398</v>
+        <v>260</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>206</v>
       </c>
       <c r="AW17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX17" t="s">
-        <v>399</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>383</v>
+        <v>327</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>384</v>
+        <v>328</v>
       </c>
       <c r="D18" t="s">
-        <v>385</v>
+        <v>329</v>
       </c>
       <c r="E18">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="F18" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="G18" t="s">
-        <v>387</v>
-      </c>
-      <c r="H18" t="s">
-        <v>248</v>
+        <v>331</v>
+      </c>
+      <c r="H18">
+        <v>8</v>
       </c>
       <c r="I18" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="J18" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="K18" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="L18" t="s">
         <v>248</v>
       </c>
       <c r="M18" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="N18" t="s">
         <v>251</v>
@@ -6638,29 +6917,29 @@
       <c r="Q18" t="s">
         <v>21</v>
       </c>
+      <c r="R18" t="s">
+        <v>253</v>
+      </c>
       <c r="S18" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="W18" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="X18" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>392</v>
+        <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6671,32 +6950,29 @@
       <c r="AC18">
         <v>3</v>
       </c>
-      <c r="AD18" s="12" t="s">
-        <v>394</v>
+      <c r="AE18" t="s">
+        <v>342</v>
       </c>
       <c r="AF18">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH18" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL18" t="s">
-        <v>395</v>
+        <v>338</v>
       </c>
       <c r="AM18" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO18" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6705,60 +6981,63 @@
         <v>239</v>
       </c>
       <c r="AS18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AT18" t="s">
-        <v>397</v>
+        <v>259</v>
       </c>
       <c r="AU18" t="s">
-        <v>398</v>
+        <v>260</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>206</v>
       </c>
       <c r="AW18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AX18" t="s">
-        <v>399</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>569</v>
-      </c>
-      <c r="B19" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>570</v>
+        <v>344</v>
       </c>
       <c r="D19" t="s">
-        <v>571</v>
+        <v>345</v>
       </c>
       <c r="E19">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="F19" t="s">
-        <v>572</v>
+        <v>346</v>
       </c>
       <c r="G19" t="s">
-        <v>573</v>
+        <v>347</v>
       </c>
       <c r="H19" t="s">
-        <v>321</v>
+        <v>248</v>
       </c>
       <c r="I19" t="s">
-        <v>574</v>
+        <v>314</v>
       </c>
       <c r="J19" t="s">
-        <v>575</v>
+        <v>279</v>
       </c>
       <c r="K19" t="s">
-        <v>576</v>
+        <v>348</v>
       </c>
       <c r="L19" t="s">
         <v>248</v>
       </c>
       <c r="M19" t="s">
-        <v>577</v>
+        <v>349</v>
       </c>
       <c r="N19" t="s">
         <v>251</v>
@@ -6767,132 +7046,54 @@
         <v>252</v>
       </c>
       <c r="P19" t="s">
-        <v>365</v>
+        <v>248</v>
       </c>
       <c r="Q19" t="s">
         <v>21</v>
       </c>
-      <c r="S19" t="s">
-        <v>25</v>
-      </c>
-      <c r="T19" t="s">
-        <v>42</v>
-      </c>
-      <c r="U19" t="s">
-        <v>59</v>
-      </c>
-      <c r="V19" t="s">
-        <v>36</v>
-      </c>
-      <c r="W19" t="s">
-        <v>47</v>
-      </c>
-      <c r="X19" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>578</v>
-      </c>
-      <c r="AA19">
-        <v>2</v>
-      </c>
-      <c r="AB19">
-        <v>2</v>
-      </c>
-      <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AD19" s="12" t="s">
-        <v>579</v>
-      </c>
-      <c r="AF19">
-        <v>4.3</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>580</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>566</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>581</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>582</v>
+      <c r="R19" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="D20" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="E20">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F20" t="s">
         <v>264</v>
       </c>
       <c r="G20" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="H20" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="I20" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="J20" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="K20" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="L20" t="s">
         <v>248</v>
       </c>
       <c r="M20" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="N20" t="s">
         <v>251</v>
@@ -6901,31 +7102,37 @@
         <v>252</v>
       </c>
       <c r="P20" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="Q20" t="s">
         <v>21</v>
       </c>
+      <c r="R20" t="s">
+        <v>286</v>
+      </c>
       <c r="S20" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T20" t="s">
         <v>41</v>
       </c>
       <c r="U20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="V20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W20" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="X20" t="s">
-        <v>215</v>
+        <v>69</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>359</v>
       </c>
       <c r="Z20" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -6934,96 +7141,99 @@
         <v>2</v>
       </c>
       <c r="AC20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="AE20" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="AF20">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH20" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AM20" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>161</v>
       </c>
       <c r="AO20" t="s">
-        <v>274</v>
+        <v>621</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
       </c>
       <c r="AR20" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AS20" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>622</v>
       </c>
       <c r="AU20" t="s">
-        <v>411</v>
+        <v>624</v>
       </c>
       <c r="AV20" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AW20" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>412</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="D21" t="s">
-        <v>402</v>
+        <v>352</v>
       </c>
       <c r="E21">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F21" t="s">
         <v>264</v>
       </c>
       <c r="G21" t="s">
-        <v>403</v>
+        <v>353</v>
       </c>
       <c r="H21" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="I21" t="s">
-        <v>404</v>
+        <v>354</v>
       </c>
       <c r="J21" t="s">
-        <v>405</v>
+        <v>355</v>
       </c>
       <c r="K21" t="s">
-        <v>406</v>
+        <v>356</v>
       </c>
       <c r="L21" t="s">
         <v>248</v>
       </c>
       <c r="M21" t="s">
-        <v>407</v>
+        <v>357</v>
       </c>
       <c r="N21" t="s">
         <v>251</v>
@@ -7032,31 +7242,37 @@
         <v>252</v>
       </c>
       <c r="P21" t="s">
-        <v>308</v>
+        <v>358</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
       </c>
+      <c r="R21" t="s">
+        <v>286</v>
+      </c>
       <c r="S21" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="T21" t="s">
         <v>41</v>
       </c>
       <c r="U21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="V21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="W21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>69</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>359</v>
       </c>
       <c r="Z21" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -7065,19 +7281,19 @@
         <v>2</v>
       </c>
       <c r="AC21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD21" s="12" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="AE21" t="s">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="AF21">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH21" t="s">
         <v>120</v>
@@ -7086,75 +7302,84 @@
         <v>140</v>
       </c>
       <c r="AK21" t="s">
-        <v>148</v>
+        <v>150</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>623</v>
       </c>
       <c r="AM21" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>161</v>
       </c>
       <c r="AO21" t="s">
-        <v>274</v>
+        <v>621</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
       </c>
       <c r="AR21" t="s">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AS21" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>622</v>
       </c>
       <c r="AU21" t="s">
-        <v>411</v>
+        <v>624</v>
       </c>
       <c r="AV21" t="s">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="AW21" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX21" t="s">
-        <v>412</v>
+        <v>625</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>413</v>
+        <v>350</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
-        <v>414</v>
+        <v>351</v>
       </c>
       <c r="D22" t="s">
-        <v>415</v>
+        <v>352</v>
       </c>
       <c r="E22">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="F22" t="s">
-        <v>416</v>
+        <v>264</v>
       </c>
       <c r="G22" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
       <c r="H22" t="s">
-        <v>266</v>
+        <v>315</v>
       </c>
       <c r="I22" t="s">
-        <v>248</v>
+        <v>354</v>
       </c>
       <c r="J22" t="s">
-        <v>248</v>
+        <v>355</v>
       </c>
       <c r="K22" t="s">
-        <v>418</v>
+        <v>356</v>
       </c>
       <c r="L22" t="s">
         <v>248</v>
       </c>
       <c r="M22" t="s">
-        <v>419</v>
+        <v>357</v>
       </c>
       <c r="N22" t="s">
         <v>251</v>
@@ -7163,34 +7388,37 @@
         <v>252</v>
       </c>
       <c r="P22" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="Q22" t="s">
         <v>21</v>
       </c>
+      <c r="R22" t="s">
+        <v>286</v>
+      </c>
       <c r="S22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="V22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="W22" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="X22" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="Y22" t="s">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="Z22" t="s">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7199,81 +7427,90 @@
         <v>2</v>
       </c>
       <c r="AC22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD22" s="12" t="s">
-        <v>420</v>
+        <v>362</v>
       </c>
       <c r="AE22" t="s">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="AF22">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AH22" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>140</v>
       </c>
       <c r="AK22" t="s">
         <v>150</v>
       </c>
       <c r="AL22" t="s">
-        <v>395</v>
+        <v>628</v>
       </c>
       <c r="AM22" t="s">
         <v>232</v>
       </c>
       <c r="AN22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO22" t="s">
-        <v>274</v>
+        <v>627</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
       </c>
       <c r="AR22" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>622</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>629</v>
+      </c>
+      <c r="AV22" t="s">
         <v>113</v>
       </c>
-      <c r="AT22" t="s">
-        <v>423</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>199</v>
-      </c>
       <c r="AW22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX22" t="s">
-        <v>424</v>
+        <v>630</v>
       </c>
     </row>
-    <row r="23" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C23" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="D23" t="s">
-        <v>428</v>
+        <v>365</v>
       </c>
       <c r="E23">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F23" t="s">
-        <v>429</v>
+        <v>366</v>
       </c>
       <c r="G23" t="s">
-        <v>430</v>
+        <v>367</v>
       </c>
       <c r="H23" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="I23" t="s">
         <v>248</v>
@@ -7282,13 +7519,13 @@
         <v>248</v>
       </c>
       <c r="K23" t="s">
-        <v>431</v>
+        <v>369</v>
       </c>
       <c r="L23" t="s">
         <v>248</v>
       </c>
       <c r="M23" t="s">
-        <v>432</v>
+        <v>370</v>
       </c>
       <c r="N23" t="s">
         <v>251</v>
@@ -7297,129 +7534,54 @@
         <v>252</v>
       </c>
       <c r="P23" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="Q23" t="s">
         <v>21</v>
       </c>
-      <c r="S23" t="s">
-        <v>24</v>
-      </c>
-      <c r="T23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
-        <v>59</v>
-      </c>
-      <c r="V23" t="s">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s">
-        <v>55</v>
-      </c>
-      <c r="X23" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA23">
-        <v>2</v>
-      </c>
-      <c r="AB23">
-        <v>2</v>
-      </c>
-      <c r="AC23">
-        <v>3</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>433</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>439</v>
-      </c>
-      <c r="AF23">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>435</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>436</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>437</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>438</v>
+      <c r="R23" t="s">
+        <v>286</v>
       </c>
     </row>
-    <row r="24" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>372</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C24" t="s">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="D24" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
       <c r="E24">
-        <v>2014</v>
+        <v>2017</v>
       </c>
       <c r="F24" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="G24" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
       <c r="H24" t="s">
         <v>248</v>
       </c>
       <c r="I24" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
       <c r="J24" t="s">
-        <v>446</v>
+        <v>378</v>
       </c>
       <c r="K24" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
       <c r="L24" t="s">
         <v>248</v>
       </c>
       <c r="M24" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="N24" t="s">
         <v>251</v>
@@ -7433,118 +7595,50 @@
       <c r="Q24" t="s">
         <v>21</v>
       </c>
-      <c r="S24" t="s">
-        <v>24</v>
-      </c>
-      <c r="T24" t="s">
-        <v>46</v>
-      </c>
-      <c r="U24" t="s">
-        <v>59</v>
-      </c>
-      <c r="V24" t="s">
-        <v>46</v>
-      </c>
-      <c r="W24" t="s">
-        <v>55</v>
-      </c>
-      <c r="X24" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA24">
-        <v>2</v>
-      </c>
-      <c r="AB24">
-        <v>2</v>
-      </c>
-      <c r="AC24">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>451</v>
-      </c>
-      <c r="AF24">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>395</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>274</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>423</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>454</v>
-      </c>
+      <c r="R24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD24" s="12"/>
     </row>
-    <row r="25" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>440</v>
-      </c>
-      <c r="B25" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B25" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
-        <v>441</v>
+        <v>547</v>
       </c>
       <c r="D25" t="s">
-        <v>442</v>
+        <v>548</v>
       </c>
       <c r="E25">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="F25" t="s">
-        <v>443</v>
+        <v>549</v>
       </c>
       <c r="G25" t="s">
-        <v>444</v>
+        <v>550</v>
       </c>
       <c r="H25" t="s">
-        <v>248</v>
+        <v>315</v>
       </c>
       <c r="I25" t="s">
-        <v>445</v>
+        <v>551</v>
       </c>
       <c r="J25" t="s">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="K25" t="s">
-        <v>447</v>
+        <v>553</v>
       </c>
       <c r="L25" t="s">
         <v>248</v>
       </c>
       <c r="M25" t="s">
-        <v>448</v>
+        <v>554</v>
       </c>
       <c r="N25" t="s">
         <v>251</v>
@@ -7553,31 +7647,34 @@
         <v>252</v>
       </c>
       <c r="P25" t="s">
-        <v>248</v>
+        <v>358</v>
       </c>
       <c r="Q25" t="s">
         <v>21</v>
       </c>
+      <c r="R25" t="s">
+        <v>555</v>
+      </c>
       <c r="S25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T25" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="U25" t="s">
         <v>59</v>
       </c>
       <c r="V25" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="W25" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="X25" t="s">
         <v>216</v>
       </c>
-      <c r="Z25" t="s">
-        <v>449</v>
+      <c r="Y25" t="s">
+        <v>556</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7586,90 +7683,99 @@
         <v>2</v>
       </c>
       <c r="AC25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>455</v>
+        <v>557</v>
       </c>
       <c r="AF25">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH25" t="s">
-        <v>220</v>
+        <v>121</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>148</v>
       </c>
       <c r="AL25" t="s">
-        <v>452</v>
+        <v>558</v>
       </c>
       <c r="AM25" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>161</v>
+        <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
       </c>
+      <c r="AR25" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>175</v>
+      </c>
       <c r="AT25" t="s">
-        <v>423</v>
+        <v>543</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>559</v>
       </c>
       <c r="AV25" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="AW25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX25" t="s">
-        <v>453</v>
+        <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>457</v>
+        <v>383</v>
       </c>
       <c r="D26" t="s">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="E26">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F26" t="s">
-        <v>336</v>
+        <v>264</v>
       </c>
       <c r="G26" t="s">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="H26" t="s">
-        <v>460</v>
+        <v>266</v>
       </c>
       <c r="I26" t="s">
-        <v>461</v>
+        <v>386</v>
       </c>
       <c r="J26" t="s">
-        <v>462</v>
+        <v>387</v>
       </c>
       <c r="K26" t="s">
-        <v>463</v>
+        <v>388</v>
       </c>
       <c r="L26" t="s">
         <v>248</v>
       </c>
       <c r="M26" t="s">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="N26" t="s">
         <v>251</v>
@@ -7678,31 +7784,34 @@
         <v>252</v>
       </c>
       <c r="P26" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="Q26" t="s">
         <v>21</v>
       </c>
+      <c r="R26" t="s">
+        <v>286</v>
+      </c>
       <c r="S26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T26" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="W26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X26" t="s">
         <v>215</v>
       </c>
       <c r="Z26" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7714,7 +7823,10 @@
         <v>3</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>466</v>
+        <v>390</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>392</v>
       </c>
       <c r="AF26">
         <v>4.4000000000000004</v>
@@ -7723,81 +7835,81 @@
         <v>110</v>
       </c>
       <c r="AH26" t="s">
-        <v>124</v>
+        <v>120</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>133</v>
       </c>
       <c r="AK26" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>395</v>
+        <v>148</v>
       </c>
       <c r="AM26" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
       </c>
-      <c r="AT26" t="s">
-        <v>423</v>
+      <c r="AR26" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>176</v>
       </c>
       <c r="AU26" t="s">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="AV26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AW26" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX26" t="s">
-        <v>468</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>469</v>
+        <v>382</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
-        <v>470</v>
+        <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>471</v>
+        <v>384</v>
       </c>
       <c r="E27">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="F27" t="s">
-        <v>472</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
-        <v>473</v>
+        <v>385</v>
       </c>
       <c r="H27" t="s">
-        <v>378</v>
+        <v>266</v>
       </c>
       <c r="I27" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="J27" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="K27" t="s">
-        <v>475</v>
+        <v>388</v>
       </c>
       <c r="L27" t="s">
         <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>476</v>
+        <v>389</v>
       </c>
       <c r="N27" t="s">
         <v>251</v>
@@ -7806,34 +7918,34 @@
         <v>252</v>
       </c>
       <c r="P27" t="s">
-        <v>248</v>
+        <v>304</v>
       </c>
       <c r="Q27" t="s">
         <v>21</v>
       </c>
+      <c r="R27" t="s">
+        <v>286</v>
+      </c>
       <c r="S27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T27" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s">
         <v>57</v>
       </c>
       <c r="V27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W27" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="X27" t="s">
         <v>215</v>
       </c>
-      <c r="Y27" t="s">
-        <v>477</v>
-      </c>
       <c r="Z27" t="s">
-        <v>478</v>
+        <v>391</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7844,11 +7956,11 @@
       <c r="AC27">
         <v>3</v>
       </c>
-      <c r="AD27" t="s">
-        <v>479</v>
+      <c r="AD27" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="AE27" t="s">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="AF27">
         <v>4.4000000000000004</v>
@@ -7857,90 +7969,81 @@
         <v>110</v>
       </c>
       <c r="AH27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI27" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AK27" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>481</v>
+        <v>148</v>
       </c>
       <c r="AM27" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
       </c>
       <c r="AR27" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="AS27" t="s">
-        <v>188</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>481</v>
+        <v>176</v>
       </c>
       <c r="AU27" t="s">
-        <v>259</v>
+        <v>393</v>
       </c>
       <c r="AV27" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX27" t="s">
-        <v>482</v>
+        <v>394</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>483</v>
+        <v>395</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>484</v>
+        <v>396</v>
       </c>
       <c r="D28" t="s">
-        <v>485</v>
+        <v>397</v>
       </c>
       <c r="E28">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="F28" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="G28" t="s">
-        <v>486</v>
+        <v>399</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="I28" t="s">
-        <v>487</v>
+        <v>248</v>
       </c>
       <c r="J28" t="s">
-        <v>488</v>
+        <v>248</v>
       </c>
       <c r="K28" t="s">
-        <v>489</v>
+        <v>400</v>
       </c>
       <c r="L28" t="s">
         <v>248</v>
       </c>
       <c r="M28" t="s">
-        <v>490</v>
+        <v>401</v>
       </c>
       <c r="N28" t="s">
         <v>251</v>
@@ -7949,34 +8052,37 @@
         <v>252</v>
       </c>
       <c r="P28" t="s">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="Q28" t="s">
         <v>21</v>
       </c>
+      <c r="R28" t="s">
+        <v>286</v>
+      </c>
       <c r="S28" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T28" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W28" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="X28" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="Y28" t="s">
-        <v>492</v>
+        <v>403</v>
       </c>
       <c r="Z28" t="s">
-        <v>493</v>
+        <v>404</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -7985,28 +8091,28 @@
         <v>2</v>
       </c>
       <c r="AC28">
-        <v>2</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>491</v>
+        <v>3</v>
+      </c>
+      <c r="AD28" s="12" t="s">
+        <v>402</v>
       </c>
       <c r="AE28" t="s">
-        <v>494</v>
+        <v>406</v>
       </c>
       <c r="AF28">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG28" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AH28" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AK28" t="s">
         <v>150</v>
       </c>
       <c r="AL28" t="s">
-        <v>495</v>
+        <v>381</v>
       </c>
       <c r="AM28" t="s">
         <v>232</v>
@@ -8015,69 +8121,69 @@
         <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>274</v>
+        <v>617</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
       </c>
       <c r="AR28" t="s">
-        <v>113</v>
+        <v>239</v>
       </c>
       <c r="AT28" t="s">
-        <v>496</v>
+        <v>612</v>
       </c>
       <c r="AU28" t="s">
-        <v>497</v>
+        <v>613</v>
       </c>
       <c r="AV28" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AW28" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX28" t="s">
-        <v>498</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>499</v>
+        <v>395</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
-        <v>500</v>
+        <v>396</v>
       </c>
       <c r="D29" t="s">
-        <v>501</v>
+        <v>397</v>
       </c>
       <c r="E29">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="F29" t="s">
-        <v>502</v>
+        <v>398</v>
       </c>
       <c r="G29" t="s">
-        <v>503</v>
+        <v>399</v>
       </c>
       <c r="H29" t="s">
-        <v>504</v>
+        <v>266</v>
       </c>
       <c r="I29" t="s">
-        <v>505</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
-        <v>506</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>507</v>
+        <v>400</v>
       </c>
       <c r="L29" t="s">
         <v>248</v>
       </c>
       <c r="M29" t="s">
-        <v>508</v>
+        <v>401</v>
       </c>
       <c r="N29" t="s">
         <v>251</v>
@@ -8086,55 +8192,58 @@
         <v>252</v>
       </c>
       <c r="P29" t="s">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="Q29" t="s">
         <v>21</v>
       </c>
+      <c r="R29" t="s">
+        <v>286</v>
+      </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U29" t="s">
         <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W29" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="X29" t="s">
-        <v>216</v>
+        <v>113</v>
       </c>
       <c r="Y29" t="s">
-        <v>510</v>
+        <v>403</v>
       </c>
       <c r="Z29" t="s">
-        <v>511</v>
+        <v>404</v>
       </c>
       <c r="AA29">
         <v>2</v>
       </c>
       <c r="AB29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>509</v>
+        <v>402</v>
       </c>
       <c r="AE29" t="s">
-        <v>512</v>
+        <v>406</v>
       </c>
       <c r="AF29">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG29" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AH29" t="s">
         <v>117</v>
@@ -8143,13 +8252,16 @@
         <v>150</v>
       </c>
       <c r="AL29" t="s">
-        <v>513</v>
+        <v>381</v>
       </c>
       <c r="AM29" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>160</v>
       </c>
       <c r="AO29" t="s">
-        <v>516</v>
+        <v>615</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8157,58 +8269,61 @@
       <c r="AR29" t="s">
         <v>239</v>
       </c>
+      <c r="AT29" t="s">
+        <v>612</v>
+      </c>
       <c r="AU29" t="s">
-        <v>517</v>
+        <v>616</v>
       </c>
       <c r="AV29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX29" t="s">
-        <v>518</v>
+        <v>618</v>
       </c>
     </row>
-    <row r="30" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>499</v>
+        <v>407</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>500</v>
+        <v>408</v>
       </c>
       <c r="D30" t="s">
-        <v>501</v>
+        <v>409</v>
       </c>
       <c r="E30">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F30" t="s">
-        <v>502</v>
+        <v>410</v>
       </c>
       <c r="G30" t="s">
-        <v>503</v>
+        <v>411</v>
       </c>
       <c r="H30" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="I30" t="s">
-        <v>505</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>506</v>
+        <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="L30" t="s">
         <v>248</v>
       </c>
       <c r="M30" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
       <c r="N30" t="s">
         <v>251</v>
@@ -8217,129 +8332,123 @@
         <v>252</v>
       </c>
       <c r="P30" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
+      <c r="R30" t="s">
+        <v>253</v>
+      </c>
       <c r="S30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V30" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W30" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X30" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="Z30" t="s">
-        <v>511</v>
+        <v>415</v>
       </c>
       <c r="AA30">
         <v>2</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC30">
-        <v>2</v>
-      </c>
-      <c r="AD30" s="12" t="s">
-        <v>509</v>
+        <v>3</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>414</v>
       </c>
       <c r="AE30" t="s">
-        <v>512</v>
+        <v>418</v>
       </c>
       <c r="AF30">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH30" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK30" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL30" t="s">
-        <v>514</v>
+        <v>115</v>
       </c>
       <c r="AM30" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO30" t="s">
-        <v>516</v>
+        <v>645</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
-      <c r="AR30" t="s">
-        <v>239</v>
+      <c r="AT30" t="s">
+        <v>417</v>
       </c>
       <c r="AU30" t="s">
-        <v>517</v>
+        <v>260</v>
       </c>
       <c r="AV30" t="s">
         <v>199</v>
       </c>
       <c r="AW30" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX30" t="s">
-        <v>519</v>
+        <v>643</v>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>499</v>
+        <v>407</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
-        <v>500</v>
+        <v>408</v>
       </c>
       <c r="D31" t="s">
-        <v>501</v>
+        <v>409</v>
       </c>
       <c r="E31">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F31" t="s">
-        <v>502</v>
+        <v>410</v>
       </c>
       <c r="G31" t="s">
-        <v>503</v>
+        <v>411</v>
       </c>
       <c r="H31" t="s">
-        <v>504</v>
+        <v>248</v>
       </c>
       <c r="I31" t="s">
-        <v>505</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>506</v>
+        <v>248</v>
       </c>
       <c r="K31" t="s">
-        <v>507</v>
+        <v>412</v>
       </c>
       <c r="L31" t="s">
         <v>248</v>
       </c>
       <c r="M31" t="s">
-        <v>508</v>
+        <v>413</v>
       </c>
       <c r="N31" t="s">
         <v>251</v>
@@ -8348,129 +8457,123 @@
         <v>252</v>
       </c>
       <c r="P31" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
+      <c r="R31" t="s">
+        <v>253</v>
+      </c>
       <c r="S31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="T31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U31" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="W31" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X31" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="Z31" t="s">
-        <v>511</v>
+        <v>415</v>
       </c>
       <c r="AA31">
         <v>2</v>
       </c>
       <c r="AB31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC31">
-        <v>2</v>
-      </c>
-      <c r="AD31" s="12" t="s">
-        <v>509</v>
+        <v>3</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>414</v>
       </c>
       <c r="AE31" t="s">
-        <v>512</v>
+        <v>418</v>
       </c>
       <c r="AF31">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH31" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK31" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>515</v>
+        <v>116</v>
       </c>
       <c r="AM31" t="s">
-        <v>233</v>
+        <v>159</v>
       </c>
       <c r="AO31" t="s">
-        <v>516</v>
+        <v>645</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
-      <c r="AR31" t="s">
-        <v>239</v>
+      <c r="AT31" t="s">
+        <v>417</v>
       </c>
       <c r="AU31" t="s">
-        <v>517</v>
+        <v>260</v>
       </c>
       <c r="AV31" t="s">
         <v>199</v>
       </c>
       <c r="AW31" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX31" t="s">
-        <v>520</v>
+        <v>643</v>
       </c>
     </row>
-    <row r="32" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>521</v>
+        <v>407</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
-        <v>522</v>
+        <v>408</v>
       </c>
       <c r="D32" t="s">
-        <v>523</v>
+        <v>409</v>
       </c>
       <c r="E32">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F32" t="s">
-        <v>524</v>
+        <v>410</v>
       </c>
       <c r="G32" t="s">
-        <v>525</v>
+        <v>411</v>
       </c>
       <c r="H32" t="s">
-        <v>378</v>
+        <v>248</v>
       </c>
       <c r="I32" t="s">
-        <v>526</v>
+        <v>248</v>
       </c>
       <c r="J32" t="s">
-        <v>527</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>528</v>
+        <v>412</v>
       </c>
       <c r="L32" t="s">
         <v>248</v>
       </c>
       <c r="M32" t="s">
-        <v>529</v>
+        <v>413</v>
       </c>
       <c r="N32" t="s">
         <v>251</v>
@@ -8479,54 +8582,129 @@
         <v>252</v>
       </c>
       <c r="P32" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
+      <c r="R32" t="s">
+        <v>253</v>
+      </c>
+      <c r="S32" t="s">
+        <v>24</v>
+      </c>
+      <c r="T32" t="s">
+        <v>46</v>
+      </c>
+      <c r="U32" t="s">
+        <v>59</v>
+      </c>
+      <c r="V32" t="s">
+        <v>46</v>
+      </c>
+      <c r="W32" t="s">
+        <v>55</v>
+      </c>
+      <c r="X32" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA32">
+        <v>2</v>
+      </c>
+      <c r="AB32">
+        <v>2</v>
+      </c>
+      <c r="AC32">
+        <v>3</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>414</v>
+      </c>
       <c r="AE32" t="s">
-        <v>530</v>
+        <v>418</v>
+      </c>
+      <c r="AF32">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG32" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL32" t="s">
+        <v>644</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO32" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>643</v>
       </c>
     </row>
-    <row r="33" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>531</v>
+        <v>407</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
-        <v>532</v>
+        <v>408</v>
       </c>
       <c r="D33" t="s">
-        <v>533</v>
+        <v>409</v>
       </c>
       <c r="E33">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="F33" t="s">
-        <v>534</v>
+        <v>410</v>
       </c>
       <c r="G33" t="s">
-        <v>535</v>
+        <v>411</v>
       </c>
       <c r="H33" t="s">
-        <v>536</v>
+        <v>248</v>
       </c>
       <c r="I33" t="s">
-        <v>537</v>
+        <v>248</v>
       </c>
       <c r="J33" t="s">
-        <v>538</v>
+        <v>248</v>
       </c>
       <c r="K33" t="s">
-        <v>539</v>
+        <v>412</v>
       </c>
       <c r="L33" t="s">
         <v>248</v>
       </c>
       <c r="M33" t="s">
-        <v>540</v>
+        <v>413</v>
       </c>
       <c r="N33" t="s">
         <v>251</v>
@@ -8535,110 +8713,260 @@
         <v>252</v>
       </c>
       <c r="P33" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
       </c>
+      <c r="R33" t="s">
+        <v>253</v>
+      </c>
+      <c r="S33" t="s">
+        <v>24</v>
+      </c>
+      <c r="T33" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" t="s">
+        <v>59</v>
+      </c>
+      <c r="V33" t="s">
+        <v>46</v>
+      </c>
+      <c r="W33" t="s">
+        <v>55</v>
+      </c>
+      <c r="X33" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA33">
+        <v>2</v>
+      </c>
+      <c r="AB33">
+        <v>2</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>414</v>
+      </c>
       <c r="AE33" t="s">
-        <v>541</v>
+        <v>418</v>
+      </c>
+      <c r="AF33">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG33" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO33" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>647</v>
       </c>
     </row>
-    <row r="34" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>542</v>
+        <v>407</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
-        <v>543</v>
+        <v>408</v>
       </c>
       <c r="D34" t="s">
-        <v>544</v>
+        <v>409</v>
       </c>
       <c r="E34">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="F34" t="s">
-        <v>545</v>
+        <v>410</v>
       </c>
       <c r="G34" t="s">
-        <v>546</v>
+        <v>411</v>
       </c>
       <c r="H34" t="s">
-        <v>536</v>
+        <v>248</v>
       </c>
       <c r="I34" t="s">
-        <v>547</v>
+        <v>248</v>
       </c>
       <c r="J34" t="s">
-        <v>548</v>
+        <v>248</v>
       </c>
       <c r="K34" t="s">
-        <v>549</v>
+        <v>412</v>
       </c>
       <c r="L34" t="s">
         <v>248</v>
       </c>
       <c r="M34" t="s">
-        <v>550</v>
+        <v>413</v>
       </c>
       <c r="N34" t="s">
         <v>251</v>
       </c>
       <c r="O34" t="s">
-        <v>551</v>
+        <v>252</v>
       </c>
       <c r="P34" t="s">
-        <v>248</v>
+        <v>326</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
       </c>
+      <c r="R34" t="s">
+        <v>253</v>
+      </c>
+      <c r="S34" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s">
+        <v>59</v>
+      </c>
+      <c r="V34" t="s">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s">
+        <v>55</v>
+      </c>
+      <c r="X34" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>415</v>
+      </c>
+      <c r="AA34">
+        <v>2</v>
+      </c>
+      <c r="AB34">
+        <v>2</v>
+      </c>
+      <c r="AC34">
+        <v>3</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>414</v>
+      </c>
       <c r="AE34" t="s">
-        <v>552</v>
+        <v>418</v>
+      </c>
+      <c r="AF34">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>416</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>159</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>417</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>646</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>647</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>553</v>
+        <v>419</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>554</v>
+        <v>420</v>
       </c>
       <c r="D35" t="s">
-        <v>555</v>
+        <v>421</v>
       </c>
       <c r="E35">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="F35" t="s">
-        <v>556</v>
+        <v>422</v>
       </c>
       <c r="G35" t="s">
-        <v>557</v>
+        <v>423</v>
       </c>
       <c r="H35" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="I35" t="s">
-        <v>558</v>
+        <v>424</v>
       </c>
       <c r="J35" t="s">
-        <v>559</v>
+        <v>425</v>
       </c>
       <c r="K35" t="s">
-        <v>248</v>
+        <v>426</v>
       </c>
       <c r="L35" t="s">
         <v>248</v>
       </c>
       <c r="M35" t="s">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="N35" t="s">
         <v>251</v>
@@ -8652,124 +8980,121 @@
       <c r="Q35" t="s">
         <v>21</v>
       </c>
+      <c r="R35" t="s">
+        <v>253</v>
+      </c>
       <c r="S35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="U35" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="V35" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W35" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="X35" t="s">
         <v>216</v>
       </c>
-      <c r="Y35" t="s">
-        <v>562</v>
-      </c>
       <c r="Z35" t="s">
-        <v>561</v>
+        <v>428</v>
       </c>
       <c r="AA35">
         <v>2</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC35">
         <v>2</v>
       </c>
       <c r="AD35" s="12" t="s">
-        <v>563</v>
+        <v>429</v>
       </c>
       <c r="AE35" t="s">
-        <v>564</v>
+        <v>430</v>
       </c>
       <c r="AF35">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="AH35" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="AL35" t="s">
-        <v>565</v>
+        <v>381</v>
       </c>
       <c r="AM35" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN35" t="s">
+        <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
       </c>
       <c r="AT35" t="s">
-        <v>566</v>
-      </c>
-      <c r="AU35" t="s">
-        <v>567</v>
+        <v>405</v>
       </c>
       <c r="AV35" t="s">
         <v>199</v>
       </c>
       <c r="AW35" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX35" t="s">
-        <v>568</v>
+        <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>590</v>
+        <v>419</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>591</v>
+        <v>420</v>
       </c>
       <c r="D36" t="s">
-        <v>592</v>
+        <v>421</v>
       </c>
       <c r="E36">
-        <v>1998</v>
+        <v>2014</v>
       </c>
       <c r="F36" t="s">
-        <v>593</v>
+        <v>422</v>
       </c>
       <c r="G36" t="s">
-        <v>594</v>
+        <v>423</v>
       </c>
       <c r="H36" t="s">
-        <v>536</v>
+        <v>248</v>
       </c>
       <c r="I36" t="s">
-        <v>595</v>
+        <v>424</v>
       </c>
       <c r="J36" t="s">
-        <v>596</v>
+        <v>425</v>
       </c>
       <c r="K36" t="s">
-        <v>248</v>
+        <v>426</v>
       </c>
       <c r="L36" t="s">
         <v>248</v>
       </c>
       <c r="M36" t="s">
-        <v>597</v>
+        <v>427</v>
       </c>
       <c r="N36" t="s">
         <v>251</v>
@@ -8783,8 +9108,11 @@
       <c r="Q36" t="s">
         <v>21</v>
       </c>
+      <c r="R36" t="s">
+        <v>253</v>
+      </c>
       <c r="S36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T36" t="s">
         <v>46</v>
@@ -8793,19 +9121,16 @@
         <v>59</v>
       </c>
       <c r="V36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="W36" t="s">
         <v>55</v>
       </c>
       <c r="X36" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>616</v>
+        <v>216</v>
       </c>
       <c r="Z36" t="s">
-        <v>617</v>
+        <v>428</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -8816,8 +9141,11 @@
       <c r="AC36">
         <v>2</v>
       </c>
-      <c r="AD36" t="s">
-        <v>618</v>
+      <c r="AD36" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>434</v>
       </c>
       <c r="AF36">
         <v>4.4000000000000004</v>
@@ -8826,84 +9154,75 @@
         <v>110</v>
       </c>
       <c r="AH36" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK36" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="AL36" t="s">
-        <v>619</v>
+        <v>431</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
       </c>
       <c r="AN36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO36" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
       </c>
-      <c r="AR36" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS36" t="s">
-        <v>189</v>
-      </c>
       <c r="AT36" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU36" t="s">
-        <v>259</v>
+        <v>405</v>
       </c>
       <c r="AV36" t="s">
         <v>199</v>
       </c>
       <c r="AW36" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>432</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>590</v>
+        <v>435</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>591</v>
+        <v>436</v>
       </c>
       <c r="D37" t="s">
-        <v>592</v>
+        <v>437</v>
       </c>
       <c r="E37">
-        <v>1998</v>
+        <v>2013</v>
       </c>
       <c r="F37" t="s">
-        <v>593</v>
+        <v>330</v>
       </c>
       <c r="G37" t="s">
-        <v>594</v>
+        <v>438</v>
       </c>
       <c r="H37" t="s">
-        <v>536</v>
+        <v>439</v>
       </c>
       <c r="I37" t="s">
-        <v>595</v>
+        <v>440</v>
       </c>
       <c r="J37" t="s">
-        <v>596</v>
+        <v>441</v>
       </c>
       <c r="K37" t="s">
-        <v>248</v>
+        <v>442</v>
       </c>
       <c r="L37" t="s">
         <v>248</v>
       </c>
       <c r="M37" t="s">
-        <v>597</v>
+        <v>443</v>
       </c>
       <c r="N37" t="s">
         <v>251</v>
@@ -8917,17 +9236,20 @@
       <c r="Q37" t="s">
         <v>21</v>
       </c>
+      <c r="R37" t="s">
+        <v>253</v>
+      </c>
       <c r="S37" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="T37" t="s">
         <v>46</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V37" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="W37" t="s">
         <v>55</v>
@@ -8935,11 +9257,8 @@
       <c r="X37" t="s">
         <v>215</v>
       </c>
-      <c r="Y37" t="s">
-        <v>616</v>
-      </c>
       <c r="Z37" t="s">
-        <v>617</v>
+        <v>444</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -8948,10 +9267,10 @@
         <v>2</v>
       </c>
       <c r="AC37">
-        <v>2</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>618</v>
+        <v>3</v>
+      </c>
+      <c r="AD37" s="12" t="s">
+        <v>445</v>
       </c>
       <c r="AF37">
         <v>4.4000000000000004</v>
@@ -8960,13 +9279,10 @@
         <v>110</v>
       </c>
       <c r="AH37" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL37" t="s">
-        <v>620</v>
+        <v>117</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>144</v>
       </c>
       <c r="AM37" t="s">
         <v>232</v>
@@ -8975,69 +9291,66 @@
         <v>160</v>
       </c>
       <c r="AO37" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
       </c>
-      <c r="AR37" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS37" t="s">
-        <v>189</v>
-      </c>
       <c r="AT37" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="AU37" t="s">
-        <v>259</v>
+        <v>446</v>
       </c>
       <c r="AV37" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW37" t="s">
         <v>208</v>
       </c>
+      <c r="AX37" t="s">
+        <v>447</v>
+      </c>
     </row>
-    <row r="38" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>598</v>
-      </c>
-      <c r="B38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C38" t="s">
-        <v>599</v>
+        <v>436</v>
       </c>
       <c r="D38" t="s">
-        <v>600</v>
+        <v>437</v>
       </c>
       <c r="E38">
-        <v>2002</v>
+        <v>2013</v>
       </c>
       <c r="F38" t="s">
-        <v>601</v>
+        <v>330</v>
       </c>
       <c r="G38" t="s">
-        <v>602</v>
+        <v>438</v>
       </c>
       <c r="H38" t="s">
-        <v>504</v>
+        <v>439</v>
       </c>
       <c r="I38" t="s">
-        <v>603</v>
+        <v>440</v>
       </c>
       <c r="J38" t="s">
-        <v>604</v>
+        <v>441</v>
       </c>
       <c r="K38" t="s">
-        <v>605</v>
+        <v>442</v>
       </c>
       <c r="L38" t="s">
         <v>248</v>
       </c>
       <c r="M38" t="s">
-        <v>606</v>
+        <v>443</v>
       </c>
       <c r="N38" t="s">
         <v>251</v>
@@ -9046,22 +9359,25 @@
         <v>252</v>
       </c>
       <c r="P38" t="s">
-        <v>607</v>
+        <v>248</v>
       </c>
       <c r="Q38" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="R38" t="s">
+        <v>253</v>
       </c>
       <c r="S38" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T38" t="s">
         <v>46</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="W38" t="s">
         <v>55</v>
@@ -9069,11 +9385,8 @@
       <c r="X38" t="s">
         <v>215</v>
       </c>
-      <c r="Y38" t="s">
-        <v>608</v>
-      </c>
       <c r="Z38" t="s">
-        <v>609</v>
+        <v>444</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9082,13 +9395,10 @@
         <v>2</v>
       </c>
       <c r="AC38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD38" s="12" t="s">
-        <v>611</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>610</v>
+        <v>445</v>
       </c>
       <c r="AF38">
         <v>4.4000000000000004</v>
@@ -9100,54 +9410,1845 @@
         <v>117</v>
       </c>
       <c r="AI38" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK38" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL38" t="s">
-        <v>612</v>
+        <v>147</v>
       </c>
       <c r="AM38" t="s">
         <v>232</v>
       </c>
       <c r="AN38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO38" t="s">
-        <v>257</v>
-      </c>
-      <c r="AP38" t="s">
-        <v>613</v>
+        <v>273</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
       </c>
-      <c r="AR38" t="s">
+      <c r="AT38" t="s">
+        <v>405</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>446</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>205</v>
+      </c>
+      <c r="AW38" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>448</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C39" t="s">
+        <v>449</v>
+      </c>
+      <c r="D39" t="s">
+        <v>450</v>
+      </c>
+      <c r="E39">
+        <v>2013</v>
+      </c>
+      <c r="F39" t="s">
+        <v>451</v>
+      </c>
+      <c r="G39" t="s">
+        <v>452</v>
+      </c>
+      <c r="H39" t="s">
+        <v>367</v>
+      </c>
+      <c r="I39" t="s">
+        <v>453</v>
+      </c>
+      <c r="J39" t="s">
+        <v>386</v>
+      </c>
+      <c r="K39" t="s">
+        <v>454</v>
+      </c>
+      <c r="L39" t="s">
+        <v>248</v>
+      </c>
+      <c r="M39" t="s">
+        <v>455</v>
+      </c>
+      <c r="N39" t="s">
+        <v>251</v>
+      </c>
+      <c r="O39" t="s">
+        <v>252</v>
+      </c>
+      <c r="P39" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>21</v>
+      </c>
+      <c r="R39" t="s">
+        <v>286</v>
+      </c>
+      <c r="S39" t="s">
+        <v>23</v>
+      </c>
+      <c r="T39" t="s">
+        <v>45</v>
+      </c>
+      <c r="U39" t="s">
+        <v>57</v>
+      </c>
+      <c r="V39" t="s">
+        <v>41</v>
+      </c>
+      <c r="W39" t="s">
+        <v>55</v>
+      </c>
+      <c r="X39" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>456</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>457</v>
+      </c>
+      <c r="AA39">
+        <v>2</v>
+      </c>
+      <c r="AB39">
+        <v>2</v>
+      </c>
+      <c r="AC39">
+        <v>3</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF39">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>597</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>188</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>460</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>462</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40" t="s">
+        <v>463</v>
+      </c>
+      <c r="D40" t="s">
+        <v>464</v>
+      </c>
+      <c r="E40">
+        <v>2012</v>
+      </c>
+      <c r="F40" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" t="s">
+        <v>465</v>
+      </c>
+      <c r="H40" t="s">
+        <v>248</v>
+      </c>
+      <c r="I40" t="s">
+        <v>466</v>
+      </c>
+      <c r="J40" t="s">
+        <v>467</v>
+      </c>
+      <c r="K40" t="s">
+        <v>468</v>
+      </c>
+      <c r="L40" t="s">
+        <v>248</v>
+      </c>
+      <c r="M40" t="s">
+        <v>469</v>
+      </c>
+      <c r="N40" t="s">
+        <v>251</v>
+      </c>
+      <c r="O40" t="s">
+        <v>252</v>
+      </c>
+      <c r="P40" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>21</v>
+      </c>
+      <c r="R40" t="s">
+        <v>286</v>
+      </c>
+      <c r="S40" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" t="s">
+        <v>41</v>
+      </c>
+      <c r="U40" t="s">
+        <v>56</v>
+      </c>
+      <c r="V40" t="s">
+        <v>42</v>
+      </c>
+      <c r="W40" t="s">
+        <v>50</v>
+      </c>
+      <c r="X40" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>471</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>472</v>
+      </c>
+      <c r="AA40">
+        <v>2</v>
+      </c>
+      <c r="AB40">
+        <v>2</v>
+      </c>
+      <c r="AC40">
+        <v>2</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>473</v>
+      </c>
+      <c r="AF40">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG40" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL40" t="s">
+        <v>474</v>
+      </c>
+      <c r="AM40" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN40" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ40" t="s">
+        <v>619</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>475</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>476</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>201</v>
+      </c>
+      <c r="AW40" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>478</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" t="s">
+        <v>479</v>
+      </c>
+      <c r="D41" t="s">
+        <v>480</v>
+      </c>
+      <c r="E41">
+        <v>2011</v>
+      </c>
+      <c r="F41" t="s">
+        <v>481</v>
+      </c>
+      <c r="G41" t="s">
+        <v>482</v>
+      </c>
+      <c r="H41" t="s">
+        <v>483</v>
+      </c>
+      <c r="I41" t="s">
+        <v>484</v>
+      </c>
+      <c r="J41" t="s">
+        <v>485</v>
+      </c>
+      <c r="K41" t="s">
+        <v>486</v>
+      </c>
+      <c r="L41" t="s">
+        <v>248</v>
+      </c>
+      <c r="M41" t="s">
+        <v>487</v>
+      </c>
+      <c r="N41" t="s">
+        <v>251</v>
+      </c>
+      <c r="O41" t="s">
+        <v>252</v>
+      </c>
+      <c r="P41" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>21</v>
+      </c>
+      <c r="R41" t="s">
+        <v>286</v>
+      </c>
+      <c r="S41" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" t="s">
+        <v>45</v>
+      </c>
+      <c r="U41" t="s">
+        <v>58</v>
+      </c>
+      <c r="V41" t="s">
+        <v>42</v>
+      </c>
+      <c r="W41" t="s">
+        <v>214</v>
+      </c>
+      <c r="X41" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA41">
+        <v>2</v>
+      </c>
+      <c r="AB41">
+        <v>1</v>
+      </c>
+      <c r="AC41">
+        <v>2</v>
+      </c>
+      <c r="AD41" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF41">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK41" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>598</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO41" t="s">
+        <v>492</v>
+      </c>
+      <c r="AQ41" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR41" t="s">
         <v>239</v>
       </c>
-      <c r="AS38" t="s">
+      <c r="AU41" t="s">
+        <v>493</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW41" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>478</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" t="s">
+        <v>479</v>
+      </c>
+      <c r="D42" t="s">
+        <v>480</v>
+      </c>
+      <c r="E42">
+        <v>2011</v>
+      </c>
+      <c r="F42" t="s">
+        <v>481</v>
+      </c>
+      <c r="G42" t="s">
+        <v>482</v>
+      </c>
+      <c r="H42" t="s">
+        <v>483</v>
+      </c>
+      <c r="I42" t="s">
+        <v>484</v>
+      </c>
+      <c r="J42" t="s">
+        <v>485</v>
+      </c>
+      <c r="K42" t="s">
+        <v>486</v>
+      </c>
+      <c r="L42" t="s">
+        <v>248</v>
+      </c>
+      <c r="M42" t="s">
+        <v>487</v>
+      </c>
+      <c r="N42" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" t="s">
+        <v>252</v>
+      </c>
+      <c r="P42" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" t="s">
+        <v>286</v>
+      </c>
+      <c r="S42" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" t="s">
+        <v>45</v>
+      </c>
+      <c r="U42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V42" t="s">
+        <v>42</v>
+      </c>
+      <c r="W42" t="s">
+        <v>214</v>
+      </c>
+      <c r="X42" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA42">
+        <v>2</v>
+      </c>
+      <c r="AB42">
+        <v>1</v>
+      </c>
+      <c r="AC42">
+        <v>2</v>
+      </c>
+      <c r="AD42" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF42">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG42" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK42" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL42" t="s">
+        <v>599</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO42" t="s">
+        <v>492</v>
+      </c>
+      <c r="AQ42" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>493</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW42" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>478</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" t="s">
+        <v>479</v>
+      </c>
+      <c r="D43" t="s">
+        <v>480</v>
+      </c>
+      <c r="E43">
+        <v>2011</v>
+      </c>
+      <c r="F43" t="s">
+        <v>481</v>
+      </c>
+      <c r="G43" t="s">
+        <v>482</v>
+      </c>
+      <c r="H43" t="s">
+        <v>483</v>
+      </c>
+      <c r="I43" t="s">
+        <v>484</v>
+      </c>
+      <c r="J43" t="s">
+        <v>485</v>
+      </c>
+      <c r="K43" t="s">
+        <v>486</v>
+      </c>
+      <c r="L43" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" t="s">
+        <v>487</v>
+      </c>
+      <c r="N43" t="s">
+        <v>251</v>
+      </c>
+      <c r="O43" t="s">
+        <v>252</v>
+      </c>
+      <c r="P43" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>21</v>
+      </c>
+      <c r="R43" t="s">
+        <v>286</v>
+      </c>
+      <c r="S43" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" t="s">
+        <v>45</v>
+      </c>
+      <c r="U43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V43" t="s">
+        <v>42</v>
+      </c>
+      <c r="W43" t="s">
+        <v>214</v>
+      </c>
+      <c r="X43" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>489</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA43">
+        <v>2</v>
+      </c>
+      <c r="AB43">
+        <v>1</v>
+      </c>
+      <c r="AC43">
+        <v>2</v>
+      </c>
+      <c r="AD43" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>491</v>
+      </c>
+      <c r="AF43">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK43" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>600</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO43" t="s">
+        <v>492</v>
+      </c>
+      <c r="AQ43" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>493</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW43" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>497</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C44" t="s">
+        <v>498</v>
+      </c>
+      <c r="D44" t="s">
+        <v>499</v>
+      </c>
+      <c r="E44">
+        <v>2011</v>
+      </c>
+      <c r="F44" t="s">
+        <v>500</v>
+      </c>
+      <c r="G44" t="s">
+        <v>501</v>
+      </c>
+      <c r="H44" t="s">
+        <v>367</v>
+      </c>
+      <c r="I44" t="s">
+        <v>502</v>
+      </c>
+      <c r="J44" t="s">
+        <v>503</v>
+      </c>
+      <c r="K44" t="s">
+        <v>504</v>
+      </c>
+      <c r="L44" t="s">
+        <v>248</v>
+      </c>
+      <c r="M44" t="s">
+        <v>505</v>
+      </c>
+      <c r="N44" t="s">
+        <v>251</v>
+      </c>
+      <c r="O44" t="s">
+        <v>252</v>
+      </c>
+      <c r="P44" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>21</v>
+      </c>
+      <c r="R44" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>507</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C45" t="s">
+        <v>508</v>
+      </c>
+      <c r="D45" t="s">
+        <v>509</v>
+      </c>
+      <c r="E45">
+        <v>2011</v>
+      </c>
+      <c r="F45" t="s">
+        <v>510</v>
+      </c>
+      <c r="G45" t="s">
+        <v>511</v>
+      </c>
+      <c r="H45" t="s">
+        <v>512</v>
+      </c>
+      <c r="I45" t="s">
+        <v>513</v>
+      </c>
+      <c r="J45" t="s">
+        <v>514</v>
+      </c>
+      <c r="K45" t="s">
+        <v>515</v>
+      </c>
+      <c r="L45" t="s">
+        <v>248</v>
+      </c>
+      <c r="M45" t="s">
+        <v>516</v>
+      </c>
+      <c r="N45" t="s">
+        <v>251</v>
+      </c>
+      <c r="O45" t="s">
+        <v>252</v>
+      </c>
+      <c r="P45" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>21</v>
+      </c>
+      <c r="R45" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>519</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C46" t="s">
+        <v>520</v>
+      </c>
+      <c r="D46" t="s">
+        <v>521</v>
+      </c>
+      <c r="E46">
+        <v>2007</v>
+      </c>
+      <c r="F46" t="s">
+        <v>522</v>
+      </c>
+      <c r="G46" t="s">
+        <v>523</v>
+      </c>
+      <c r="H46" t="s">
+        <v>512</v>
+      </c>
+      <c r="I46" t="s">
+        <v>524</v>
+      </c>
+      <c r="J46" t="s">
+        <v>525</v>
+      </c>
+      <c r="K46" t="s">
+        <v>526</v>
+      </c>
+      <c r="L46" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" t="s">
+        <v>527</v>
+      </c>
+      <c r="N46" t="s">
+        <v>251</v>
+      </c>
+      <c r="O46" t="s">
+        <v>528</v>
+      </c>
+      <c r="P46" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>21</v>
+      </c>
+      <c r="R46" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>530</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" t="s">
+        <v>531</v>
+      </c>
+      <c r="D47" t="s">
+        <v>532</v>
+      </c>
+      <c r="E47">
+        <v>2006</v>
+      </c>
+      <c r="F47" t="s">
+        <v>533</v>
+      </c>
+      <c r="G47" t="s">
+        <v>534</v>
+      </c>
+      <c r="H47" t="s">
+        <v>280</v>
+      </c>
+      <c r="I47" t="s">
+        <v>535</v>
+      </c>
+      <c r="J47" t="s">
+        <v>536</v>
+      </c>
+      <c r="K47" t="s">
+        <v>248</v>
+      </c>
+      <c r="L47" t="s">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s">
+        <v>537</v>
+      </c>
+      <c r="N47" t="s">
+        <v>251</v>
+      </c>
+      <c r="O47" t="s">
+        <v>252</v>
+      </c>
+      <c r="P47" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>21</v>
+      </c>
+      <c r="R47" t="s">
+        <v>517</v>
+      </c>
+      <c r="S47" t="s">
+        <v>26</v>
+      </c>
+      <c r="T47" t="s">
+        <v>41</v>
+      </c>
+      <c r="U47" t="s">
+        <v>51</v>
+      </c>
+      <c r="V47" t="s">
+        <v>44</v>
+      </c>
+      <c r="W47" t="s">
+        <v>214</v>
+      </c>
+      <c r="X47" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>539</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>538</v>
+      </c>
+      <c r="AA47">
+        <v>2</v>
+      </c>
+      <c r="AB47">
+        <v>1</v>
+      </c>
+      <c r="AC47">
+        <v>2</v>
+      </c>
+      <c r="AD47" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF47">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO47" t="s">
+        <v>273</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>543</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>544</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>568</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C48" t="s">
+        <v>569</v>
+      </c>
+      <c r="D48" t="s">
+        <v>570</v>
+      </c>
+      <c r="E48">
+        <v>1998</v>
+      </c>
+      <c r="F48" t="s">
+        <v>571</v>
+      </c>
+      <c r="G48" t="s">
+        <v>572</v>
+      </c>
+      <c r="H48" t="s">
+        <v>512</v>
+      </c>
+      <c r="I48" t="s">
+        <v>573</v>
+      </c>
+      <c r="J48" t="s">
+        <v>574</v>
+      </c>
+      <c r="K48" t="s">
+        <v>248</v>
+      </c>
+      <c r="L48" t="s">
+        <v>248</v>
+      </c>
+      <c r="M48" t="s">
+        <v>575</v>
+      </c>
+      <c r="N48" t="s">
+        <v>251</v>
+      </c>
+      <c r="O48" t="s">
+        <v>252</v>
+      </c>
+      <c r="P48" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>21</v>
+      </c>
+      <c r="R48" t="s">
+        <v>253</v>
+      </c>
+      <c r="S48" t="s">
+        <v>26</v>
+      </c>
+      <c r="T48" t="s">
+        <v>46</v>
+      </c>
+      <c r="U48" t="s">
+        <v>59</v>
+      </c>
+      <c r="V48" t="s">
+        <v>41</v>
+      </c>
+      <c r="W48" t="s">
+        <v>55</v>
+      </c>
+      <c r="X48" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA48">
+        <v>2</v>
+      </c>
+      <c r="AB48">
+        <v>2</v>
+      </c>
+      <c r="AC48">
+        <v>2</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF48">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>632</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>635</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>568</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
+        <v>569</v>
+      </c>
+      <c r="D49" t="s">
+        <v>570</v>
+      </c>
+      <c r="E49">
+        <v>1998</v>
+      </c>
+      <c r="F49" t="s">
+        <v>571</v>
+      </c>
+      <c r="G49" t="s">
+        <v>572</v>
+      </c>
+      <c r="H49" t="s">
+        <v>512</v>
+      </c>
+      <c r="I49" t="s">
+        <v>573</v>
+      </c>
+      <c r="J49" t="s">
+        <v>574</v>
+      </c>
+      <c r="K49" t="s">
+        <v>248</v>
+      </c>
+      <c r="L49" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" t="s">
+        <v>575</v>
+      </c>
+      <c r="N49" t="s">
+        <v>251</v>
+      </c>
+      <c r="O49" t="s">
+        <v>252</v>
+      </c>
+      <c r="P49" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>21</v>
+      </c>
+      <c r="R49" t="s">
+        <v>253</v>
+      </c>
+      <c r="S49" t="s">
+        <v>26</v>
+      </c>
+      <c r="T49" t="s">
+        <v>46</v>
+      </c>
+      <c r="U49" t="s">
+        <v>59</v>
+      </c>
+      <c r="V49" t="s">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s">
+        <v>55</v>
+      </c>
+      <c r="X49" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA49">
+        <v>2</v>
+      </c>
+      <c r="AB49">
+        <v>2</v>
+      </c>
+      <c r="AC49">
+        <v>2</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF49">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL49" t="s">
+        <v>631</v>
+      </c>
+      <c r="AM49" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN49" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO49" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>635</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>207</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>568</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C50" t="s">
+        <v>569</v>
+      </c>
+      <c r="D50" t="s">
+        <v>570</v>
+      </c>
+      <c r="E50">
+        <v>1998</v>
+      </c>
+      <c r="F50" t="s">
+        <v>571</v>
+      </c>
+      <c r="G50" t="s">
+        <v>572</v>
+      </c>
+      <c r="H50" t="s">
+        <v>512</v>
+      </c>
+      <c r="I50" t="s">
+        <v>573</v>
+      </c>
+      <c r="J50" t="s">
+        <v>574</v>
+      </c>
+      <c r="K50" t="s">
+        <v>248</v>
+      </c>
+      <c r="L50" t="s">
+        <v>248</v>
+      </c>
+      <c r="M50" t="s">
+        <v>575</v>
+      </c>
+      <c r="N50" t="s">
+        <v>251</v>
+      </c>
+      <c r="O50" t="s">
+        <v>252</v>
+      </c>
+      <c r="P50" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" t="s">
+        <v>253</v>
+      </c>
+      <c r="S50" t="s">
+        <v>26</v>
+      </c>
+      <c r="T50" t="s">
+        <v>46</v>
+      </c>
+      <c r="U50" t="s">
+        <v>59</v>
+      </c>
+      <c r="V50" t="s">
+        <v>41</v>
+      </c>
+      <c r="W50" t="s">
+        <v>55</v>
+      </c>
+      <c r="X50" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA50">
+        <v>2</v>
+      </c>
+      <c r="AB50">
+        <v>2</v>
+      </c>
+      <c r="AC50">
+        <v>2</v>
+      </c>
+      <c r="AD50" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF50">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG50" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL50" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN50" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO50" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>635</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW50" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>568</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C51" t="s">
+        <v>569</v>
+      </c>
+      <c r="D51" t="s">
+        <v>570</v>
+      </c>
+      <c r="E51">
+        <v>1998</v>
+      </c>
+      <c r="F51" t="s">
+        <v>571</v>
+      </c>
+      <c r="G51" t="s">
+        <v>572</v>
+      </c>
+      <c r="H51" t="s">
+        <v>512</v>
+      </c>
+      <c r="I51" t="s">
+        <v>573</v>
+      </c>
+      <c r="J51" t="s">
+        <v>574</v>
+      </c>
+      <c r="K51" t="s">
+        <v>248</v>
+      </c>
+      <c r="L51" t="s">
+        <v>248</v>
+      </c>
+      <c r="M51" t="s">
+        <v>575</v>
+      </c>
+      <c r="N51" t="s">
+        <v>251</v>
+      </c>
+      <c r="O51" t="s">
+        <v>252</v>
+      </c>
+      <c r="P51" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>21</v>
+      </c>
+      <c r="R51" t="s">
+        <v>253</v>
+      </c>
+      <c r="S51" t="s">
+        <v>26</v>
+      </c>
+      <c r="T51" t="s">
+        <v>46</v>
+      </c>
+      <c r="U51" t="s">
+        <v>59</v>
+      </c>
+      <c r="V51" t="s">
+        <v>41</v>
+      </c>
+      <c r="W51" t="s">
+        <v>55</v>
+      </c>
+      <c r="X51" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA51">
+        <v>2</v>
+      </c>
+      <c r="AB51">
+        <v>2</v>
+      </c>
+      <c r="AC51">
+        <v>2</v>
+      </c>
+      <c r="AD51" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF51">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG51" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL51" t="s">
+        <v>636</v>
+      </c>
+      <c r="AM51" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN51" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO51" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ51" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>637</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>200</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>568</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C52" t="s">
+        <v>569</v>
+      </c>
+      <c r="D52" t="s">
+        <v>570</v>
+      </c>
+      <c r="E52">
+        <v>1998</v>
+      </c>
+      <c r="F52" t="s">
+        <v>571</v>
+      </c>
+      <c r="G52" t="s">
+        <v>572</v>
+      </c>
+      <c r="H52" t="s">
+        <v>512</v>
+      </c>
+      <c r="I52" t="s">
+        <v>573</v>
+      </c>
+      <c r="J52" t="s">
+        <v>574</v>
+      </c>
+      <c r="K52" t="s">
+        <v>248</v>
+      </c>
+      <c r="L52" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" t="s">
+        <v>575</v>
+      </c>
+      <c r="N52" t="s">
+        <v>251</v>
+      </c>
+      <c r="O52" t="s">
+        <v>252</v>
+      </c>
+      <c r="P52" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>21</v>
+      </c>
+      <c r="R52" t="s">
+        <v>253</v>
+      </c>
+      <c r="S52" t="s">
+        <v>26</v>
+      </c>
+      <c r="T52" t="s">
+        <v>46</v>
+      </c>
+      <c r="U52" t="s">
+        <v>59</v>
+      </c>
+      <c r="V52" t="s">
+        <v>41</v>
+      </c>
+      <c r="W52" t="s">
+        <v>55</v>
+      </c>
+      <c r="X52" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA52">
+        <v>2</v>
+      </c>
+      <c r="AB52">
+        <v>2</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AD52" t="s">
+        <v>595</v>
+      </c>
+      <c r="AF52">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG52" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>633</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN52" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO52" t="s">
+        <v>258</v>
+      </c>
+      <c r="AQ52" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>259</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>635</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW52" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>576</v>
+      </c>
+      <c r="B53" t="s">
+        <v>243</v>
+      </c>
+      <c r="C53" t="s">
+        <v>577</v>
+      </c>
+      <c r="D53" t="s">
+        <v>578</v>
+      </c>
+      <c r="E53">
+        <v>2002</v>
+      </c>
+      <c r="F53" t="s">
+        <v>579</v>
+      </c>
+      <c r="G53" t="s">
+        <v>580</v>
+      </c>
+      <c r="H53" t="s">
+        <v>483</v>
+      </c>
+      <c r="I53" t="s">
+        <v>581</v>
+      </c>
+      <c r="J53" t="s">
+        <v>582</v>
+      </c>
+      <c r="K53" t="s">
+        <v>583</v>
+      </c>
+      <c r="L53" t="s">
+        <v>248</v>
+      </c>
+      <c r="M53" t="s">
+        <v>584</v>
+      </c>
+      <c r="N53" t="s">
+        <v>251</v>
+      </c>
+      <c r="O53" t="s">
+        <v>252</v>
+      </c>
+      <c r="P53" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>22</v>
+      </c>
+      <c r="R53" t="s">
+        <v>253</v>
+      </c>
+      <c r="S53" t="s">
+        <v>24</v>
+      </c>
+      <c r="T53" t="s">
+        <v>46</v>
+      </c>
+      <c r="U53" t="s">
+        <v>59</v>
+      </c>
+      <c r="V53" t="s">
+        <v>46</v>
+      </c>
+      <c r="W53" t="s">
+        <v>55</v>
+      </c>
+      <c r="X53" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>586</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>587</v>
+      </c>
+      <c r="AA53">
+        <v>2</v>
+      </c>
+      <c r="AB53">
+        <v>2</v>
+      </c>
+      <c r="AC53">
+        <v>2</v>
+      </c>
+      <c r="AD53" s="12" t="s">
+        <v>589</v>
+      </c>
+      <c r="AE53" t="s">
+        <v>588</v>
+      </c>
+      <c r="AF53">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK53" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL53" t="s">
+        <v>601</v>
+      </c>
+      <c r="AM53" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN53" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO53" t="s">
+        <v>258</v>
+      </c>
+      <c r="AP53" t="s">
+        <v>590</v>
+      </c>
+      <c r="AQ53" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR53" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS53" t="s">
         <v>175</v>
       </c>
-      <c r="AT38" t="s">
-        <v>614</v>
-      </c>
-      <c r="AU38" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV38" t="s">
+      <c r="AT53" t="s">
+        <v>591</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV53" t="s">
         <v>199</v>
       </c>
-      <c r="AW38" t="s">
+      <c r="AW53" t="s">
         <v>207</v>
       </c>
-      <c r="AX38" t="s">
-        <v>615</v>
+      <c r="AX53" t="s">
+        <v>592</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:AX37">
-    <sortCondition ref="A3:A37"/>
+  <sortState ref="A6:AX52">
+    <sortCondition ref="A6:A52"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
@@ -9159,14 +11260,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q11 P12:P1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q7 P8:P1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -9291,64 +11392,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="20" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="18" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="18"/>
-      <c r="AH1" s="19" t="s">
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+      <c r="AK1" s="20"/>
+      <c r="AL1" s="20"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="15"/>
-      <c r="AT1" s="15"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -10387,51 +12488,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19" t="s">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="16" t="s">
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
     </row>
     <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -11260,12 +13361,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11383,15 +13481,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11413,16 +13521,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\kjova\Short&amp;Side_projects\SEAwise Task4_1\SEAwise\Systematic Reviews\Analysis Task 4.1\Data_Extraction_Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/esther_beukhof_wur_nl/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{82394361-29A2-4660-90B4-0FF5D9BB3F79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{45A9CBE4-F4B5-473C-A2EE-A678B1FEDB6D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$R$47:$R$53</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -42,33 +43,23 @@
     <definedName name="Reptiles">Validation!$AM$24</definedName>
     <definedName name="Seines">Validation!$AT$31:$AT$35</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
-    <author>MTS</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -92,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -137,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -186,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -232,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="1" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -242,7 +233,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>MTS:</t>
+          <t>Elliot John Brown:</t>
         </r>
         <r>
           <rPr>
@@ -257,7 +248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -281,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -325,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="2" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -349,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -374,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -401,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -428,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -455,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -479,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -503,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="2" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -610,7 +601,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="2" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -637,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="2" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -661,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="2" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -685,7 +676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="2" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -711,7 +702,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="2" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -743,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="2" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -924,7 +915,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="2" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -957,7 +948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="2" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -965,7 +956,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Esther Beukhof:</t>
         </r>
@@ -974,7 +965,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Write here the pressure variable studied in the paper, e.g. fishing mortality, fishing hours, number of litter items, catch, change in selectivity, bycatch exclusion device etc.
@@ -982,7 +973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="2" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -1008,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="2" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="2" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -1059,7 +1050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="2" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -1083,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="2" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -1108,7 +1099,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="2" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -1133,7 +1124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="2" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -1158,7 +1149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="2" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -1182,7 +1173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="2" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -1212,13 +1203,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Elliot John Brown</author>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1242,7 +1233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -1287,7 +1278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -1311,7 +1302,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -1336,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -1382,7 +1373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -1407,7 +1398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -1431,7 +1422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -1475,7 +1466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="1" shapeId="0">
+    <comment ref="Y2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1499,7 +1490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -1524,7 +1515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -1551,7 +1542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -1578,7 +1569,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -1605,7 +1596,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -1629,7 +1620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -1653,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
       <text>
         <r>
           <rPr>
@@ -1760,7 +1751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH2" authorId="1" shapeId="0">
+    <comment ref="AH2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
       <text>
         <r>
           <rPr>
@@ -1787,7 +1778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI2" authorId="1" shapeId="0">
+    <comment ref="AI2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
       <text>
         <r>
           <rPr>
@@ -1811,7 +1802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ2" authorId="1" shapeId="0">
+    <comment ref="AJ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
       <text>
         <r>
           <rPr>
@@ -1835,7 +1826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK2" authorId="1" shapeId="0">
+    <comment ref="AK2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
       <text>
         <r>
           <rPr>
@@ -1861,7 +1852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL2" authorId="1" shapeId="0">
+    <comment ref="AL2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
       <text>
         <r>
           <rPr>
@@ -1893,7 +1884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM2" authorId="1" shapeId="0">
+    <comment ref="AM2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000016000000}">
       <text>
         <r>
           <rPr>
@@ -2074,7 +2065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN2" authorId="1" shapeId="0">
+    <comment ref="AN2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
       <text>
         <r>
           <rPr>
@@ -2107,7 +2098,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO2" authorId="1" shapeId="0">
+    <comment ref="AO2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000018000000}">
       <text>
         <r>
           <rPr>
@@ -2132,7 +2123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP2" authorId="1" shapeId="0">
+    <comment ref="AP2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000019000000}">
       <text>
         <r>
           <rPr>
@@ -2158,7 +2149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ2" authorId="1" shapeId="0">
+    <comment ref="AQ2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -2185,7 +2176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR2" authorId="1" shapeId="0">
+    <comment ref="AR2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -2209,7 +2200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS2" authorId="1" shapeId="0">
+    <comment ref="AS2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -2233,7 +2224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT2" authorId="1" shapeId="0">
+    <comment ref="AT2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -2258,7 +2249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU2" authorId="1" shapeId="0">
+    <comment ref="AU2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -2283,7 +2274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV2" authorId="1" shapeId="0">
+    <comment ref="AV2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -2308,7 +2299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW2" authorId="1" shapeId="0">
+    <comment ref="AW2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000020000000}">
       <text>
         <r>
           <rPr>
@@ -2332,7 +2323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AX2" authorId="1" shapeId="0">
+    <comment ref="AX2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000021000000}">
       <text>
         <r>
           <rPr>
@@ -2362,12 +2353,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Esther Beukhof</author>
   </authors>
   <commentList>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2397,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="650">
   <si>
     <t>SearchID</t>
   </si>
@@ -3156,9 +3147,6 @@
   </si>
   <si>
     <t>Article</t>
-  </si>
-  <si>
-    <t>4.4</t>
   </si>
   <si>
     <t>EwE</t>
@@ -4085,9 +4073,6 @@
     <t>Sea trials were performed on two zones with different fishing efforts on the continental shelf of the Bay of Biscay (‘Grande-Vasière’ area of muddy sand) in order to assess particulate matter resuspension and seabed disturbances (i.e., penetration, reworking, grain size changes) induced by different types of trawls. Optical and acoustic measurements made in the water column indicate a significant trawling-induced resuspension mainly due to the scraping action of doors. It manifests as a highly dynamic turbid plume confined near the seabed, where suspended sediment concentrations can reach 200 mg l-1. Concentration levels measured behind an “alternative” configuration (trawls with jumper doors instead of classical doors penetrating the sediment) are significantly lower (around 10–20 mg l-1), which indicates a potential limiting impact regarding the seabed. Grain size analyses of the surficial sediment led to highlight a potential reworking influence of bottom trawling. On the intensively trawled zone, this reworking manifests as an upward coarsening trend in the first 5 cm of the cores. A significant decrease in mud content (30 %) has been also witnessed on this zone between 1967 and 2014, which suggests an influence on the seabed evolution. The geometric analysis of bottom tracks (4–5-cm depth, 20-cm width) observed with a benthic video sledge was used to compute an experimental trawling-induced erosion rate of 0.13 kg m-2. This erosion rate was combined with fishing effort data, in order to estimate trawling-induced erosion fluxes which were then compared to natural erosion fluxes over the Grande-Vasière at monthly, seasonal and annual scales. Winter storms control the annual resuspended load and trawling contribution to annual resuspension is in the order of 1 %. However, results show that trawling resuspension can become dominant during the fishing high season (i.e., until several times the natural one in summer). In addition, the contribution of trawling-induced resuspension is shown to increase with water depth, because of the rapid decay of wave effects. Finally, the seasonal evolution of the respective contributions for erosion (mainly trawling and waves) could be mapped for the whole study area. © 2016, Springer-Verlag Berlin Heidelberg.</t>
   </si>
   <si>
-    <t>4.3</t>
-  </si>
-  <si>
     <t>Box core and trawl - sampling of sediment plume</t>
   </si>
   <si>
@@ -4362,12 +4347,25 @@
   </si>
   <si>
     <t>‘Discards-landed’ results in a bottom-up cascade effect with conservation penalties for scavenging seabirds, marine mammals and seabed fauna, and no benefit to fish stocks. Annual catches of demersal and pelagic fish in the ‘discards-landed’ runs were indistinguishable from the corresponding ‘status-quo’ since the harvest rates were identical.</t>
+  </si>
+  <si>
+    <t>BEMTOOL</t>
+  </si>
+  <si>
+    <t>Merluccius merluccius _ Mullus barbatus _ Mullus surmuletus _ Sepia officinalis _ Octopus vulgaris _ Pagellus erythrinus _ Parapenaeus longirostris _ Aristaeomorpha foliacea _ Aristeus antennatus</t>
+  </si>
+  <si>
+    <t>Merluccius merluccius _ Mullus barbatus _ Mullus surmuletus</t>
+  </si>
+  <si>
+    <t>As a first general consideration, the results of this study support the idea that managing the access to fishing grounds by means of gear-specific regulation could have relevant effects on both the status of living marine resources and the economic aspects of fisheries. Considering the simulation of management scenarios, the
+model results highlight the highest rebuilding of the SSB for all target stocks in S4, whereas maintaining the status quo in terms of fishing activity and exploitation pattern would lead to the lowest predicted SSB level.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4519,7 +4517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4548,6 +4546,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4853,96 +4853,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
-    <col min="24" max="25" width="32.7109375" customWidth="1"/>
-    <col min="34" max="35" width="17.7109375" customWidth="1"/>
-    <col min="36" max="36" width="18.7109375" customWidth="1"/>
-    <col min="37" max="37" width="19.140625" customWidth="1"/>
-    <col min="38" max="38" width="17.7109375" customWidth="1"/>
-    <col min="39" max="39" width="14.28515625" customWidth="1"/>
-    <col min="40" max="41" width="15.85546875" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" customWidth="1"/>
-    <col min="46" max="46" width="15.140625" customWidth="1"/>
-    <col min="47" max="47" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" customWidth="1"/>
+    <col min="24" max="25" width="32.6640625" customWidth="1"/>
+    <col min="34" max="35" width="17.6640625" customWidth="1"/>
+    <col min="36" max="36" width="18.6640625" customWidth="1"/>
+    <col min="37" max="37" width="19.109375" customWidth="1"/>
+    <col min="38" max="38" width="17.6640625" customWidth="1"/>
+    <col min="39" max="39" width="14.33203125" customWidth="1"/>
+    <col min="40" max="41" width="15.88671875" customWidth="1"/>
+    <col min="42" max="42" width="15.44140625" customWidth="1"/>
+    <col min="46" max="46" width="15.109375" customWidth="1"/>
+    <col min="47" max="47" width="18.6640625" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="19" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
-      <c r="AM1" s="22" t="s">
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="16" t="s">
+      <c r="AN1" s="24"/>
+      <c r="AO1" s="24"/>
+      <c r="AP1" s="24"/>
+      <c r="AQ1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="17" t="s">
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="17"/>
-      <c r="AW1" s="17"/>
-      <c r="AX1" s="17"/>
+      <c r="AV1" s="19"/>
+      <c r="AW1" s="19"/>
+      <c r="AX1" s="19"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5146,9 +5146,6 @@
       <c r="Q3" t="s">
         <v>21</v>
       </c>
-      <c r="R3" t="s">
-        <v>253</v>
-      </c>
       <c r="S3" t="s">
         <v>26</v>
       </c>
@@ -5168,7 +5165,7 @@
         <v>80</v>
       </c>
       <c r="Z3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -5180,10 +5177,10 @@
         <v>3</v>
       </c>
       <c r="AD3" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF3">
         <v>4.4000000000000004</v>
@@ -5201,10 +5198,10 @@
         <v>160</v>
       </c>
       <c r="AO3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AQ3" t="s">
         <v>164</v>
@@ -5216,10 +5213,10 @@
         <v>175</v>
       </c>
       <c r="AT3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AU3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV3" t="s">
         <v>199</v>
@@ -5228,10 +5225,10 @@
         <v>209</v>
       </c>
       <c r="AX3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -5283,9 +5280,6 @@
       <c r="Q4" t="s">
         <v>21</v>
       </c>
-      <c r="R4" t="s">
-        <v>253</v>
-      </c>
       <c r="S4" t="s">
         <v>26</v>
       </c>
@@ -5305,7 +5299,7 @@
         <v>80</v>
       </c>
       <c r="Z4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA4">
         <v>2</v>
@@ -5317,10 +5311,10 @@
         <v>3</v>
       </c>
       <c r="AD4" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF4">
         <v>4.4000000000000004</v>
@@ -5338,10 +5332,10 @@
         <v>160</v>
       </c>
       <c r="AO4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AQ4" t="s">
         <v>164</v>
@@ -5353,10 +5347,10 @@
         <v>181</v>
       </c>
       <c r="AT4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AU4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV4" t="s">
         <v>199</v>
@@ -5365,10 +5359,10 @@
         <v>209</v>
       </c>
       <c r="AX4" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -5420,9 +5414,6 @@
       <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="R5" t="s">
-        <v>253</v>
-      </c>
       <c r="S5" t="s">
         <v>26</v>
       </c>
@@ -5442,7 +5433,7 @@
         <v>80</v>
       </c>
       <c r="Z5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA5">
         <v>2</v>
@@ -5454,10 +5445,10 @@
         <v>3</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF5">
         <v>4.4000000000000004</v>
@@ -5475,10 +5466,10 @@
         <v>160</v>
       </c>
       <c r="AO5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AQ5" t="s">
         <v>164</v>
@@ -5490,7 +5481,7 @@
         <v>185</v>
       </c>
       <c r="AU5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV5" t="s">
         <v>199</v>
@@ -5499,10 +5490,10 @@
         <v>209</v>
       </c>
       <c r="AX5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -5554,9 +5545,6 @@
       <c r="Q6" t="s">
         <v>21</v>
       </c>
-      <c r="R6" t="s">
-        <v>253</v>
-      </c>
       <c r="S6" t="s">
         <v>26</v>
       </c>
@@ -5576,7 +5564,7 @@
         <v>80</v>
       </c>
       <c r="Z6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA6">
         <v>2</v>
@@ -5588,10 +5576,10 @@
         <v>3</v>
       </c>
       <c r="AD6" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AE6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF6">
         <v>4.4000000000000004</v>
@@ -5609,19 +5597,19 @@
         <v>160</v>
       </c>
       <c r="AO6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AQ6" t="s">
         <v>164</v>
       </c>
       <c r="AT6" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AU6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV6" t="s">
         <v>199</v>
@@ -5630,21 +5618,21 @@
         <v>209</v>
       </c>
       <c r="AX6" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -5665,13 +5653,13 @@
         <v>248</v>
       </c>
       <c r="K7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L7" t="s">
         <v>248</v>
       </c>
       <c r="M7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N7" t="s">
         <v>251</v>
@@ -5685,9 +5673,6 @@
       <c r="Q7" t="s">
         <v>21</v>
       </c>
-      <c r="R7" t="s">
-        <v>253</v>
-      </c>
       <c r="S7" t="s">
         <v>25</v>
       </c>
@@ -5707,7 +5692,7 @@
         <v>80</v>
       </c>
       <c r="Z7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -5719,10 +5704,10 @@
         <v>3</v>
       </c>
       <c r="AD7" s="12" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AE7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF7">
         <v>4.4000000000000004</v>
@@ -5740,16 +5725,16 @@
         <v>160</v>
       </c>
       <c r="AO7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ7" t="s">
         <v>164</v>
       </c>
       <c r="AT7" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU7" t="s">
         <v>259</v>
-      </c>
-      <c r="AU7" t="s">
-        <v>260</v>
       </c>
       <c r="AV7" t="s">
         <v>199</v>
@@ -5758,48 +5743,48 @@
         <v>208</v>
       </c>
       <c r="AX7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C8" t="s">
+        <v>261</v>
+      </c>
+      <c r="D8" t="s">
         <v>262</v>
-      </c>
-      <c r="D8" t="s">
-        <v>263</v>
       </c>
       <c r="E8">
         <v>2021</v>
       </c>
       <c r="F8" t="s">
+        <v>263</v>
+      </c>
+      <c r="G8" t="s">
         <v>264</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>265</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>266</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>267</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>268</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>248</v>
+      </c>
+      <c r="M8" t="s">
         <v>269</v>
-      </c>
-      <c r="L8" t="s">
-        <v>248</v>
-      </c>
-      <c r="M8" t="s">
-        <v>270</v>
       </c>
       <c r="N8" t="s">
         <v>251</v>
@@ -5813,9 +5798,6 @@
       <c r="Q8" t="s">
         <v>21</v>
       </c>
-      <c r="R8" t="s">
-        <v>253</v>
-      </c>
       <c r="S8" t="s">
         <v>25</v>
       </c>
@@ -5835,7 +5817,7 @@
         <v>72</v>
       </c>
       <c r="Z8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA8">
         <v>2</v>
@@ -5847,7 +5829,7 @@
         <v>2</v>
       </c>
       <c r="AD8" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF8">
         <v>4.4000000000000004</v>
@@ -5865,10 +5847,10 @@
         <v>233</v>
       </c>
       <c r="AO8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AP8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5877,10 +5859,10 @@
         <v>239</v>
       </c>
       <c r="AT8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU8" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AV8" t="s">
         <v>206</v>
@@ -5889,48 +5871,48 @@
         <v>208</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C9" t="s">
+        <v>261</v>
+      </c>
+      <c r="D9" t="s">
         <v>262</v>
-      </c>
-      <c r="D9" t="s">
-        <v>263</v>
       </c>
       <c r="E9">
         <v>2021</v>
       </c>
       <c r="F9" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" t="s">
         <v>264</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>265</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>266</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>267</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>268</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
+        <v>248</v>
+      </c>
+      <c r="M9" t="s">
         <v>269</v>
-      </c>
-      <c r="L9" t="s">
-        <v>248</v>
-      </c>
-      <c r="M9" t="s">
-        <v>270</v>
       </c>
       <c r="N9" t="s">
         <v>251</v>
@@ -5944,9 +5926,6 @@
       <c r="Q9" t="s">
         <v>21</v>
       </c>
-      <c r="R9" t="s">
-        <v>253</v>
-      </c>
       <c r="S9" t="s">
         <v>25</v>
       </c>
@@ -5966,7 +5945,7 @@
         <v>72</v>
       </c>
       <c r="Z9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA9">
         <v>2</v>
@@ -5978,7 +5957,7 @@
         <v>2</v>
       </c>
       <c r="AD9" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF9">
         <v>4.4000000000000004</v>
@@ -5999,10 +5978,10 @@
         <v>233</v>
       </c>
       <c r="AO9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AP9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -6011,10 +5990,10 @@
         <v>239</v>
       </c>
       <c r="AT9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AU9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="AV9" t="s">
         <v>206</v>
@@ -6023,48 +6002,48 @@
         <v>208</v>
       </c>
       <c r="AX9" s="15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C10" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" t="s">
         <v>276</v>
-      </c>
-      <c r="D10" t="s">
-        <v>277</v>
       </c>
       <c r="E10">
         <v>2021</v>
       </c>
       <c r="F10" t="s">
+        <v>277</v>
+      </c>
+      <c r="G10" t="s">
         <v>278</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>279</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>280</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>281</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>282</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
+        <v>248</v>
+      </c>
+      <c r="M10" t="s">
         <v>283</v>
-      </c>
-      <c r="L10" t="s">
-        <v>248</v>
-      </c>
-      <c r="M10" t="s">
-        <v>284</v>
       </c>
       <c r="N10" t="s">
         <v>251</v>
@@ -6073,7 +6052,7 @@
         <v>252</v>
       </c>
       <c r="P10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q10" t="s">
         <v>21</v>
@@ -6083,45 +6062,45 @@
       </c>
       <c r="AD10" s="12"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C11" t="s">
+        <v>287</v>
+      </c>
+      <c r="D11" t="s">
         <v>288</v>
-      </c>
-      <c r="D11" t="s">
-        <v>289</v>
       </c>
       <c r="E11">
         <v>2021</v>
       </c>
       <c r="F11" t="s">
+        <v>289</v>
+      </c>
+      <c r="G11" t="s">
         <v>290</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11" t="s">
+        <v>248</v>
+      </c>
+      <c r="K11" t="s">
         <v>291</v>
       </c>
-      <c r="H11" t="s">
-        <v>248</v>
-      </c>
-      <c r="I11" t="s">
-        <v>248</v>
-      </c>
-      <c r="J11" t="s">
-        <v>248</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
+        <v>248</v>
+      </c>
+      <c r="M11" t="s">
         <v>292</v>
-      </c>
-      <c r="L11" t="s">
-        <v>248</v>
-      </c>
-      <c r="M11" t="s">
-        <v>293</v>
       </c>
       <c r="N11" t="s">
         <v>251</v>
@@ -6135,9 +6114,6 @@
       <c r="Q11" t="s">
         <v>21</v>
       </c>
-      <c r="R11" t="s">
-        <v>286</v>
-      </c>
       <c r="S11" t="s">
         <v>26</v>
       </c>
@@ -6157,10 +6133,10 @@
         <v>217</v>
       </c>
       <c r="Y11" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z11" t="s">
         <v>294</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>295</v>
       </c>
       <c r="AA11">
         <v>2</v>
@@ -6172,7 +6148,7 @@
         <v>2</v>
       </c>
       <c r="AD11" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF11">
         <v>4.4000000000000004</v>
@@ -6190,13 +6166,13 @@
         <v>155</v>
       </c>
       <c r="AL11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AM11" t="s">
         <v>235</v>
       </c>
       <c r="AO11" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -6205,10 +6181,10 @@
         <v>239</v>
       </c>
       <c r="AT11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AU11" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AV11" t="s">
         <v>212</v>
@@ -6217,48 +6193,48 @@
         <v>209</v>
       </c>
       <c r="AX11" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D12" t="s">
         <v>298</v>
-      </c>
-      <c r="D12" t="s">
-        <v>299</v>
       </c>
       <c r="E12">
         <v>2020</v>
       </c>
       <c r="F12" t="s">
+        <v>299</v>
+      </c>
+      <c r="G12" t="s">
         <v>300</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" t="s">
         <v>301</v>
       </c>
-      <c r="H12" t="s">
-        <v>248</v>
-      </c>
-      <c r="I12" t="s">
-        <v>248</v>
-      </c>
-      <c r="J12" t="s">
-        <v>248</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
+        <v>248</v>
+      </c>
+      <c r="M12" t="s">
         <v>302</v>
-      </c>
-      <c r="L12" t="s">
-        <v>248</v>
-      </c>
-      <c r="M12" t="s">
-        <v>303</v>
       </c>
       <c r="N12" t="s">
         <v>251</v>
@@ -6267,14 +6243,11 @@
         <v>252</v>
       </c>
       <c r="P12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q12" t="s">
         <v>21</v>
       </c>
-      <c r="R12" t="s">
-        <v>286</v>
-      </c>
       <c r="S12" t="s">
         <v>25</v>
       </c>
@@ -6294,10 +6267,10 @@
         <v>69</v>
       </c>
       <c r="Y12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="Z12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AA12">
         <v>2</v>
@@ -6309,10 +6282,13 @@
         <v>3</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AE12" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>285</v>
       </c>
       <c r="AH12" t="s">
         <v>120</v>
@@ -6327,7 +6303,7 @@
         <v>150</v>
       </c>
       <c r="AL12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AM12" t="s">
         <v>232</v>
@@ -6336,7 +6312,7 @@
         <v>162</v>
       </c>
       <c r="AO12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ12" t="s">
         <v>164</v>
@@ -6345,10 +6321,10 @@
         <v>239</v>
       </c>
       <c r="AT12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AU12" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AV12" t="s">
         <v>237</v>
@@ -6357,48 +6333,48 @@
         <v>208</v>
       </c>
       <c r="AX12" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
+        <v>310</v>
+      </c>
+      <c r="D13" t="s">
         <v>311</v>
-      </c>
-      <c r="D13" t="s">
-        <v>312</v>
       </c>
       <c r="E13">
         <v>2020</v>
       </c>
       <c r="F13" t="s">
+        <v>312</v>
+      </c>
+      <c r="G13" t="s">
         <v>313</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>314</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" t="s">
         <v>315</v>
       </c>
-      <c r="I13" t="s">
-        <v>248</v>
-      </c>
-      <c r="J13" t="s">
-        <v>248</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>248</v>
+      </c>
+      <c r="M13" t="s">
         <v>316</v>
-      </c>
-      <c r="L13" t="s">
-        <v>248</v>
-      </c>
-      <c r="M13" t="s">
-        <v>317</v>
       </c>
       <c r="N13" t="s">
         <v>251</v>
@@ -6407,7 +6383,7 @@
         <v>252</v>
       </c>
       <c r="P13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q13" t="s">
         <v>21</v>
@@ -6416,45 +6392,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
+        <v>319</v>
+      </c>
+      <c r="D14" t="s">
         <v>320</v>
-      </c>
-      <c r="D14" t="s">
-        <v>321</v>
       </c>
       <c r="E14">
         <v>2020</v>
       </c>
       <c r="F14" t="s">
+        <v>321</v>
+      </c>
+      <c r="G14" t="s">
         <v>322</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>248</v>
+      </c>
+      <c r="I14" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" t="s">
+        <v>248</v>
+      </c>
+      <c r="K14" t="s">
         <v>323</v>
       </c>
-      <c r="H14" t="s">
-        <v>248</v>
-      </c>
-      <c r="I14" t="s">
-        <v>248</v>
-      </c>
-      <c r="J14" t="s">
-        <v>248</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
+        <v>248</v>
+      </c>
+      <c r="M14" t="s">
         <v>324</v>
-      </c>
-      <c r="L14" t="s">
-        <v>248</v>
-      </c>
-      <c r="M14" t="s">
-        <v>325</v>
       </c>
       <c r="N14" t="s">
         <v>251</v>
@@ -6463,7 +6439,7 @@
         <v>252</v>
       </c>
       <c r="P14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q14" t="s">
         <v>21</v>
@@ -6472,45 +6448,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" t="s">
         <v>328</v>
-      </c>
-      <c r="D15" t="s">
-        <v>329</v>
       </c>
       <c r="E15">
         <v>2019</v>
       </c>
       <c r="F15" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" t="s">
         <v>330</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>331</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>332</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>333</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>334</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
+        <v>248</v>
+      </c>
+      <c r="M15" t="s">
         <v>335</v>
-      </c>
-      <c r="L15" t="s">
-        <v>248</v>
-      </c>
-      <c r="M15" t="s">
-        <v>336</v>
       </c>
       <c r="N15" t="s">
         <v>251</v>
@@ -6524,9 +6500,6 @@
       <c r="Q15" t="s">
         <v>21</v>
       </c>
-      <c r="R15" t="s">
-        <v>253</v>
-      </c>
       <c r="S15" t="s">
         <v>31</v>
       </c>
@@ -6546,7 +6519,7 @@
         <v>216</v>
       </c>
       <c r="Z15" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AA15">
         <v>2</v>
@@ -6558,7 +6531,7 @@
         <v>3</v>
       </c>
       <c r="AE15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF15">
         <v>4.4000000000000004</v>
@@ -6576,7 +6549,7 @@
         <v>233</v>
       </c>
       <c r="AO15" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AQ15" t="s">
         <v>164</v>
@@ -6585,10 +6558,10 @@
         <v>239</v>
       </c>
       <c r="AT15" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU15" t="s">
         <v>259</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>260</v>
       </c>
       <c r="AV15" t="s">
         <v>206</v>
@@ -6597,48 +6570,48 @@
         <v>209</v>
       </c>
       <c r="AX15" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
+        <v>327</v>
+      </c>
+      <c r="D16" t="s">
         <v>328</v>
-      </c>
-      <c r="D16" t="s">
-        <v>329</v>
       </c>
       <c r="E16">
         <v>2019</v>
       </c>
       <c r="F16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G16" t="s">
         <v>330</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>331</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>332</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>333</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>334</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>248</v>
+      </c>
+      <c r="M16" t="s">
         <v>335</v>
-      </c>
-      <c r="L16" t="s">
-        <v>248</v>
-      </c>
-      <c r="M16" t="s">
-        <v>336</v>
       </c>
       <c r="N16" t="s">
         <v>251</v>
@@ -6652,9 +6625,6 @@
       <c r="Q16" t="s">
         <v>21</v>
       </c>
-      <c r="R16" t="s">
-        <v>253</v>
-      </c>
       <c r="S16" t="s">
         <v>31</v>
       </c>
@@ -6674,7 +6644,7 @@
         <v>216</v>
       </c>
       <c r="Z16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6686,7 +6656,7 @@
         <v>3</v>
       </c>
       <c r="AE16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF16">
         <v>4.4000000000000004</v>
@@ -6701,7 +6671,7 @@
         <v>233</v>
       </c>
       <c r="AO16" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -6710,10 +6680,10 @@
         <v>239</v>
       </c>
       <c r="AT16" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU16" t="s">
         <v>259</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>260</v>
       </c>
       <c r="AV16" t="s">
         <v>206</v>
@@ -6722,48 +6692,48 @@
         <v>209</v>
       </c>
       <c r="AX16" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
+        <v>327</v>
+      </c>
+      <c r="D17" t="s">
         <v>328</v>
-      </c>
-      <c r="D17" t="s">
-        <v>329</v>
       </c>
       <c r="E17">
         <v>2019</v>
       </c>
       <c r="F17" t="s">
+        <v>329</v>
+      </c>
+      <c r="G17" t="s">
         <v>330</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>331</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>332</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>333</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>334</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" t="s">
         <v>335</v>
-      </c>
-      <c r="L17" t="s">
-        <v>248</v>
-      </c>
-      <c r="M17" t="s">
-        <v>336</v>
       </c>
       <c r="N17" t="s">
         <v>251</v>
@@ -6777,9 +6747,6 @@
       <c r="Q17" t="s">
         <v>21</v>
       </c>
-      <c r="R17" t="s">
-        <v>253</v>
-      </c>
       <c r="S17" t="s">
         <v>31</v>
       </c>
@@ -6799,7 +6766,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6811,7 +6778,7 @@
         <v>3</v>
       </c>
       <c r="AE17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF17">
         <v>4.4000000000000004</v>
@@ -6832,13 +6799,13 @@
         <v>134</v>
       </c>
       <c r="AL17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM17" t="s">
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
@@ -6850,10 +6817,10 @@
         <v>178</v>
       </c>
       <c r="AT17" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU17" t="s">
         <v>259</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>260</v>
       </c>
       <c r="AV17" t="s">
         <v>206</v>
@@ -6862,48 +6829,48 @@
         <v>209</v>
       </c>
       <c r="AX17" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" t="s">
         <v>328</v>
-      </c>
-      <c r="D18" t="s">
-        <v>329</v>
       </c>
       <c r="E18">
         <v>2019</v>
       </c>
       <c r="F18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" t="s">
         <v>330</v>
-      </c>
-      <c r="G18" t="s">
-        <v>331</v>
       </c>
       <c r="H18">
         <v>8</v>
       </c>
       <c r="I18" t="s">
+        <v>332</v>
+      </c>
+      <c r="J18" t="s">
         <v>333</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>334</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>248</v>
+      </c>
+      <c r="M18" t="s">
         <v>335</v>
-      </c>
-      <c r="L18" t="s">
-        <v>248</v>
-      </c>
-      <c r="M18" t="s">
-        <v>336</v>
       </c>
       <c r="N18" t="s">
         <v>251</v>
@@ -6917,9 +6884,6 @@
       <c r="Q18" t="s">
         <v>21</v>
       </c>
-      <c r="R18" t="s">
-        <v>253</v>
-      </c>
       <c r="S18" t="s">
         <v>31</v>
       </c>
@@ -6939,7 +6903,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6951,7 +6915,7 @@
         <v>3</v>
       </c>
       <c r="AE18" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF18">
         <v>4.4000000000000004</v>
@@ -6966,13 +6930,13 @@
         <v>148</v>
       </c>
       <c r="AL18" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AM18" t="s">
         <v>233</v>
       </c>
       <c r="AO18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
@@ -6984,10 +6948,10 @@
         <v>175</v>
       </c>
       <c r="AT18" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU18" t="s">
         <v>259</v>
-      </c>
-      <c r="AU18" t="s">
-        <v>260</v>
       </c>
       <c r="AV18" t="s">
         <v>206</v>
@@ -6996,48 +6960,48 @@
         <v>209</v>
       </c>
       <c r="AX18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" t="s">
         <v>344</v>
-      </c>
-      <c r="D19" t="s">
-        <v>345</v>
       </c>
       <c r="E19">
         <v>2018</v>
       </c>
       <c r="F19" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" t="s">
         <v>346</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>248</v>
+      </c>
+      <c r="I19" t="s">
+        <v>313</v>
+      </c>
+      <c r="J19" t="s">
+        <v>278</v>
+      </c>
+      <c r="K19" t="s">
         <v>347</v>
       </c>
-      <c r="H19" t="s">
-        <v>248</v>
-      </c>
-      <c r="I19" t="s">
-        <v>314</v>
-      </c>
-      <c r="J19" t="s">
-        <v>279</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>248</v>
+      </c>
+      <c r="M19" t="s">
         <v>348</v>
-      </c>
-      <c r="L19" t="s">
-        <v>248</v>
-      </c>
-      <c r="M19" t="s">
-        <v>349</v>
       </c>
       <c r="N19" t="s">
         <v>251</v>
@@ -7055,45 +7019,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" t="s">
         <v>351</v>
-      </c>
-      <c r="D20" t="s">
-        <v>352</v>
       </c>
       <c r="E20">
         <v>2017</v>
       </c>
       <c r="F20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G20" t="s">
+        <v>352</v>
+      </c>
+      <c r="H20" t="s">
+        <v>314</v>
+      </c>
+      <c r="I20" t="s">
         <v>353</v>
       </c>
-      <c r="H20" t="s">
-        <v>315</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>354</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>355</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
+        <v>248</v>
+      </c>
+      <c r="M20" t="s">
         <v>356</v>
-      </c>
-      <c r="L20" t="s">
-        <v>248</v>
-      </c>
-      <c r="M20" t="s">
-        <v>357</v>
       </c>
       <c r="N20" t="s">
         <v>251</v>
@@ -7102,14 +7066,11 @@
         <v>252</v>
       </c>
       <c r="P20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q20" t="s">
         <v>21</v>
       </c>
-      <c r="R20" t="s">
-        <v>286</v>
-      </c>
       <c r="S20" t="s">
         <v>32</v>
       </c>
@@ -7129,10 +7090,10 @@
         <v>69</v>
       </c>
       <c r="Y20" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z20" t="s">
         <v>359</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>360</v>
       </c>
       <c r="AA20">
         <v>2</v>
@@ -7144,10 +7105,10 @@
         <v>2</v>
       </c>
       <c r="AD20" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AE20" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF20">
         <v>4.4000000000000004</v>
@@ -7168,7 +7129,7 @@
         <v>161</v>
       </c>
       <c r="AO20" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ20" t="s">
         <v>164</v>
@@ -7180,10 +7141,10 @@
         <v>182</v>
       </c>
       <c r="AT20" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU20" t="s">
         <v>622</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>624</v>
       </c>
       <c r="AV20" t="s">
         <v>113</v>
@@ -7192,48 +7153,48 @@
         <v>207</v>
       </c>
       <c r="AX20" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" t="s">
         <v>351</v>
-      </c>
-      <c r="D21" t="s">
-        <v>352</v>
       </c>
       <c r="E21">
         <v>2017</v>
       </c>
       <c r="F21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G21" t="s">
+        <v>352</v>
+      </c>
+      <c r="H21" t="s">
+        <v>314</v>
+      </c>
+      <c r="I21" t="s">
         <v>353</v>
       </c>
-      <c r="H21" t="s">
-        <v>315</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>354</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>355</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>248</v>
+      </c>
+      <c r="M21" t="s">
         <v>356</v>
-      </c>
-      <c r="L21" t="s">
-        <v>248</v>
-      </c>
-      <c r="M21" t="s">
-        <v>357</v>
       </c>
       <c r="N21" t="s">
         <v>251</v>
@@ -7242,14 +7203,11 @@
         <v>252</v>
       </c>
       <c r="P21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
       </c>
-      <c r="R21" t="s">
-        <v>286</v>
-      </c>
       <c r="S21" t="s">
         <v>32</v>
       </c>
@@ -7269,10 +7227,10 @@
         <v>69</v>
       </c>
       <c r="Y21" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z21" t="s">
         <v>359</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>360</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -7284,10 +7242,10 @@
         <v>2</v>
       </c>
       <c r="AD21" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AE21" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF21">
         <v>4.4000000000000004</v>
@@ -7305,7 +7263,7 @@
         <v>150</v>
       </c>
       <c r="AL21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AM21" t="s">
         <v>232</v>
@@ -7314,7 +7272,7 @@
         <v>161</v>
       </c>
       <c r="AO21" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -7326,10 +7284,10 @@
         <v>182</v>
       </c>
       <c r="AT21" t="s">
+        <v>620</v>
+      </c>
+      <c r="AU21" t="s">
         <v>622</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>624</v>
       </c>
       <c r="AV21" t="s">
         <v>113</v>
@@ -7338,48 +7296,48 @@
         <v>207</v>
       </c>
       <c r="AX21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D22" t="s">
         <v>351</v>
-      </c>
-      <c r="D22" t="s">
-        <v>352</v>
       </c>
       <c r="E22">
         <v>2017</v>
       </c>
       <c r="F22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G22" t="s">
+        <v>352</v>
+      </c>
+      <c r="H22" t="s">
+        <v>314</v>
+      </c>
+      <c r="I22" t="s">
         <v>353</v>
       </c>
-      <c r="H22" t="s">
-        <v>315</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>354</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>355</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" t="s">
         <v>356</v>
-      </c>
-      <c r="L22" t="s">
-        <v>248</v>
-      </c>
-      <c r="M22" t="s">
-        <v>357</v>
       </c>
       <c r="N22" t="s">
         <v>251</v>
@@ -7388,14 +7346,11 @@
         <v>252</v>
       </c>
       <c r="P22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q22" t="s">
         <v>21</v>
       </c>
-      <c r="R22" t="s">
-        <v>286</v>
-      </c>
       <c r="S22" t="s">
         <v>32</v>
       </c>
@@ -7415,10 +7370,10 @@
         <v>69</v>
       </c>
       <c r="Y22" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z22" t="s">
         <v>359</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>360</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7430,10 +7385,10 @@
         <v>2</v>
       </c>
       <c r="AD22" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AE22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AF22">
         <v>4.4000000000000004</v>
@@ -7451,7 +7406,7 @@
         <v>150</v>
       </c>
       <c r="AL22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AM22" t="s">
         <v>232</v>
@@ -7460,7 +7415,7 @@
         <v>161</v>
       </c>
       <c r="AO22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7472,10 +7427,10 @@
         <v>182</v>
       </c>
       <c r="AT22" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AU22" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AV22" t="s">
         <v>113</v>
@@ -7484,104 +7439,182 @@
         <v>208</v>
       </c>
       <c r="AX22" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>363</v>
+    <row r="23" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>362</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" s="16">
+        <v>2017</v>
+      </c>
+      <c r="F23" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="E23">
-        <v>2017</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="K23" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="I23" t="s">
-        <v>248</v>
-      </c>
-      <c r="J23" t="s">
-        <v>248</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="M23" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="L23" t="s">
-        <v>248</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="N23" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="P23" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="N23" t="s">
-        <v>251</v>
-      </c>
-      <c r="O23" t="s">
-        <v>252</v>
-      </c>
-      <c r="P23" t="s">
+      <c r="Q23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="X23" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y23" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="Z23" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="AF23" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG23" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH23" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI23" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK23" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL23" s="16" t="s">
+        <v>647</v>
+      </c>
+      <c r="AM23" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN23" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO23" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="AQ23" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR23" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT23" s="16" t="s">
+        <v>648</v>
+      </c>
+      <c r="AU23" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV23" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW23" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>371</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>372</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D24" t="s">
         <v>373</v>
-      </c>
-      <c r="D24" t="s">
-        <v>374</v>
       </c>
       <c r="E24">
         <v>2017</v>
       </c>
       <c r="F24" t="s">
+        <v>374</v>
+      </c>
+      <c r="G24" t="s">
         <v>375</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" t="s">
         <v>376</v>
       </c>
-      <c r="H24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>377</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>378</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
+        <v>248</v>
+      </c>
+      <c r="M24" t="s">
         <v>379</v>
-      </c>
-      <c r="L24" t="s">
-        <v>248</v>
-      </c>
-      <c r="M24" t="s">
-        <v>380</v>
       </c>
       <c r="N24" t="s">
         <v>251</v>
@@ -7600,45 +7633,45 @@
       </c>
       <c r="AD24" s="12"/>
     </row>
-    <row r="25" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B25" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
+        <v>546</v>
+      </c>
+      <c r="D25" t="s">
         <v>547</v>
-      </c>
-      <c r="D25" t="s">
-        <v>548</v>
       </c>
       <c r="E25">
         <v>2016</v>
       </c>
       <c r="F25" t="s">
+        <v>548</v>
+      </c>
+      <c r="G25" t="s">
         <v>549</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>314</v>
+      </c>
+      <c r="I25" t="s">
         <v>550</v>
       </c>
-      <c r="H25" t="s">
-        <v>315</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>551</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>552</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="s">
         <v>553</v>
-      </c>
-      <c r="L25" t="s">
-        <v>248</v>
-      </c>
-      <c r="M25" t="s">
-        <v>554</v>
       </c>
       <c r="N25" t="s">
         <v>251</v>
@@ -7647,14 +7680,11 @@
         <v>252</v>
       </c>
       <c r="P25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Q25" t="s">
         <v>21</v>
       </c>
-      <c r="R25" t="s">
-        <v>555</v>
-      </c>
       <c r="S25" t="s">
         <v>25</v>
       </c>
@@ -7674,7 +7704,7 @@
         <v>216</v>
       </c>
       <c r="Y25" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="AA25">
         <v>2</v>
@@ -7686,7 +7716,7 @@
         <v>3</v>
       </c>
       <c r="AD25" s="12" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="AF25">
         <v>4.3</v>
@@ -7704,13 +7734,13 @@
         <v>148</v>
       </c>
       <c r="AL25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="AM25" t="s">
         <v>233</v>
       </c>
       <c r="AO25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ25" t="s">
         <v>164</v>
@@ -7722,10 +7752,10 @@
         <v>175</v>
       </c>
       <c r="AT25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AU25" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AV25" t="s">
         <v>113</v>
@@ -7734,48 +7764,48 @@
         <v>207</v>
       </c>
       <c r="AX25" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
-    <row r="26" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
+        <v>382</v>
+      </c>
+      <c r="D26" t="s">
         <v>383</v>
-      </c>
-      <c r="D26" t="s">
-        <v>384</v>
       </c>
       <c r="E26">
         <v>2015</v>
       </c>
       <c r="F26" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G26" t="s">
+        <v>384</v>
+      </c>
+      <c r="H26" t="s">
+        <v>265</v>
+      </c>
+      <c r="I26" t="s">
         <v>385</v>
       </c>
-      <c r="H26" t="s">
-        <v>266</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>386</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>387</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="s">
         <v>388</v>
-      </c>
-      <c r="L26" t="s">
-        <v>248</v>
-      </c>
-      <c r="M26" t="s">
-        <v>389</v>
       </c>
       <c r="N26" t="s">
         <v>251</v>
@@ -7784,14 +7814,11 @@
         <v>252</v>
       </c>
       <c r="P26" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q26" t="s">
         <v>21</v>
       </c>
-      <c r="R26" t="s">
-        <v>286</v>
-      </c>
       <c r="S26" t="s">
         <v>24</v>
       </c>
@@ -7811,7 +7838,7 @@
         <v>215</v>
       </c>
       <c r="Z26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7823,10 +7850,10 @@
         <v>3</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF26">
         <v>4.4000000000000004</v>
@@ -7847,7 +7874,7 @@
         <v>233</v>
       </c>
       <c r="AO26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ26" t="s">
         <v>164</v>
@@ -7859,7 +7886,7 @@
         <v>176</v>
       </c>
       <c r="AU26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AV26" t="s">
         <v>205</v>
@@ -7868,48 +7895,48 @@
         <v>210</v>
       </c>
       <c r="AX26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
+        <v>382</v>
+      </c>
+      <c r="D27" t="s">
         <v>383</v>
-      </c>
-      <c r="D27" t="s">
-        <v>384</v>
       </c>
       <c r="E27">
         <v>2015</v>
       </c>
       <c r="F27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G27" t="s">
+        <v>384</v>
+      </c>
+      <c r="H27" t="s">
+        <v>265</v>
+      </c>
+      <c r="I27" t="s">
         <v>385</v>
       </c>
-      <c r="H27" t="s">
-        <v>266</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>386</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>387</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="s">
         <v>388</v>
-      </c>
-      <c r="L27" t="s">
-        <v>248</v>
-      </c>
-      <c r="M27" t="s">
-        <v>389</v>
       </c>
       <c r="N27" t="s">
         <v>251</v>
@@ -7918,14 +7945,11 @@
         <v>252</v>
       </c>
       <c r="P27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q27" t="s">
         <v>21</v>
       </c>
-      <c r="R27" t="s">
-        <v>286</v>
-      </c>
       <c r="S27" t="s">
         <v>24</v>
       </c>
@@ -7945,7 +7969,7 @@
         <v>215</v>
       </c>
       <c r="Z27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7957,10 +7981,10 @@
         <v>3</v>
       </c>
       <c r="AD27" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AE27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AF27">
         <v>4.4000000000000004</v>
@@ -7981,7 +8005,7 @@
         <v>233</v>
       </c>
       <c r="AO27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ27" t="s">
         <v>164</v>
@@ -7993,7 +8017,7 @@
         <v>176</v>
       </c>
       <c r="AU27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AV27" t="s">
         <v>205</v>
@@ -8002,48 +8026,48 @@
         <v>210</v>
       </c>
       <c r="AX27" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="28" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>395</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
+        <v>395</v>
+      </c>
+      <c r="D28" t="s">
         <v>396</v>
-      </c>
-      <c r="D28" t="s">
-        <v>397</v>
       </c>
       <c r="E28">
         <v>2015</v>
       </c>
       <c r="F28" t="s">
+        <v>397</v>
+      </c>
+      <c r="G28" t="s">
         <v>398</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
+        <v>265</v>
+      </c>
+      <c r="I28" t="s">
+        <v>248</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
         <v>399</v>
       </c>
-      <c r="H28" t="s">
-        <v>266</v>
-      </c>
-      <c r="I28" t="s">
-        <v>248</v>
-      </c>
-      <c r="J28" t="s">
-        <v>248</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" t="s">
         <v>400</v>
-      </c>
-      <c r="L28" t="s">
-        <v>248</v>
-      </c>
-      <c r="M28" t="s">
-        <v>401</v>
       </c>
       <c r="N28" t="s">
         <v>251</v>
@@ -8052,14 +8076,11 @@
         <v>252</v>
       </c>
       <c r="P28" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q28" t="s">
         <v>21</v>
       </c>
-      <c r="R28" t="s">
-        <v>286</v>
-      </c>
       <c r="S28" t="s">
         <v>31</v>
       </c>
@@ -8079,10 +8100,10 @@
         <v>113</v>
       </c>
       <c r="Y28" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z28" t="s">
         <v>403</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>404</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8094,10 +8115,10 @@
         <v>3</v>
       </c>
       <c r="AD28" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF28">
         <v>4.4000000000000004</v>
@@ -8112,7 +8133,7 @@
         <v>150</v>
       </c>
       <c r="AL28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AM28" t="s">
         <v>232</v>
@@ -8121,7 +8142,7 @@
         <v>160</v>
       </c>
       <c r="AO28" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
@@ -8130,10 +8151,10 @@
         <v>239</v>
       </c>
       <c r="AT28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AU28" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AV28" t="s">
         <v>199</v>
@@ -8142,48 +8163,48 @@
         <v>209</v>
       </c>
       <c r="AX28" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
+        <v>395</v>
+      </c>
+      <c r="D29" t="s">
         <v>396</v>
-      </c>
-      <c r="D29" t="s">
-        <v>397</v>
       </c>
       <c r="E29">
         <v>2015</v>
       </c>
       <c r="F29" t="s">
+        <v>397</v>
+      </c>
+      <c r="G29" t="s">
         <v>398</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
+        <v>265</v>
+      </c>
+      <c r="I29" t="s">
+        <v>248</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
         <v>399</v>
       </c>
-      <c r="H29" t="s">
-        <v>266</v>
-      </c>
-      <c r="I29" t="s">
-        <v>248</v>
-      </c>
-      <c r="J29" t="s">
-        <v>248</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="s">
         <v>400</v>
-      </c>
-      <c r="L29" t="s">
-        <v>248</v>
-      </c>
-      <c r="M29" t="s">
-        <v>401</v>
       </c>
       <c r="N29" t="s">
         <v>251</v>
@@ -8192,14 +8213,11 @@
         <v>252</v>
       </c>
       <c r="P29" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Q29" t="s">
         <v>21</v>
       </c>
-      <c r="R29" t="s">
-        <v>286</v>
-      </c>
       <c r="S29" t="s">
         <v>31</v>
       </c>
@@ -8219,10 +8237,10 @@
         <v>113</v>
       </c>
       <c r="Y29" t="s">
+        <v>402</v>
+      </c>
+      <c r="Z29" t="s">
         <v>403</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>404</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8234,10 +8252,10 @@
         <v>3</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AE29" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AF29">
         <v>4.4000000000000004</v>
@@ -8252,7 +8270,7 @@
         <v>150</v>
       </c>
       <c r="AL29" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AM29" t="s">
         <v>232</v>
@@ -8261,7 +8279,7 @@
         <v>160</v>
       </c>
       <c r="AO29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="AQ29" t="s">
         <v>164</v>
@@ -8270,10 +8288,10 @@
         <v>239</v>
       </c>
       <c r="AT29" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AU29" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="AV29" t="s">
         <v>200</v>
@@ -8282,48 +8300,48 @@
         <v>209</v>
       </c>
       <c r="AX29" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
+        <v>407</v>
+      </c>
+      <c r="D30" t="s">
         <v>408</v>
-      </c>
-      <c r="D30" t="s">
-        <v>409</v>
       </c>
       <c r="E30">
         <v>2014</v>
       </c>
       <c r="F30" t="s">
+        <v>409</v>
+      </c>
+      <c r="G30" t="s">
         <v>410</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
+        <v>248</v>
+      </c>
+      <c r="I30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J30" t="s">
+        <v>248</v>
+      </c>
+      <c r="K30" t="s">
         <v>411</v>
       </c>
-      <c r="H30" t="s">
-        <v>248</v>
-      </c>
-      <c r="I30" t="s">
-        <v>248</v>
-      </c>
-      <c r="J30" t="s">
-        <v>248</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
+        <v>248</v>
+      </c>
+      <c r="M30" t="s">
         <v>412</v>
-      </c>
-      <c r="L30" t="s">
-        <v>248</v>
-      </c>
-      <c r="M30" t="s">
-        <v>413</v>
       </c>
       <c r="N30" t="s">
         <v>251</v>
@@ -8332,14 +8350,11 @@
         <v>252</v>
       </c>
       <c r="P30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
-      <c r="R30" t="s">
-        <v>253</v>
-      </c>
       <c r="S30" t="s">
         <v>24</v>
       </c>
@@ -8359,7 +8374,7 @@
         <v>80</v>
       </c>
       <c r="Z30" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8371,10 +8386,10 @@
         <v>3</v>
       </c>
       <c r="AD30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE30" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF30">
         <v>4.4000000000000004</v>
@@ -8389,16 +8404,16 @@
         <v>159</v>
       </c>
       <c r="AO30" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
       <c r="AT30" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AU30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV30" t="s">
         <v>199</v>
@@ -8407,48 +8422,48 @@
         <v>208</v>
       </c>
       <c r="AX30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
+        <v>407</v>
+      </c>
+      <c r="D31" t="s">
         <v>408</v>
-      </c>
-      <c r="D31" t="s">
-        <v>409</v>
       </c>
       <c r="E31">
         <v>2014</v>
       </c>
       <c r="F31" t="s">
+        <v>409</v>
+      </c>
+      <c r="G31" t="s">
         <v>410</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
         <v>411</v>
       </c>
-      <c r="H31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I31" t="s">
-        <v>248</v>
-      </c>
-      <c r="J31" t="s">
-        <v>248</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="s">
         <v>412</v>
-      </c>
-      <c r="L31" t="s">
-        <v>248</v>
-      </c>
-      <c r="M31" t="s">
-        <v>413</v>
       </c>
       <c r="N31" t="s">
         <v>251</v>
@@ -8457,14 +8472,11 @@
         <v>252</v>
       </c>
       <c r="P31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
       </c>
-      <c r="R31" t="s">
-        <v>253</v>
-      </c>
       <c r="S31" t="s">
         <v>24</v>
       </c>
@@ -8484,7 +8496,7 @@
         <v>80</v>
       </c>
       <c r="Z31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8496,10 +8508,10 @@
         <v>3</v>
       </c>
       <c r="AD31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF31">
         <v>4.4000000000000004</v>
@@ -8514,16 +8526,16 @@
         <v>159</v>
       </c>
       <c r="AO31" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
       <c r="AT31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AU31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV31" t="s">
         <v>199</v>
@@ -8532,48 +8544,48 @@
         <v>208</v>
       </c>
       <c r="AX31" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
+        <v>407</v>
+      </c>
+      <c r="D32" t="s">
         <v>408</v>
-      </c>
-      <c r="D32" t="s">
-        <v>409</v>
       </c>
       <c r="E32">
         <v>2014</v>
       </c>
       <c r="F32" t="s">
+        <v>409</v>
+      </c>
+      <c r="G32" t="s">
         <v>410</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" t="s">
         <v>411</v>
       </c>
-      <c r="H32" t="s">
-        <v>248</v>
-      </c>
-      <c r="I32" t="s">
-        <v>248</v>
-      </c>
-      <c r="J32" t="s">
-        <v>248</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" t="s">
         <v>412</v>
-      </c>
-      <c r="L32" t="s">
-        <v>248</v>
-      </c>
-      <c r="M32" t="s">
-        <v>413</v>
       </c>
       <c r="N32" t="s">
         <v>251</v>
@@ -8582,14 +8594,11 @@
         <v>252</v>
       </c>
       <c r="P32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
       </c>
-      <c r="R32" t="s">
-        <v>253</v>
-      </c>
       <c r="S32" t="s">
         <v>24</v>
       </c>
@@ -8609,7 +8618,7 @@
         <v>80</v>
       </c>
       <c r="Z32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8621,10 +8630,10 @@
         <v>3</v>
       </c>
       <c r="AD32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF32">
         <v>4.4000000000000004</v>
@@ -8639,22 +8648,22 @@
         <v>140</v>
       </c>
       <c r="AL32" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AM32" t="s">
         <v>159</v>
       </c>
       <c r="AO32" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
       <c r="AT32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AU32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV32" t="s">
         <v>199</v>
@@ -8663,48 +8672,48 @@
         <v>208</v>
       </c>
       <c r="AX32" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
+        <v>407</v>
+      </c>
+      <c r="D33" t="s">
         <v>408</v>
-      </c>
-      <c r="D33" t="s">
-        <v>409</v>
       </c>
       <c r="E33">
         <v>2014</v>
       </c>
       <c r="F33" t="s">
+        <v>409</v>
+      </c>
+      <c r="G33" t="s">
         <v>410</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>248</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
         <v>411</v>
       </c>
-      <c r="H33" t="s">
-        <v>248</v>
-      </c>
-      <c r="I33" t="s">
-        <v>248</v>
-      </c>
-      <c r="J33" t="s">
-        <v>248</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="s">
         <v>412</v>
-      </c>
-      <c r="L33" t="s">
-        <v>248</v>
-      </c>
-      <c r="M33" t="s">
-        <v>413</v>
       </c>
       <c r="N33" t="s">
         <v>251</v>
@@ -8713,14 +8722,11 @@
         <v>252</v>
       </c>
       <c r="P33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
       </c>
-      <c r="R33" t="s">
-        <v>253</v>
-      </c>
       <c r="S33" t="s">
         <v>24</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>80</v>
       </c>
       <c r="Z33" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8752,10 +8758,10 @@
         <v>3</v>
       </c>
       <c r="AD33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF33">
         <v>4.4000000000000004</v>
@@ -8770,22 +8776,22 @@
         <v>147</v>
       </c>
       <c r="AL33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AM33" t="s">
         <v>159</v>
       </c>
       <c r="AO33" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
       <c r="AT33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AU33" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AV33" t="s">
         <v>199</v>
@@ -8794,48 +8800,48 @@
         <v>209</v>
       </c>
       <c r="AX33" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D34" t="s">
         <v>408</v>
-      </c>
-      <c r="D34" t="s">
-        <v>409</v>
       </c>
       <c r="E34">
         <v>2014</v>
       </c>
       <c r="F34" t="s">
+        <v>409</v>
+      </c>
+      <c r="G34" t="s">
         <v>410</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s">
         <v>411</v>
       </c>
-      <c r="H34" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" t="s">
-        <v>248</v>
-      </c>
-      <c r="J34" t="s">
-        <v>248</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="s">
         <v>412</v>
-      </c>
-      <c r="L34" t="s">
-        <v>248</v>
-      </c>
-      <c r="M34" t="s">
-        <v>413</v>
       </c>
       <c r="N34" t="s">
         <v>251</v>
@@ -8844,14 +8850,11 @@
         <v>252</v>
       </c>
       <c r="P34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
       </c>
-      <c r="R34" t="s">
-        <v>253</v>
-      </c>
       <c r="S34" t="s">
         <v>24</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>80</v>
       </c>
       <c r="Z34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -8883,10 +8886,10 @@
         <v>3</v>
       </c>
       <c r="AD34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AE34" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF34">
         <v>4.4000000000000004</v>
@@ -8901,22 +8904,22 @@
         <v>144</v>
       </c>
       <c r="AL34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AM34" t="s">
         <v>159</v>
       </c>
       <c r="AO34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
       <c r="AT34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AU34" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="AV34" t="s">
         <v>199</v>
@@ -8925,48 +8928,48 @@
         <v>209</v>
       </c>
       <c r="AX34" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
+        <v>419</v>
+      </c>
+      <c r="D35" t="s">
         <v>420</v>
-      </c>
-      <c r="D35" t="s">
-        <v>421</v>
       </c>
       <c r="E35">
         <v>2014</v>
       </c>
       <c r="F35" t="s">
+        <v>421</v>
+      </c>
+      <c r="G35" t="s">
         <v>422</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
+        <v>248</v>
+      </c>
+      <c r="I35" t="s">
         <v>423</v>
       </c>
-      <c r="H35" t="s">
-        <v>248</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>424</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>425</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
+        <v>248</v>
+      </c>
+      <c r="M35" t="s">
         <v>426</v>
-      </c>
-      <c r="L35" t="s">
-        <v>248</v>
-      </c>
-      <c r="M35" t="s">
-        <v>427</v>
       </c>
       <c r="N35" t="s">
         <v>251</v>
@@ -8980,9 +8983,6 @@
       <c r="Q35" t="s">
         <v>21</v>
       </c>
-      <c r="R35" t="s">
-        <v>253</v>
-      </c>
       <c r="S35" t="s">
         <v>24</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>216</v>
       </c>
       <c r="Z35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9014,10 +9014,10 @@
         <v>2</v>
       </c>
       <c r="AD35" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE35" t="s">
         <v>429</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>430</v>
       </c>
       <c r="AF35">
         <v>4.4000000000000004</v>
@@ -9029,7 +9029,7 @@
         <v>117</v>
       </c>
       <c r="AL35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AM35" t="s">
         <v>232</v>
@@ -9038,13 +9038,13 @@
         <v>160</v>
       </c>
       <c r="AO35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
       </c>
       <c r="AT35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV35" t="s">
         <v>199</v>
@@ -9053,48 +9053,48 @@
         <v>209</v>
       </c>
       <c r="AX35" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C36" t="s">
+        <v>419</v>
+      </c>
+      <c r="D36" t="s">
         <v>420</v>
-      </c>
-      <c r="D36" t="s">
-        <v>421</v>
       </c>
       <c r="E36">
         <v>2014</v>
       </c>
       <c r="F36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G36" t="s">
         <v>422</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" t="s">
         <v>423</v>
       </c>
-      <c r="H36" t="s">
-        <v>248</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>424</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>425</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
+        <v>248</v>
+      </c>
+      <c r="M36" t="s">
         <v>426</v>
-      </c>
-      <c r="L36" t="s">
-        <v>248</v>
-      </c>
-      <c r="M36" t="s">
-        <v>427</v>
       </c>
       <c r="N36" t="s">
         <v>251</v>
@@ -9108,9 +9108,6 @@
       <c r="Q36" t="s">
         <v>21</v>
       </c>
-      <c r="R36" t="s">
-        <v>253</v>
-      </c>
       <c r="S36" t="s">
         <v>24</v>
       </c>
@@ -9130,7 +9127,7 @@
         <v>216</v>
       </c>
       <c r="Z36" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9142,10 +9139,10 @@
         <v>2</v>
       </c>
       <c r="AD36" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AE36" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AF36">
         <v>4.4000000000000004</v>
@@ -9157,7 +9154,7 @@
         <v>220</v>
       </c>
       <c r="AL36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
@@ -9166,13 +9163,13 @@
         <v>161</v>
       </c>
       <c r="AO36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ36" t="s">
         <v>164</v>
       </c>
       <c r="AT36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AV36" t="s">
         <v>199</v>
@@ -9181,48 +9178,48 @@
         <v>208</v>
       </c>
       <c r="AX36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C37" t="s">
+        <v>435</v>
+      </c>
+      <c r="D37" t="s">
         <v>436</v>
-      </c>
-      <c r="D37" t="s">
-        <v>437</v>
       </c>
       <c r="E37">
         <v>2013</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G37" t="s">
+        <v>437</v>
+      </c>
+      <c r="H37" t="s">
         <v>438</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>439</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>440</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>441</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
+        <v>248</v>
+      </c>
+      <c r="M37" t="s">
         <v>442</v>
-      </c>
-      <c r="L37" t="s">
-        <v>248</v>
-      </c>
-      <c r="M37" t="s">
-        <v>443</v>
       </c>
       <c r="N37" t="s">
         <v>251</v>
@@ -9236,9 +9233,6 @@
       <c r="Q37" t="s">
         <v>21</v>
       </c>
-      <c r="R37" t="s">
-        <v>253</v>
-      </c>
       <c r="S37" t="s">
         <v>31</v>
       </c>
@@ -9258,7 +9252,7 @@
         <v>215</v>
       </c>
       <c r="Z37" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9270,7 +9264,7 @@
         <v>3</v>
       </c>
       <c r="AD37" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF37">
         <v>4.4000000000000004</v>
@@ -9291,16 +9285,16 @@
         <v>160</v>
       </c>
       <c r="AO37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ37" t="s">
         <v>164</v>
       </c>
       <c r="AT37" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AU37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AV37" t="s">
         <v>205</v>
@@ -9309,48 +9303,48 @@
         <v>208</v>
       </c>
       <c r="AX37" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C38" t="s">
+        <v>435</v>
+      </c>
+      <c r="D38" t="s">
         <v>436</v>
-      </c>
-      <c r="D38" t="s">
-        <v>437</v>
       </c>
       <c r="E38">
         <v>2013</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G38" t="s">
+        <v>437</v>
+      </c>
+      <c r="H38" t="s">
         <v>438</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>439</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>440</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>441</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>248</v>
+      </c>
+      <c r="M38" t="s">
         <v>442</v>
-      </c>
-      <c r="L38" t="s">
-        <v>248</v>
-      </c>
-      <c r="M38" t="s">
-        <v>443</v>
       </c>
       <c r="N38" t="s">
         <v>251</v>
@@ -9364,9 +9358,6 @@
       <c r="Q38" t="s">
         <v>21</v>
       </c>
-      <c r="R38" t="s">
-        <v>253</v>
-      </c>
       <c r="S38" t="s">
         <v>31</v>
       </c>
@@ -9386,7 +9377,7 @@
         <v>215</v>
       </c>
       <c r="Z38" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9398,7 +9389,7 @@
         <v>3</v>
       </c>
       <c r="AD38" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF38">
         <v>4.4000000000000004</v>
@@ -9419,16 +9410,16 @@
         <v>160</v>
       </c>
       <c r="AO38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ38" t="s">
         <v>164</v>
       </c>
       <c r="AT38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AU38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AV38" t="s">
         <v>205</v>
@@ -9437,48 +9428,48 @@
         <v>208</v>
       </c>
       <c r="AX38" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>447</v>
-      </c>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>448</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C39" t="s">
+        <v>448</v>
+      </c>
+      <c r="D39" t="s">
         <v>449</v>
-      </c>
-      <c r="D39" t="s">
-        <v>450</v>
       </c>
       <c r="E39">
         <v>2013</v>
       </c>
       <c r="F39" t="s">
+        <v>450</v>
+      </c>
+      <c r="G39" t="s">
         <v>451</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
+        <v>366</v>
+      </c>
+      <c r="I39" t="s">
         <v>452</v>
       </c>
-      <c r="H39" t="s">
-        <v>367</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
+        <v>385</v>
+      </c>
+      <c r="K39" t="s">
         <v>453</v>
       </c>
-      <c r="J39" t="s">
-        <v>386</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
+        <v>248</v>
+      </c>
+      <c r="M39" t="s">
         <v>454</v>
-      </c>
-      <c r="L39" t="s">
-        <v>248</v>
-      </c>
-      <c r="M39" t="s">
-        <v>455</v>
       </c>
       <c r="N39" t="s">
         <v>251</v>
@@ -9492,9 +9483,6 @@
       <c r="Q39" t="s">
         <v>21</v>
       </c>
-      <c r="R39" t="s">
-        <v>286</v>
-      </c>
       <c r="S39" t="s">
         <v>23</v>
       </c>
@@ -9514,10 +9502,10 @@
         <v>215</v>
       </c>
       <c r="Y39" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z39" t="s">
         <v>456</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>457</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -9529,10 +9517,10 @@
         <v>3</v>
       </c>
       <c r="AD39" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE39" t="s">
         <v>458</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>459</v>
       </c>
       <c r="AF39">
         <v>4.4000000000000004</v>
@@ -9550,7 +9538,7 @@
         <v>150</v>
       </c>
       <c r="AL39" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AM39" t="s">
         <v>232</v>
@@ -9559,7 +9547,7 @@
         <v>160</v>
       </c>
       <c r="AO39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ39" t="s">
         <v>164</v>
@@ -9571,10 +9559,10 @@
         <v>188</v>
       </c>
       <c r="AT39" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AU39" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV39" t="s">
         <v>199</v>
@@ -9583,21 +9571,21 @@
         <v>208</v>
       </c>
       <c r="AX39" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>462</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C40" t="s">
+        <v>462</v>
+      </c>
+      <c r="D40" t="s">
         <v>463</v>
-      </c>
-      <c r="D40" t="s">
-        <v>464</v>
       </c>
       <c r="E40">
         <v>2012</v>
@@ -9606,25 +9594,25 @@
         <v>246</v>
       </c>
       <c r="G40" t="s">
+        <v>464</v>
+      </c>
+      <c r="H40" t="s">
+        <v>248</v>
+      </c>
+      <c r="I40" t="s">
         <v>465</v>
       </c>
-      <c r="H40" t="s">
-        <v>248</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>466</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>467</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
+        <v>248</v>
+      </c>
+      <c r="M40" t="s">
         <v>468</v>
-      </c>
-      <c r="L40" t="s">
-        <v>248</v>
-      </c>
-      <c r="M40" t="s">
-        <v>469</v>
       </c>
       <c r="N40" t="s">
         <v>251</v>
@@ -9638,9 +9626,6 @@
       <c r="Q40" t="s">
         <v>21</v>
       </c>
-      <c r="R40" t="s">
-        <v>286</v>
-      </c>
       <c r="S40" t="s">
         <v>31</v>
       </c>
@@ -9660,10 +9645,10 @@
         <v>69</v>
       </c>
       <c r="Y40" t="s">
+        <v>470</v>
+      </c>
+      <c r="Z40" t="s">
         <v>471</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>472</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -9675,10 +9660,10 @@
         <v>2</v>
       </c>
       <c r="AD40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AE40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AF40">
         <v>4.4000000000000004</v>
@@ -9690,7 +9675,7 @@
         <v>117</v>
       </c>
       <c r="AL40" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AM40" t="s">
         <v>232</v>
@@ -9699,16 +9684,16 @@
         <v>160</v>
       </c>
       <c r="AO40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ40" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AT40" t="s">
+        <v>474</v>
+      </c>
+      <c r="AU40" t="s">
         <v>475</v>
-      </c>
-      <c r="AU40" t="s">
-        <v>476</v>
       </c>
       <c r="AV40" t="s">
         <v>201</v>
@@ -9717,48 +9702,48 @@
         <v>208</v>
       </c>
       <c r="AX40" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="41" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>477</v>
-      </c>
-    </row>
-    <row r="41" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>478</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C41" t="s">
+        <v>478</v>
+      </c>
+      <c r="D41" t="s">
         <v>479</v>
-      </c>
-      <c r="D41" t="s">
-        <v>480</v>
       </c>
       <c r="E41">
         <v>2011</v>
       </c>
       <c r="F41" t="s">
+        <v>480</v>
+      </c>
+      <c r="G41" t="s">
         <v>481</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>482</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>483</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>484</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>485</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
+        <v>248</v>
+      </c>
+      <c r="M41" t="s">
         <v>486</v>
-      </c>
-      <c r="L41" t="s">
-        <v>248</v>
-      </c>
-      <c r="M41" t="s">
-        <v>487</v>
       </c>
       <c r="N41" t="s">
         <v>251</v>
@@ -9772,9 +9757,6 @@
       <c r="Q41" t="s">
         <v>21</v>
       </c>
-      <c r="R41" t="s">
-        <v>286</v>
-      </c>
       <c r="S41" t="s">
         <v>25</v>
       </c>
@@ -9794,10 +9776,10 @@
         <v>216</v>
       </c>
       <c r="Y41" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z41" t="s">
         <v>489</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>490</v>
       </c>
       <c r="AA41">
         <v>2</v>
@@ -9809,10 +9791,10 @@
         <v>2</v>
       </c>
       <c r="AD41" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AE41" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF41">
         <v>4.4000000000000004</v>
@@ -9827,13 +9809,13 @@
         <v>150</v>
       </c>
       <c r="AL41" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AM41" t="s">
         <v>233</v>
       </c>
       <c r="AO41" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AQ41" t="s">
         <v>164</v>
@@ -9842,7 +9824,7 @@
         <v>239</v>
       </c>
       <c r="AU41" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AV41" t="s">
         <v>199</v>
@@ -9851,48 +9833,48 @@
         <v>208</v>
       </c>
       <c r="AX41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C42" t="s">
+        <v>478</v>
+      </c>
+      <c r="D42" t="s">
         <v>479</v>
-      </c>
-      <c r="D42" t="s">
-        <v>480</v>
       </c>
       <c r="E42">
         <v>2011</v>
       </c>
       <c r="F42" t="s">
+        <v>480</v>
+      </c>
+      <c r="G42" t="s">
         <v>481</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>482</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>483</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>484</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>485</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>248</v>
+      </c>
+      <c r="M42" t="s">
         <v>486</v>
-      </c>
-      <c r="L42" t="s">
-        <v>248</v>
-      </c>
-      <c r="M42" t="s">
-        <v>487</v>
       </c>
       <c r="N42" t="s">
         <v>251</v>
@@ -9906,9 +9888,6 @@
       <c r="Q42" t="s">
         <v>21</v>
       </c>
-      <c r="R42" t="s">
-        <v>286</v>
-      </c>
       <c r="S42" t="s">
         <v>25</v>
       </c>
@@ -9928,10 +9907,10 @@
         <v>216</v>
       </c>
       <c r="Y42" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z42" t="s">
         <v>489</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>490</v>
       </c>
       <c r="AA42">
         <v>2</v>
@@ -9943,10 +9922,10 @@
         <v>2</v>
       </c>
       <c r="AD42" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AE42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF42">
         <v>4.4000000000000004</v>
@@ -9961,13 +9940,13 @@
         <v>150</v>
       </c>
       <c r="AL42" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AM42" t="s">
         <v>233</v>
       </c>
       <c r="AO42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AQ42" t="s">
         <v>164</v>
@@ -9976,7 +9955,7 @@
         <v>239</v>
       </c>
       <c r="AU42" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AV42" t="s">
         <v>199</v>
@@ -9985,48 +9964,48 @@
         <v>210</v>
       </c>
       <c r="AX42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
-    <row r="43" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C43" t="s">
+        <v>478</v>
+      </c>
+      <c r="D43" t="s">
         <v>479</v>
-      </c>
-      <c r="D43" t="s">
-        <v>480</v>
       </c>
       <c r="E43">
         <v>2011</v>
       </c>
       <c r="F43" t="s">
+        <v>480</v>
+      </c>
+      <c r="G43" t="s">
         <v>481</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>482</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>483</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>484</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>485</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" t="s">
         <v>486</v>
-      </c>
-      <c r="L43" t="s">
-        <v>248</v>
-      </c>
-      <c r="M43" t="s">
-        <v>487</v>
       </c>
       <c r="N43" t="s">
         <v>251</v>
@@ -10040,9 +10019,6 @@
       <c r="Q43" t="s">
         <v>21</v>
       </c>
-      <c r="R43" t="s">
-        <v>286</v>
-      </c>
       <c r="S43" t="s">
         <v>25</v>
       </c>
@@ -10062,10 +10038,10 @@
         <v>216</v>
       </c>
       <c r="Y43" t="s">
+        <v>488</v>
+      </c>
+      <c r="Z43" t="s">
         <v>489</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>490</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -10077,10 +10053,10 @@
         <v>2</v>
       </c>
       <c r="AD43" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AE43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AF43">
         <v>4.4000000000000004</v>
@@ -10095,13 +10071,13 @@
         <v>150</v>
       </c>
       <c r="AL43" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AM43" t="s">
         <v>233</v>
       </c>
       <c r="AO43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AQ43" t="s">
         <v>164</v>
@@ -10110,7 +10086,7 @@
         <v>239</v>
       </c>
       <c r="AU43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AV43" t="s">
         <v>199</v>
@@ -10119,48 +10095,48 @@
         <v>210</v>
       </c>
       <c r="AX43" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>496</v>
-      </c>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>497</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C44" t="s">
+        <v>497</v>
+      </c>
+      <c r="D44" t="s">
         <v>498</v>
-      </c>
-      <c r="D44" t="s">
-        <v>499</v>
       </c>
       <c r="E44">
         <v>2011</v>
       </c>
       <c r="F44" t="s">
+        <v>499</v>
+      </c>
+      <c r="G44" t="s">
         <v>500</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
+        <v>366</v>
+      </c>
+      <c r="I44" t="s">
         <v>501</v>
       </c>
-      <c r="H44" t="s">
-        <v>367</v>
-      </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>502</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>503</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
+        <v>248</v>
+      </c>
+      <c r="M44" t="s">
         <v>504</v>
-      </c>
-      <c r="L44" t="s">
-        <v>248</v>
-      </c>
-      <c r="M44" t="s">
-        <v>505</v>
       </c>
       <c r="N44" t="s">
         <v>251</v>
@@ -10178,48 +10154,48 @@
         <v>84</v>
       </c>
       <c r="AE44" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>507</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C45" t="s">
+        <v>507</v>
+      </c>
+      <c r="D45" t="s">
         <v>508</v>
-      </c>
-      <c r="D45" t="s">
-        <v>509</v>
       </c>
       <c r="E45">
         <v>2011</v>
       </c>
       <c r="F45" t="s">
+        <v>509</v>
+      </c>
+      <c r="G45" t="s">
         <v>510</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>511</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>512</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>513</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>514</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
+        <v>248</v>
+      </c>
+      <c r="M45" t="s">
         <v>515</v>
-      </c>
-      <c r="L45" t="s">
-        <v>248</v>
-      </c>
-      <c r="M45" t="s">
-        <v>516</v>
       </c>
       <c r="N45" t="s">
         <v>251</v>
@@ -10237,54 +10213,54 @@
         <v>84</v>
       </c>
       <c r="AE45" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>518</v>
-      </c>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>519</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C46" t="s">
+        <v>519</v>
+      </c>
+      <c r="D46" t="s">
         <v>520</v>
-      </c>
-      <c r="D46" t="s">
-        <v>521</v>
       </c>
       <c r="E46">
         <v>2007</v>
       </c>
       <c r="F46" t="s">
+        <v>521</v>
+      </c>
+      <c r="G46" t="s">
         <v>522</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
+        <v>511</v>
+      </c>
+      <c r="I46" t="s">
         <v>523</v>
       </c>
-      <c r="H46" t="s">
-        <v>512</v>
-      </c>
-      <c r="I46" t="s">
+      <c r="J46" t="s">
         <v>524</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>525</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" t="s">
         <v>526</v>
-      </c>
-      <c r="L46" t="s">
-        <v>248</v>
-      </c>
-      <c r="M46" t="s">
-        <v>527</v>
       </c>
       <c r="N46" t="s">
         <v>251</v>
       </c>
       <c r="O46" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P46" t="s">
         <v>248</v>
@@ -10296,48 +10272,48 @@
         <v>85</v>
       </c>
       <c r="AE46" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="47" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>529</v>
-      </c>
-    </row>
-    <row r="47" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>530</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C47" t="s">
+        <v>530</v>
+      </c>
+      <c r="D47" t="s">
         <v>531</v>
-      </c>
-      <c r="D47" t="s">
-        <v>532</v>
       </c>
       <c r="E47">
         <v>2006</v>
       </c>
       <c r="F47" t="s">
+        <v>532</v>
+      </c>
+      <c r="G47" t="s">
         <v>533</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
+        <v>279</v>
+      </c>
+      <c r="I47" t="s">
         <v>534</v>
       </c>
-      <c r="H47" t="s">
-        <v>280</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="J47" t="s">
         <v>535</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
+        <v>248</v>
+      </c>
+      <c r="L47" t="s">
+        <v>248</v>
+      </c>
+      <c r="M47" t="s">
         <v>536</v>
-      </c>
-      <c r="K47" t="s">
-        <v>248</v>
-      </c>
-      <c r="L47" t="s">
-        <v>248</v>
-      </c>
-      <c r="M47" t="s">
-        <v>537</v>
       </c>
       <c r="N47" t="s">
         <v>251</v>
@@ -10351,9 +10327,6 @@
       <c r="Q47" t="s">
         <v>21</v>
       </c>
-      <c r="R47" t="s">
-        <v>517</v>
-      </c>
       <c r="S47" t="s">
         <v>26</v>
       </c>
@@ -10373,10 +10346,10 @@
         <v>216</v>
       </c>
       <c r="Y47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Z47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AA47">
         <v>2</v>
@@ -10388,13 +10361,13 @@
         <v>2</v>
       </c>
       <c r="AD47" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="AE47" t="s">
         <v>540</v>
       </c>
-      <c r="AE47" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF47">
-        <v>4.4000000000000004</v>
+      <c r="AF47" t="s">
+        <v>516</v>
       </c>
       <c r="AG47" t="s">
         <v>107</v>
@@ -10406,22 +10379,22 @@
         <v>141</v>
       </c>
       <c r="AL47" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AM47" t="s">
         <v>233</v>
       </c>
       <c r="AO47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ47" t="s">
         <v>164</v>
       </c>
       <c r="AT47" t="s">
+        <v>542</v>
+      </c>
+      <c r="AU47" t="s">
         <v>543</v>
-      </c>
-      <c r="AU47" t="s">
-        <v>544</v>
       </c>
       <c r="AV47" t="s">
         <v>199</v>
@@ -10430,48 +10403,48 @@
         <v>208</v>
       </c>
       <c r="AX47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D48" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E48">
         <v>1998</v>
       </c>
       <c r="F48" t="s">
+        <v>569</v>
+      </c>
+      <c r="G48" t="s">
+        <v>570</v>
+      </c>
+      <c r="H48" t="s">
+        <v>511</v>
+      </c>
+      <c r="I48" t="s">
         <v>571</v>
       </c>
-      <c r="G48" t="s">
+      <c r="J48" t="s">
         <v>572</v>
       </c>
-      <c r="H48" t="s">
-        <v>512</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
+        <v>248</v>
+      </c>
+      <c r="L48" t="s">
+        <v>248</v>
+      </c>
+      <c r="M48" t="s">
         <v>573</v>
-      </c>
-      <c r="J48" t="s">
-        <v>574</v>
-      </c>
-      <c r="K48" t="s">
-        <v>248</v>
-      </c>
-      <c r="L48" t="s">
-        <v>248</v>
-      </c>
-      <c r="M48" t="s">
-        <v>575</v>
       </c>
       <c r="N48" t="s">
         <v>251</v>
@@ -10485,9 +10458,6 @@
       <c r="Q48" t="s">
         <v>21</v>
       </c>
-      <c r="R48" t="s">
-        <v>253</v>
-      </c>
       <c r="S48" t="s">
         <v>26</v>
       </c>
@@ -10507,10 +10477,10 @@
         <v>215</v>
       </c>
       <c r="Y48" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Z48" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AA48">
         <v>2</v>
@@ -10522,7 +10492,7 @@
         <v>2</v>
       </c>
       <c r="AD48" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF48">
         <v>4.4000000000000004</v>
@@ -10537,7 +10507,7 @@
         <v>144</v>
       </c>
       <c r="AL48" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AM48" t="s">
         <v>232</v>
@@ -10546,16 +10516,16 @@
         <v>160</v>
       </c>
       <c r="AO48" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
       </c>
       <c r="AT48" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AU48" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AV48" t="s">
         <v>199</v>
@@ -10564,48 +10534,48 @@
         <v>207</v>
       </c>
       <c r="AX48" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C49" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D49" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E49">
         <v>1998</v>
       </c>
       <c r="F49" t="s">
+        <v>569</v>
+      </c>
+      <c r="G49" t="s">
+        <v>570</v>
+      </c>
+      <c r="H49" t="s">
+        <v>511</v>
+      </c>
+      <c r="I49" t="s">
         <v>571</v>
       </c>
-      <c r="G49" t="s">
+      <c r="J49" t="s">
         <v>572</v>
       </c>
-      <c r="H49" t="s">
-        <v>512</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
+        <v>248</v>
+      </c>
+      <c r="L49" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" t="s">
         <v>573</v>
-      </c>
-      <c r="J49" t="s">
-        <v>574</v>
-      </c>
-      <c r="K49" t="s">
-        <v>248</v>
-      </c>
-      <c r="L49" t="s">
-        <v>248</v>
-      </c>
-      <c r="M49" t="s">
-        <v>575</v>
       </c>
       <c r="N49" t="s">
         <v>251</v>
@@ -10619,9 +10589,6 @@
       <c r="Q49" t="s">
         <v>21</v>
       </c>
-      <c r="R49" t="s">
-        <v>253</v>
-      </c>
       <c r="S49" t="s">
         <v>26</v>
       </c>
@@ -10641,10 +10608,10 @@
         <v>215</v>
       </c>
       <c r="Y49" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Z49" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -10656,7 +10623,7 @@
         <v>2</v>
       </c>
       <c r="AD49" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF49">
         <v>4.4000000000000004</v>
@@ -10674,7 +10641,7 @@
         <v>148</v>
       </c>
       <c r="AL49" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AM49" t="s">
         <v>232</v>
@@ -10683,16 +10650,16 @@
         <v>160</v>
       </c>
       <c r="AO49" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ49" t="s">
         <v>164</v>
       </c>
       <c r="AT49" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AU49" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AV49" t="s">
         <v>199</v>
@@ -10701,48 +10668,48 @@
         <v>207</v>
       </c>
       <c r="AX49" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D50" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E50">
         <v>1998</v>
       </c>
       <c r="F50" t="s">
+        <v>569</v>
+      </c>
+      <c r="G50" t="s">
+        <v>570</v>
+      </c>
+      <c r="H50" t="s">
+        <v>511</v>
+      </c>
+      <c r="I50" t="s">
         <v>571</v>
       </c>
-      <c r="G50" t="s">
+      <c r="J50" t="s">
         <v>572</v>
       </c>
-      <c r="H50" t="s">
-        <v>512</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
+        <v>248</v>
+      </c>
+      <c r="L50" t="s">
+        <v>248</v>
+      </c>
+      <c r="M50" t="s">
         <v>573</v>
-      </c>
-      <c r="J50" t="s">
-        <v>574</v>
-      </c>
-      <c r="K50" t="s">
-        <v>248</v>
-      </c>
-      <c r="L50" t="s">
-        <v>248</v>
-      </c>
-      <c r="M50" t="s">
-        <v>575</v>
       </c>
       <c r="N50" t="s">
         <v>251</v>
@@ -10756,9 +10723,6 @@
       <c r="Q50" t="s">
         <v>21</v>
       </c>
-      <c r="R50" t="s">
-        <v>253</v>
-      </c>
       <c r="S50" t="s">
         <v>26</v>
       </c>
@@ -10778,10 +10742,10 @@
         <v>215</v>
       </c>
       <c r="Y50" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Z50" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -10793,7 +10757,7 @@
         <v>2</v>
       </c>
       <c r="AD50" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF50">
         <v>4.4000000000000004</v>
@@ -10805,7 +10769,7 @@
         <v>117</v>
       </c>
       <c r="AL50" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AM50" t="s">
         <v>232</v>
@@ -10814,16 +10778,16 @@
         <v>160</v>
       </c>
       <c r="AO50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ50" t="s">
         <v>164</v>
       </c>
       <c r="AT50" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AU50" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AV50" t="s">
         <v>199</v>
@@ -10832,48 +10796,48 @@
         <v>208</v>
       </c>
       <c r="AX50" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C51" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D51" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E51">
         <v>1998</v>
       </c>
       <c r="F51" t="s">
+        <v>569</v>
+      </c>
+      <c r="G51" t="s">
+        <v>570</v>
+      </c>
+      <c r="H51" t="s">
+        <v>511</v>
+      </c>
+      <c r="I51" t="s">
         <v>571</v>
       </c>
-      <c r="G51" t="s">
+      <c r="J51" t="s">
         <v>572</v>
       </c>
-      <c r="H51" t="s">
-        <v>512</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
+        <v>248</v>
+      </c>
+      <c r="L51" t="s">
+        <v>248</v>
+      </c>
+      <c r="M51" t="s">
         <v>573</v>
-      </c>
-      <c r="J51" t="s">
-        <v>574</v>
-      </c>
-      <c r="K51" t="s">
-        <v>248</v>
-      </c>
-      <c r="L51" t="s">
-        <v>248</v>
-      </c>
-      <c r="M51" t="s">
-        <v>575</v>
       </c>
       <c r="N51" t="s">
         <v>251</v>
@@ -10887,9 +10851,6 @@
       <c r="Q51" t="s">
         <v>21</v>
       </c>
-      <c r="R51" t="s">
-        <v>253</v>
-      </c>
       <c r="S51" t="s">
         <v>26</v>
       </c>
@@ -10909,10 +10870,10 @@
         <v>215</v>
       </c>
       <c r="Y51" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Z51" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AA51">
         <v>2</v>
@@ -10924,7 +10885,7 @@
         <v>2</v>
       </c>
       <c r="AD51" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF51">
         <v>4.4000000000000004</v>
@@ -10936,7 +10897,7 @@
         <v>117</v>
       </c>
       <c r="AL51" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AM51" t="s">
         <v>232</v>
@@ -10945,16 +10906,16 @@
         <v>160</v>
       </c>
       <c r="AO51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ51" t="s">
         <v>164</v>
       </c>
       <c r="AT51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AU51" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AV51" t="s">
         <v>200</v>
@@ -10963,48 +10924,48 @@
         <v>209</v>
       </c>
       <c r="AX51" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C52" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D52" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E52">
         <v>1998</v>
       </c>
       <c r="F52" t="s">
+        <v>569</v>
+      </c>
+      <c r="G52" t="s">
+        <v>570</v>
+      </c>
+      <c r="H52" t="s">
+        <v>511</v>
+      </c>
+      <c r="I52" t="s">
         <v>571</v>
       </c>
-      <c r="G52" t="s">
+      <c r="J52" t="s">
         <v>572</v>
       </c>
-      <c r="H52" t="s">
-        <v>512</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
+        <v>248</v>
+      </c>
+      <c r="L52" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" t="s">
         <v>573</v>
-      </c>
-      <c r="J52" t="s">
-        <v>574</v>
-      </c>
-      <c r="K52" t="s">
-        <v>248</v>
-      </c>
-      <c r="L52" t="s">
-        <v>248</v>
-      </c>
-      <c r="M52" t="s">
-        <v>575</v>
       </c>
       <c r="N52" t="s">
         <v>251</v>
@@ -11018,9 +10979,6 @@
       <c r="Q52" t="s">
         <v>21</v>
       </c>
-      <c r="R52" t="s">
-        <v>253</v>
-      </c>
       <c r="S52" t="s">
         <v>26</v>
       </c>
@@ -11040,10 +10998,10 @@
         <v>215</v>
       </c>
       <c r="Y52" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="Z52" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AA52">
         <v>2</v>
@@ -11055,7 +11013,7 @@
         <v>2</v>
       </c>
       <c r="AD52" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="AF52">
         <v>4.4000000000000004</v>
@@ -11067,7 +11025,7 @@
         <v>118</v>
       </c>
       <c r="AL52" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AM52" t="s">
         <v>232</v>
@@ -11076,16 +11034,16 @@
         <v>160</v>
       </c>
       <c r="AO52" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AQ52" t="s">
         <v>164</v>
       </c>
       <c r="AT52" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AU52" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AV52" t="s">
         <v>199</v>
@@ -11094,48 +11052,48 @@
         <v>208</v>
       </c>
       <c r="AX52" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B53" t="s">
         <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D53" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E53">
         <v>2002</v>
       </c>
       <c r="F53" t="s">
+        <v>577</v>
+      </c>
+      <c r="G53" t="s">
+        <v>578</v>
+      </c>
+      <c r="H53" t="s">
+        <v>482</v>
+      </c>
+      <c r="I53" t="s">
         <v>579</v>
       </c>
-      <c r="G53" t="s">
+      <c r="J53" t="s">
         <v>580</v>
       </c>
-      <c r="H53" t="s">
-        <v>483</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>581</v>
       </c>
-      <c r="J53" t="s">
+      <c r="L53" t="s">
+        <v>248</v>
+      </c>
+      <c r="M53" t="s">
         <v>582</v>
-      </c>
-      <c r="K53" t="s">
-        <v>583</v>
-      </c>
-      <c r="L53" t="s">
-        <v>248</v>
-      </c>
-      <c r="M53" t="s">
-        <v>584</v>
       </c>
       <c r="N53" t="s">
         <v>251</v>
@@ -11144,14 +11102,11 @@
         <v>252</v>
       </c>
       <c r="P53" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="Q53" t="s">
         <v>22</v>
       </c>
-      <c r="R53" t="s">
-        <v>253</v>
-      </c>
       <c r="S53" t="s">
         <v>24</v>
       </c>
@@ -11171,10 +11126,10 @@
         <v>215</v>
       </c>
       <c r="Y53" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Z53" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="AA53">
         <v>2</v>
@@ -11186,10 +11141,10 @@
         <v>2</v>
       </c>
       <c r="AD53" s="12" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AE53" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AF53">
         <v>4.4000000000000004</v>
@@ -11207,7 +11162,7 @@
         <v>148</v>
       </c>
       <c r="AL53" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AM53" t="s">
         <v>232</v>
@@ -11216,10 +11171,10 @@
         <v>161</v>
       </c>
       <c r="AO53" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP53" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="AQ53" t="s">
         <v>164</v>
@@ -11231,10 +11186,10 @@
         <v>175</v>
       </c>
       <c r="AT53" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="AU53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AV53" t="s">
         <v>199</v>
@@ -11243,11 +11198,11 @@
         <v>207</v>
       </c>
       <c r="AX53" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A6:AX52">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AX52">
     <sortCondition ref="A6:A52"/>
   </sortState>
   <mergeCells count="7">
@@ -11260,14 +11215,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q11 P12:P1048576"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q11 P12:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11277,91 +11232,91 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="15">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Validation!$AM$5:$AM$11</xm:f>
           </x14:formula1>
           <xm:sqref>AM3:AM1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R1048576</xm:sqref>
+          <xm:sqref>R3:R1048576 AF47</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Validation!$S$3:$S$16</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Validation!$T$3:$T$13</xm:f>
           </x14:formula1>
           <xm:sqref>T3:T1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Validation!$U$3:$U$15</xm:f>
           </x14:formula1>
           <xm:sqref>U3:U1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
           <x14:formula1>
             <xm:f>Validation!$V$3:$V$13</xm:f>
           </x14:formula1>
           <xm:sqref>V3:V1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
           <x14:formula1>
             <xm:f>Validation!$W$3:$W$16</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000B000000}">
           <x14:formula1>
             <xm:f>Validation!$AA$3:$AA$5</xm:f>
           </x14:formula1>
           <xm:sqref>AA3:AA1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000C000000}">
           <x14:formula1>
             <xm:f>Validation!$AB$3:$AB$5</xm:f>
           </x14:formula1>
           <xm:sqref>AB3:AB1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000D000000}">
           <x14:formula1>
             <xm:f>Validation!$AC$3:$AC$5</xm:f>
           </x14:formula1>
           <xm:sqref>AC3:AC1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000E000000}">
           <x14:formula1>
             <xm:f>Validation!$AG$3:$AG$9</xm:f>
           </x14:formula1>
           <xm:sqref>AG3:AG1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000F000000}">
           <x14:formula1>
             <xm:f>Validation!$AK$3:$AK$7</xm:f>
           </x14:formula1>
           <xm:sqref>AK3:AK1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000010000000}">
           <x14:formula1>
             <xm:f>Validation!$X$3:$X$16</xm:f>
           </x14:formula1>
           <xm:sqref>X3:X1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000011000000}">
           <x14:formula1>
             <xm:f>Validation!$AW$3:$AW$6</xm:f>
           </x14:formula1>
           <xm:sqref>AW3:AW1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000012000000}">
           <x14:formula1>
             <xm:f>Validation!$AV$3:$AV$15</xm:f>
           </x14:formula1>
@@ -11374,82 +11329,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
     <sheetView topLeftCell="AB2" workbookViewId="0">
       <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="19" max="19" width="32.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.109375" customWidth="1"/>
+    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="26.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.6640625" customWidth="1"/>
+    <col min="33" max="33" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="19" t="s">
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="20" t="s">
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
-      <c r="AK1" s="20"/>
-      <c r="AL1" s="20"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="22"/>
+      <c r="AK1" s="22"/>
+      <c r="AL1" s="22"/>
       <c r="AM1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="AN1" s="10"/>
       <c r="AO1" s="10"/>
       <c r="AP1" s="10"/>
-      <c r="AQ1" s="16" t="s">
+      <c r="AQ1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="16"/>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
       <c r="AU1" s="9" t="s">
         <v>102</v>
       </c>
@@ -11457,7 +11412,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -11609,7 +11564,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -11666,7 +11621,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -11723,7 +11678,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -11779,7 +11734,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -11824,7 +11779,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -11866,7 +11821,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -11904,7 +11859,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -11939,7 +11894,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -11971,7 +11926,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -12006,7 +11961,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -12038,7 +11993,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -12073,7 +12028,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -12102,7 +12057,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -12131,7 +12086,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -12151,7 +12106,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -12159,22 +12114,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -12209,7 +12164,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -12235,7 +12190,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -12258,7 +12213,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -12269,7 +12224,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -12280,7 +12235,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -12288,12 +12243,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -12316,7 +12271,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -12342,7 +12297,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.25">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -12368,7 +12323,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -12388,7 +12343,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -12403,7 +12358,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -12417,7 +12372,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -12425,10 +12380,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.25">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -12449,92 +12404,92 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AG34"/>
   <sheetViews>
     <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5703125" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.85546875" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" customWidth="1"/>
-    <col min="20" max="20" width="19.28515625" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" customWidth="1"/>
-    <col min="26" max="26" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5546875" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="19" width="17.77734375" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="17.77734375" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" customWidth="1"/>
+    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="15.28515625" customWidth="1"/>
-    <col min="31" max="31" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.5703125" customWidth="1"/>
+    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="30" width="15.21875" customWidth="1"/>
+    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.77734375" customWidth="1"/>
+    <col min="33" max="33" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="20" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
       <c r="V1" s="10" t="s">
         <v>97</v>
       </c>
       <c r="W1" s="10"/>
       <c r="X1" s="10"/>
       <c r="Y1" s="10"/>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="17" t="s">
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
     </row>
-    <row r="2" spans="1:33" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -12635,7 +12590,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12701,7 +12656,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -12752,7 +12707,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12806,7 +12761,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -12848,7 +12803,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12893,7 +12848,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12931,7 +12886,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -12969,7 +12924,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -13004,7 +12959,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -13036,7 +12991,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -13068,7 +13023,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -13097,7 +13052,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -13120,7 +13075,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -13146,7 +13101,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -13163,7 +13118,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -13174,7 +13129,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -13188,7 +13143,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -13202,7 +13157,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -13213,7 +13168,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -13227,7 +13182,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -13238,7 +13193,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -13249,7 +13204,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -13257,7 +13212,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -13265,7 +13220,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -13273,7 +13228,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -13287,7 +13242,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -13298,7 +13253,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -13309,7 +13264,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -13320,7 +13275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -13328,7 +13283,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -13336,12 +13291,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -13367,6 +13322,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -13480,31 +13444,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13518,12 +13481,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/esther_beukhof_wur_nl/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{82394361-29A2-4660-90B4-0FF5D9BB3F79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{45A9CBE4-F4B5-473C-A2EE-A678B1FEDB6D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C49FC541-BA9D-4D5E-8D96-2C0C7E18968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2EEDFC-ABC4-48E0-9955-0C18358463CF}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3495" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Drop-down overview" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$R$47:$R$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DataExtraction!$A$2:$AX$54</definedName>
     <definedName name="Benthic_epifauna">Validation!$AI$32:$AI$35</definedName>
     <definedName name="Benthos">Validation!$AN$24:$AN$25</definedName>
     <definedName name="Catch_and_bycatch">Validation!$AM$15:$AM$17</definedName>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{71F3BC60-E1CA-45D9-91CF-C0CC18C54D03}">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{1CF28140-118D-40ED-BED2-A2D958C89BA0}">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{E49B3E37-28D1-45DB-B753-694979BCD530}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{109235FD-E2B1-45B8-93E2-402AE0DC252F}">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{3A3A9FAA-D4C3-4B97-ADD4-E56E463CE0F6}">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{169AA010-4EAC-4C1D-96A8-5DD22FF4A906}">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{90594037-8A0D-4ECF-88ED-4A2E801CD52E}">
       <text>
         <r>
           <rPr>
@@ -2388,7 +2388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2376" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2418" uniqueCount="652">
   <si>
     <t>SearchID</t>
   </si>
@@ -3309,9 +3309,6 @@
   </si>
   <si>
     <t>survival</t>
-  </si>
-  <si>
-    <t>80% + survival for most if undamaged, 50% for great circular crabs.</t>
   </si>
   <si>
     <r>
@@ -4193,9 +4190,6 @@
     <t>Changes in target communities were manifested as i) decline in catch per unit effort, ii) increase in CPUE of scorpaena porcus, symphodus tinca, maja crispata, decrease in labriadae, serranidae, mullus, octopus vulgaris, iii) changes in length frequency of scorpaena porcus, symphodus tinca, mullus surmuletus. Changes are due to intensive fishing which distorts the foodweb. Some fishes are more vulnerable to fishing pressure than others.</t>
   </si>
   <si>
-    <t>Asterias rubens _ Maja brachydactyla _ Atelecyclus undecimendatus _ Aphrodita aculeata _ Pagurus sp _ Buccinium undatum</t>
-  </si>
-  <si>
     <t>Scophthalmus maximus _ Platichthys flesus</t>
   </si>
   <si>
@@ -4360,6 +4354,18 @@
   <si>
     <t>As a first general consideration, the results of this study support the idea that managing the access to fishing grounds by means of gear-specific regulation could have relevant effects on both the status of living marine resources and the economic aspects of fisheries. Considering the simulation of management scenarios, the
 model results highlight the highest rebuilding of the SSB for all target stocks in S4, whereas maintaining the status quo in terms of fishing activity and exploitation pattern would lead to the lowest predicted SSB level.</t>
+  </si>
+  <si>
+    <t>Asterias rubens _ Aphrodita aculeata _ Pagurus sp _ Buccinium undatum</t>
+  </si>
+  <si>
+    <t>Maja brachydactyla _ Atelecyclus undecimendatus</t>
+  </si>
+  <si>
+    <t>93% + survival</t>
+  </si>
+  <si>
+    <t>80% + survival for most if undamaged, 50% for great circular crabs. Lower survival if damaged.</t>
   </si>
 </sst>
 </file>
@@ -4854,29 +4860,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX53"/>
+  <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
-    <col min="24" max="25" width="32.6640625" customWidth="1"/>
-    <col min="34" max="35" width="17.6640625" customWidth="1"/>
-    <col min="36" max="36" width="18.6640625" customWidth="1"/>
-    <col min="37" max="37" width="19.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.6640625" customWidth="1"/>
-    <col min="39" max="39" width="14.33203125" customWidth="1"/>
-    <col min="40" max="41" width="15.88671875" customWidth="1"/>
-    <col min="42" max="42" width="15.44140625" customWidth="1"/>
-    <col min="46" max="46" width="15.109375" customWidth="1"/>
-    <col min="47" max="47" width="18.6640625" customWidth="1"/>
+    <col min="19" max="19" width="18.08984375" customWidth="1"/>
+    <col min="24" max="25" width="32.6328125" customWidth="1"/>
+    <col min="34" max="35" width="17.6328125" customWidth="1"/>
+    <col min="36" max="36" width="18.6328125" customWidth="1"/>
+    <col min="37" max="37" width="19.08984375" customWidth="1"/>
+    <col min="38" max="38" width="17.6328125" customWidth="1"/>
+    <col min="39" max="39" width="14.36328125" customWidth="1"/>
+    <col min="40" max="41" width="15.90625" customWidth="1"/>
+    <col min="42" max="42" width="15.453125" customWidth="1"/>
+    <col min="46" max="46" width="15.08984375" customWidth="1"/>
+    <col min="47" max="47" width="18.6328125" customWidth="1"/>
     <col min="48" max="48" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
@@ -4942,7 +4948,7 @@
       <c r="AW1" s="19"/>
       <c r="AX1" s="19"/>
     </row>
-    <row r="2" spans="1:50" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -5094,7 +5100,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>242</v>
       </c>
@@ -5213,7 +5219,7 @@
         <v>175</v>
       </c>
       <c r="AT3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AU3" t="s">
         <v>259</v>
@@ -5225,10 +5231,10 @@
         <v>209</v>
       </c>
       <c r="AX3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>242</v>
       </c>
@@ -5347,7 +5353,7 @@
         <v>181</v>
       </c>
       <c r="AT4" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AU4" t="s">
         <v>259</v>
@@ -5359,10 +5365,10 @@
         <v>209</v>
       </c>
       <c r="AX4" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>242</v>
       </c>
@@ -5490,10 +5496,10 @@
         <v>209</v>
       </c>
       <c r="AX5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>242</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>164</v>
       </c>
       <c r="AT6" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AU6" t="s">
         <v>259</v>
@@ -5618,21 +5624,21 @@
         <v>209</v>
       </c>
       <c r="AX6" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
-    <row r="7" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C7" t="s">
+        <v>559</v>
+      </c>
+      <c r="D7" t="s">
         <v>560</v>
-      </c>
-      <c r="D7" t="s">
-        <v>561</v>
       </c>
       <c r="E7">
         <v>2022</v>
@@ -5653,13 +5659,13 @@
         <v>248</v>
       </c>
       <c r="K7" t="s">
+        <v>561</v>
+      </c>
+      <c r="L7" t="s">
+        <v>248</v>
+      </c>
+      <c r="M7" t="s">
         <v>562</v>
-      </c>
-      <c r="L7" t="s">
-        <v>248</v>
-      </c>
-      <c r="M7" t="s">
-        <v>563</v>
       </c>
       <c r="N7" t="s">
         <v>251</v>
@@ -5704,10 +5710,10 @@
         <v>3</v>
       </c>
       <c r="AD7" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="AE7" t="s">
         <v>564</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>565</v>
       </c>
       <c r="AF7">
         <v>4.4000000000000004</v>
@@ -5743,10 +5749,10 @@
         <v>208</v>
       </c>
       <c r="AX7" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>260</v>
       </c>
@@ -5850,7 +5856,7 @@
         <v>272</v>
       </c>
       <c r="AP8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AQ8" t="s">
         <v>164</v>
@@ -5862,7 +5868,7 @@
         <v>273</v>
       </c>
       <c r="AU8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AV8" t="s">
         <v>206</v>
@@ -5871,10 +5877,10 @@
         <v>208</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>260</v>
       </c>
@@ -5981,7 +5987,7 @@
         <v>272</v>
       </c>
       <c r="AP9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AQ9" t="s">
         <v>164</v>
@@ -5993,7 +5999,7 @@
         <v>273</v>
       </c>
       <c r="AU9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="AV9" t="s">
         <v>206</v>
@@ -6002,10 +6008,10 @@
         <v>208</v>
       </c>
       <c r="AX9" s="15" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
-    <row r="10" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>274</v>
       </c>
@@ -6062,7 +6068,7 @@
       </c>
       <c r="AD10" s="12"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>286</v>
       </c>
@@ -6166,13 +6172,13 @@
         <v>155</v>
       </c>
       <c r="AL11" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AM11" t="s">
         <v>235</v>
       </c>
       <c r="AO11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="AQ11" t="s">
         <v>164</v>
@@ -6184,7 +6190,7 @@
         <v>258</v>
       </c>
       <c r="AU11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="AV11" t="s">
         <v>212</v>
@@ -6193,10 +6199,10 @@
         <v>209</v>
       </c>
       <c r="AX11" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
-    <row r="12" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>296</v>
       </c>
@@ -6267,7 +6273,7 @@
         <v>69</v>
       </c>
       <c r="Y12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="Z12" t="s">
         <v>305</v>
@@ -6282,7 +6288,7 @@
         <v>3</v>
       </c>
       <c r="AD12" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AE12" s="13" t="s">
         <v>304</v>
@@ -6303,7 +6309,7 @@
         <v>150</v>
       </c>
       <c r="AL12" t="s">
-        <v>594</v>
+        <v>648</v>
       </c>
       <c r="AM12" t="s">
         <v>232</v>
@@ -6330,36 +6336,36 @@
         <v>237</v>
       </c>
       <c r="AW12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AX12" t="s">
-        <v>307</v>
+        <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D13" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="E13">
         <v>2020</v>
       </c>
       <c r="F13" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="G13" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="I13" t="s">
         <v>248</v>
@@ -6368,13 +6374,13 @@
         <v>248</v>
       </c>
       <c r="K13" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="L13" t="s">
         <v>248</v>
       </c>
       <c r="M13" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="N13" t="s">
         <v>251</v>
@@ -6383,39 +6389,123 @@
         <v>252</v>
       </c>
       <c r="P13" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="Q13" t="s">
         <v>21</v>
       </c>
-      <c r="R13" t="s">
-        <v>84</v>
+      <c r="S13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>47</v>
+      </c>
+      <c r="X13" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>305</v>
+      </c>
+      <c r="AA13">
+        <v>2</v>
+      </c>
+      <c r="AB13">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="13">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE13" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>285</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>649</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>257</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>306</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>237</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>651</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="D14" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="E14">
         <v>2020</v>
       </c>
       <c r="F14" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="G14" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H14" t="s">
-        <v>248</v>
+        <v>313</v>
       </c>
       <c r="I14" t="s">
         <v>248</v>
@@ -6424,13 +6514,13 @@
         <v>248</v>
       </c>
       <c r="K14" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="L14" t="s">
         <v>248</v>
       </c>
       <c r="M14" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="N14" t="s">
         <v>251</v>
@@ -6439,7 +6529,7 @@
         <v>252</v>
       </c>
       <c r="P14" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="Q14" t="s">
         <v>21</v>
@@ -6448,45 +6538,45 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D15" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E15">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G15" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="H15" t="s">
-        <v>331</v>
+        <v>248</v>
       </c>
       <c r="I15" t="s">
-        <v>332</v>
+        <v>248</v>
       </c>
       <c r="J15" t="s">
-        <v>333</v>
+        <v>248</v>
       </c>
       <c r="K15" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L15" t="s">
         <v>248</v>
       </c>
       <c r="M15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="N15" t="s">
         <v>251</v>
@@ -6495,123 +6585,54 @@
         <v>252</v>
       </c>
       <c r="P15" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="Q15" t="s">
         <v>21</v>
       </c>
-      <c r="S15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" t="s">
-        <v>41</v>
-      </c>
-      <c r="U15" t="s">
-        <v>55</v>
-      </c>
-      <c r="V15" t="s">
-        <v>40</v>
-      </c>
-      <c r="W15" t="s">
-        <v>53</v>
-      </c>
-      <c r="X15" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>607</v>
-      </c>
-      <c r="AA15">
-        <v>2</v>
-      </c>
-      <c r="AB15">
-        <v>2</v>
-      </c>
-      <c r="AC15">
-        <v>3</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>341</v>
-      </c>
-      <c r="AF15">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>608</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>258</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>609</v>
+      <c r="R15" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D16" t="s">
         <v>327</v>
-      </c>
-      <c r="D16" t="s">
-        <v>328</v>
       </c>
       <c r="E16">
         <v>2019</v>
       </c>
       <c r="F16" t="s">
+        <v>328</v>
+      </c>
+      <c r="G16" t="s">
         <v>329</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>330</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>331</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>332</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>333</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>248</v>
+      </c>
+      <c r="M16" t="s">
         <v>334</v>
-      </c>
-      <c r="L16" t="s">
-        <v>248</v>
-      </c>
-      <c r="M16" t="s">
-        <v>335</v>
       </c>
       <c r="N16" t="s">
         <v>251</v>
@@ -6644,7 +6665,7 @@
         <v>216</v>
       </c>
       <c r="Z16" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="AA16">
         <v>2</v>
@@ -6656,7 +6677,7 @@
         <v>3</v>
       </c>
       <c r="AE16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF16">
         <v>4.4000000000000004</v>
@@ -6665,13 +6686,16 @@
         <v>110</v>
       </c>
       <c r="AH16" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>144</v>
       </c>
       <c r="AM16" t="s">
         <v>233</v>
       </c>
       <c r="AO16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="AQ16" t="s">
         <v>164</v>
@@ -6692,48 +6716,48 @@
         <v>209</v>
       </c>
       <c r="AX16" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" t="s">
         <v>327</v>
-      </c>
-      <c r="D17" t="s">
-        <v>328</v>
       </c>
       <c r="E17">
         <v>2019</v>
       </c>
       <c r="F17" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17" t="s">
         <v>329</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>330</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>331</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>332</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>333</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
+        <v>248</v>
+      </c>
+      <c r="M17" t="s">
         <v>334</v>
-      </c>
-      <c r="L17" t="s">
-        <v>248</v>
-      </c>
-      <c r="M17" t="s">
-        <v>335</v>
       </c>
       <c r="N17" t="s">
         <v>251</v>
@@ -6757,7 +6781,7 @@
         <v>55</v>
       </c>
       <c r="V17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W17" t="s">
         <v>53</v>
@@ -6766,7 +6790,7 @@
         <v>216</v>
       </c>
       <c r="Z17" t="s">
-        <v>336</v>
+        <v>605</v>
       </c>
       <c r="AA17">
         <v>2</v>
@@ -6778,7 +6802,7 @@
         <v>3</v>
       </c>
       <c r="AE17" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF17">
         <v>4.4000000000000004</v>
@@ -6789,32 +6813,17 @@
       <c r="AH17" t="s">
         <v>120</v>
       </c>
-      <c r="AI17" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>337</v>
-      </c>
       <c r="AM17" t="s">
         <v>233</v>
       </c>
       <c r="AO17" t="s">
-        <v>340</v>
+        <v>606</v>
       </c>
       <c r="AQ17" t="s">
         <v>164</v>
       </c>
       <c r="AR17" t="s">
-        <v>168</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>178</v>
+        <v>239</v>
       </c>
       <c r="AT17" t="s">
         <v>258</v>
@@ -6829,48 +6838,48 @@
         <v>209</v>
       </c>
       <c r="AX17" t="s">
-        <v>338</v>
+        <v>607</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
+        <v>326</v>
+      </c>
+      <c r="D18" t="s">
         <v>327</v>
-      </c>
-      <c r="D18" t="s">
-        <v>328</v>
       </c>
       <c r="E18">
         <v>2019</v>
       </c>
       <c r="F18" t="s">
+        <v>328</v>
+      </c>
+      <c r="G18" t="s">
         <v>329</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>330</v>
       </c>
-      <c r="H18">
-        <v>8</v>
-      </c>
       <c r="I18" t="s">
+        <v>331</v>
+      </c>
+      <c r="J18" t="s">
         <v>332</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>333</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
+        <v>248</v>
+      </c>
+      <c r="M18" t="s">
         <v>334</v>
-      </c>
-      <c r="L18" t="s">
-        <v>248</v>
-      </c>
-      <c r="M18" t="s">
-        <v>335</v>
       </c>
       <c r="N18" t="s">
         <v>251</v>
@@ -6894,7 +6903,7 @@
         <v>55</v>
       </c>
       <c r="V18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="W18" t="s">
         <v>53</v>
@@ -6903,7 +6912,7 @@
         <v>216</v>
       </c>
       <c r="Z18" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AA18">
         <v>2</v>
@@ -6915,7 +6924,7 @@
         <v>3</v>
       </c>
       <c r="AE18" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AF18">
         <v>4.4000000000000004</v>
@@ -6924,28 +6933,34 @@
         <v>110</v>
       </c>
       <c r="AH18" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>140</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>113</v>
       </c>
       <c r="AK18" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="AL18" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM18" t="s">
         <v>233</v>
       </c>
       <c r="AO18" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AQ18" t="s">
         <v>164</v>
       </c>
       <c r="AR18" t="s">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="AS18" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AT18" t="s">
         <v>258</v>
@@ -6960,48 +6975,48 @@
         <v>209</v>
       </c>
       <c r="AX18" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>325</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>343</v>
+        <v>326</v>
       </c>
       <c r="D19" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="E19">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="G19" t="s">
-        <v>346</v>
-      </c>
-      <c r="H19" t="s">
-        <v>248</v>
+        <v>329</v>
+      </c>
+      <c r="H19">
+        <v>8</v>
       </c>
       <c r="I19" t="s">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="J19" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="K19" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="L19" t="s">
         <v>248</v>
       </c>
       <c r="M19" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="N19" t="s">
         <v>251</v>
@@ -7015,49 +7030,124 @@
       <c r="Q19" t="s">
         <v>21</v>
       </c>
-      <c r="R19" t="s">
-        <v>84</v>
+      <c r="S19" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" t="s">
+        <v>55</v>
+      </c>
+      <c r="V19" t="s">
+        <v>40</v>
+      </c>
+      <c r="W19" t="s">
+        <v>53</v>
+      </c>
+      <c r="X19" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA19">
+        <v>2</v>
+      </c>
+      <c r="AB19">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>3</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>340</v>
+      </c>
+      <c r="AF19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>336</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>206</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="20" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D20" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="E20">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F20" t="s">
-        <v>263</v>
+        <v>344</v>
       </c>
       <c r="G20" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="H20" t="s">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="I20" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="J20" t="s">
-        <v>354</v>
+        <v>278</v>
       </c>
       <c r="K20" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L20" t="s">
         <v>248</v>
       </c>
       <c r="M20" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="N20" t="s">
         <v>251</v>
@@ -7066,108 +7156,27 @@
         <v>252</v>
       </c>
       <c r="P20" t="s">
-        <v>357</v>
+        <v>248</v>
       </c>
       <c r="Q20" t="s">
         <v>21</v>
       </c>
-      <c r="S20" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" t="s">
-        <v>41</v>
-      </c>
-      <c r="U20" t="s">
-        <v>47</v>
-      </c>
-      <c r="V20" t="s">
-        <v>40</v>
-      </c>
-      <c r="W20" t="s">
-        <v>47</v>
-      </c>
-      <c r="X20" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>359</v>
-      </c>
-      <c r="AA20">
-        <v>2</v>
-      </c>
-      <c r="AB20">
-        <v>2</v>
-      </c>
-      <c r="AC20">
-        <v>2</v>
-      </c>
-      <c r="AD20" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>360</v>
-      </c>
-      <c r="AF20">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>161</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>619</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>169</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>182</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>620</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>622</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>623</v>
+      <c r="R20" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
+        <v>349</v>
+      </c>
+      <c r="D21" t="s">
         <v>350</v>
-      </c>
-      <c r="D21" t="s">
-        <v>351</v>
       </c>
       <c r="E21">
         <v>2017</v>
@@ -7176,25 +7185,25 @@
         <v>263</v>
       </c>
       <c r="G21" t="s">
+        <v>351</v>
+      </c>
+      <c r="H21" t="s">
+        <v>313</v>
+      </c>
+      <c r="I21" t="s">
         <v>352</v>
       </c>
-      <c r="H21" t="s">
-        <v>314</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>353</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>354</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
+        <v>248</v>
+      </c>
+      <c r="M21" t="s">
         <v>355</v>
-      </c>
-      <c r="L21" t="s">
-        <v>248</v>
-      </c>
-      <c r="M21" t="s">
-        <v>356</v>
       </c>
       <c r="N21" t="s">
         <v>251</v>
@@ -7203,7 +7212,7 @@
         <v>252</v>
       </c>
       <c r="P21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q21" t="s">
         <v>21</v>
@@ -7227,10 +7236,10 @@
         <v>69</v>
       </c>
       <c r="Y21" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z21" t="s">
         <v>358</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>359</v>
       </c>
       <c r="AA21">
         <v>2</v>
@@ -7242,10 +7251,10 @@
         <v>2</v>
       </c>
       <c r="AD21" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE21" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF21">
         <v>4.4000000000000004</v>
@@ -7254,16 +7263,10 @@
         <v>109</v>
       </c>
       <c r="AH21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI21" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>621</v>
+        <v>144</v>
       </c>
       <c r="AM21" t="s">
         <v>232</v>
@@ -7272,7 +7275,7 @@
         <v>161</v>
       </c>
       <c r="AO21" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AQ21" t="s">
         <v>164</v>
@@ -7284,10 +7287,10 @@
         <v>182</v>
       </c>
       <c r="AT21" t="s">
+        <v>618</v>
+      </c>
+      <c r="AU21" t="s">
         <v>620</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>622</v>
       </c>
       <c r="AV21" t="s">
         <v>113</v>
@@ -7296,21 +7299,21 @@
         <v>207</v>
       </c>
       <c r="AX21" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
+        <v>349</v>
+      </c>
+      <c r="D22" t="s">
         <v>350</v>
-      </c>
-      <c r="D22" t="s">
-        <v>351</v>
       </c>
       <c r="E22">
         <v>2017</v>
@@ -7319,25 +7322,25 @@
         <v>263</v>
       </c>
       <c r="G22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H22" t="s">
+        <v>313</v>
+      </c>
+      <c r="I22" t="s">
         <v>352</v>
       </c>
-      <c r="H22" t="s">
-        <v>314</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>353</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>354</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
+        <v>248</v>
+      </c>
+      <c r="M22" t="s">
         <v>355</v>
-      </c>
-      <c r="L22" t="s">
-        <v>248</v>
-      </c>
-      <c r="M22" t="s">
-        <v>356</v>
       </c>
       <c r="N22" t="s">
         <v>251</v>
@@ -7346,7 +7349,7 @@
         <v>252</v>
       </c>
       <c r="P22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="Q22" t="s">
         <v>21</v>
@@ -7370,10 +7373,10 @@
         <v>69</v>
       </c>
       <c r="Y22" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z22" t="s">
         <v>358</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>359</v>
       </c>
       <c r="AA22">
         <v>2</v>
@@ -7385,10 +7388,10 @@
         <v>2</v>
       </c>
       <c r="AD22" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AE22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF22">
         <v>4.4000000000000004</v>
@@ -7406,7 +7409,7 @@
         <v>150</v>
       </c>
       <c r="AL22" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="AM22" t="s">
         <v>232</v>
@@ -7415,7 +7418,7 @@
         <v>161</v>
       </c>
       <c r="AO22" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="AQ22" t="s">
         <v>164</v>
@@ -7427,251 +7430,337 @@
         <v>182</v>
       </c>
       <c r="AT22" t="s">
+        <v>618</v>
+      </c>
+      <c r="AU22" t="s">
         <v>620</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>627</v>
       </c>
       <c r="AV22" t="s">
         <v>113</v>
       </c>
       <c r="AW22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX22" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
-    <row r="23" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
-        <v>362</v>
+    <row r="23" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>348</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="E23" s="16">
+      <c r="C23" t="s">
+        <v>349</v>
+      </c>
+      <c r="D23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E23">
         <v>2017</v>
       </c>
-      <c r="F23" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="N23" s="16" t="s">
+      <c r="F23" t="s">
+        <v>263</v>
+      </c>
+      <c r="G23" t="s">
+        <v>351</v>
+      </c>
+      <c r="H23" t="s">
+        <v>313</v>
+      </c>
+      <c r="I23" t="s">
+        <v>352</v>
+      </c>
+      <c r="J23" t="s">
+        <v>353</v>
+      </c>
+      <c r="K23" t="s">
+        <v>354</v>
+      </c>
+      <c r="L23" t="s">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s">
+        <v>355</v>
+      </c>
+      <c r="N23" t="s">
         <v>251</v>
       </c>
-      <c r="O23" s="16" t="s">
+      <c r="O23" t="s">
         <v>252</v>
       </c>
-      <c r="P23" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q23" s="16" t="s">
+      <c r="P23" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q23" t="s">
         <v>21</v>
       </c>
-      <c r="S23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="V23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W23" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="X23" s="16" t="s">
+      <c r="S23" t="s">
+        <v>32</v>
+      </c>
+      <c r="T23" t="s">
+        <v>41</v>
+      </c>
+      <c r="U23" t="s">
+        <v>47</v>
+      </c>
+      <c r="V23" t="s">
+        <v>40</v>
+      </c>
+      <c r="W23" t="s">
+        <v>47</v>
+      </c>
+      <c r="X23" t="s">
         <v>69</v>
       </c>
-      <c r="Y23" s="16" t="s">
+      <c r="Y23" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z23" t="s">
         <v>358</v>
       </c>
-      <c r="Z23" s="16" t="s">
-        <v>646</v>
-      </c>
-      <c r="AA23" s="16">
+      <c r="AA23">
         <v>2</v>
       </c>
-      <c r="AB23" s="16">
+      <c r="AB23">
         <v>2</v>
       </c>
-      <c r="AC23" s="16">
-        <v>3</v>
-      </c>
-      <c r="AD23" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="AF23" s="16">
+      <c r="AC23">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>359</v>
+      </c>
+      <c r="AF23">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG23" s="16" t="s">
+      <c r="AG23" t="s">
         <v>109</v>
       </c>
-      <c r="AH23" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI23" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK23" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL23" s="16" t="s">
-        <v>647</v>
-      </c>
-      <c r="AM23" s="16" t="s">
+      <c r="AH23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>624</v>
+      </c>
+      <c r="AM23" t="s">
         <v>232</v>
       </c>
-      <c r="AN23" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="AO23" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="AQ23" s="16" t="s">
+      <c r="AN23" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>623</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>164</v>
       </c>
-      <c r="AR23" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="AT23" s="16" t="s">
-        <v>648</v>
-      </c>
-      <c r="AU23" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="AV23" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW23" s="16" t="s">
+      <c r="AR23" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>618</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>625</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AW23" t="s">
         <v>208</v>
       </c>
+      <c r="AX23" t="s">
+        <v>626</v>
+      </c>
     </row>
-    <row r="24" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>371</v>
+    <row r="24" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>361</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="E24" s="16">
+        <v>2017</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="N24" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="P24" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="S24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="U24" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="X24" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y24" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z24" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>3</v>
+      </c>
+      <c r="AD24" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="AF24" s="16">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG24" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH24" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI24" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK24" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL24" s="16" t="s">
+        <v>645</v>
+      </c>
+      <c r="AM24" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN24" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO24" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="AQ24" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR24" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="AT24" s="16" t="s">
+        <v>646</v>
+      </c>
+      <c r="AU24" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV24" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW24" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>370</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C25" t="s">
+        <v>371</v>
+      </c>
+      <c r="D25" t="s">
         <v>372</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E25">
+        <v>2017</v>
+      </c>
+      <c r="F25" t="s">
         <v>373</v>
       </c>
-      <c r="E24">
-        <v>2017</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G25" t="s">
         <v>374</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H25" t="s">
+        <v>248</v>
+      </c>
+      <c r="I25" t="s">
         <v>375</v>
       </c>
-      <c r="H24" t="s">
-        <v>248</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J25" t="s">
         <v>376</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K25" t="s">
         <v>377</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L25" t="s">
+        <v>248</v>
+      </c>
+      <c r="M25" t="s">
         <v>378</v>
-      </c>
-      <c r="L24" t="s">
-        <v>248</v>
-      </c>
-      <c r="M24" t="s">
-        <v>379</v>
-      </c>
-      <c r="N24" t="s">
-        <v>251</v>
-      </c>
-      <c r="O24" t="s">
-        <v>252</v>
-      </c>
-      <c r="P24" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD24" s="12"/>
-    </row>
-    <row r="25" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>545</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="C25" t="s">
-        <v>546</v>
-      </c>
-      <c r="D25" t="s">
-        <v>547</v>
-      </c>
-      <c r="E25">
-        <v>2016</v>
-      </c>
-      <c r="F25" t="s">
-        <v>548</v>
-      </c>
-      <c r="G25" t="s">
-        <v>549</v>
-      </c>
-      <c r="H25" t="s">
-        <v>314</v>
-      </c>
-      <c r="I25" t="s">
-        <v>550</v>
-      </c>
-      <c r="J25" t="s">
-        <v>551</v>
-      </c>
-      <c r="K25" t="s">
-        <v>552</v>
-      </c>
-      <c r="L25" t="s">
-        <v>248</v>
-      </c>
-      <c r="M25" t="s">
-        <v>553</v>
       </c>
       <c r="N25" t="s">
         <v>251</v>
@@ -7680,132 +7769,55 @@
         <v>252</v>
       </c>
       <c r="P25" t="s">
-        <v>357</v>
+        <v>248</v>
       </c>
       <c r="Q25" t="s">
         <v>21</v>
       </c>
-      <c r="S25" t="s">
-        <v>25</v>
-      </c>
-      <c r="T25" t="s">
-        <v>42</v>
-      </c>
-      <c r="U25" t="s">
-        <v>59</v>
-      </c>
-      <c r="V25" t="s">
-        <v>36</v>
-      </c>
-      <c r="W25" t="s">
-        <v>47</v>
-      </c>
-      <c r="X25" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>554</v>
-      </c>
-      <c r="AA25">
-        <v>2</v>
-      </c>
-      <c r="AB25">
-        <v>2</v>
-      </c>
-      <c r="AC25">
-        <v>3</v>
-      </c>
-      <c r="AD25" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="AF25">
-        <v>4.3</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>148</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>148</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>556</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>272</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>542</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>557</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>558</v>
-      </c>
+      <c r="R25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD25" s="12"/>
     </row>
-    <row r="26" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>381</v>
-      </c>
-      <c r="B26" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
-        <v>382</v>
+        <v>545</v>
       </c>
       <c r="D26" t="s">
-        <v>383</v>
+        <v>546</v>
       </c>
       <c r="E26">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F26" t="s">
-        <v>263</v>
+        <v>547</v>
       </c>
       <c r="G26" t="s">
-        <v>384</v>
+        <v>548</v>
       </c>
       <c r="H26" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="I26" t="s">
-        <v>385</v>
+        <v>549</v>
       </c>
       <c r="J26" t="s">
-        <v>386</v>
+        <v>550</v>
       </c>
       <c r="K26" t="s">
-        <v>387</v>
+        <v>551</v>
       </c>
       <c r="L26" t="s">
         <v>248</v>
       </c>
       <c r="M26" t="s">
-        <v>388</v>
+        <v>552</v>
       </c>
       <c r="N26" t="s">
         <v>251</v>
@@ -7814,31 +7826,31 @@
         <v>252</v>
       </c>
       <c r="P26" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="Q26" t="s">
         <v>21</v>
       </c>
       <c r="S26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V26" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="W26" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="X26" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>390</v>
+        <v>216</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>553</v>
       </c>
       <c r="AA26">
         <v>2</v>
@@ -7850,26 +7862,26 @@
         <v>3</v>
       </c>
       <c r="AD26" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>391</v>
+        <v>554</v>
       </c>
       <c r="AF26">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="AG26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH26" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AI26" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AK26" t="s">
         <v>148</v>
       </c>
+      <c r="AL26" t="s">
+        <v>555</v>
+      </c>
       <c r="AM26" t="s">
         <v>233</v>
       </c>
@@ -7883,33 +7895,36 @@
         <v>239</v>
       </c>
       <c r="AS26" t="s">
-        <v>176</v>
+        <v>175</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>541</v>
       </c>
       <c r="AU26" t="s">
-        <v>392</v>
+        <v>556</v>
       </c>
       <c r="AV26" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="AW26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AX26" t="s">
-        <v>393</v>
+        <v>557</v>
       </c>
     </row>
-    <row r="27" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
+        <v>381</v>
+      </c>
+      <c r="D27" t="s">
         <v>382</v>
-      </c>
-      <c r="D27" t="s">
-        <v>383</v>
       </c>
       <c r="E27">
         <v>2015</v>
@@ -7918,25 +7933,25 @@
         <v>263</v>
       </c>
       <c r="G27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H27" t="s">
         <v>265</v>
       </c>
       <c r="I27" t="s">
+        <v>384</v>
+      </c>
+      <c r="J27" t="s">
         <v>385</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>386</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="s">
         <v>387</v>
-      </c>
-      <c r="L27" t="s">
-        <v>248</v>
-      </c>
-      <c r="M27" t="s">
-        <v>388</v>
       </c>
       <c r="N27" t="s">
         <v>251</v>
@@ -7969,7 +7984,7 @@
         <v>215</v>
       </c>
       <c r="Z27" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AA27">
         <v>2</v>
@@ -7981,10 +7996,10 @@
         <v>3</v>
       </c>
       <c r="AD27" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AE27" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF27">
         <v>4.4000000000000004</v>
@@ -7996,7 +8011,7 @@
         <v>120</v>
       </c>
       <c r="AI27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="AK27" t="s">
         <v>148</v>
@@ -8017,7 +8032,7 @@
         <v>176</v>
       </c>
       <c r="AU27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AV27" t="s">
         <v>205</v>
@@ -8026,48 +8041,48 @@
         <v>210</v>
       </c>
       <c r="AX27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="D28" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E28">
         <v>2015</v>
       </c>
       <c r="F28" t="s">
-        <v>397</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="I28" t="s">
-        <v>248</v>
+        <v>384</v>
       </c>
       <c r="J28" t="s">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="K28" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="L28" t="s">
         <v>248</v>
       </c>
       <c r="M28" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="N28" t="s">
         <v>251</v>
@@ -8076,34 +8091,31 @@
         <v>252</v>
       </c>
       <c r="P28" t="s">
-        <v>370</v>
+        <v>303</v>
       </c>
       <c r="Q28" t="s">
         <v>21</v>
       </c>
       <c r="S28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T28" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V28" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="W28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="X28" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>402</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="AA28">
         <v>2</v>
@@ -8115,34 +8127,31 @@
         <v>3</v>
       </c>
       <c r="AD28" s="12" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="AE28" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="AF28">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG28" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AH28" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>140</v>
       </c>
       <c r="AK28" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>380</v>
+        <v>148</v>
       </c>
       <c r="AM28" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO28" t="s">
-        <v>615</v>
+        <v>272</v>
       </c>
       <c r="AQ28" t="s">
         <v>164</v>
@@ -8150,43 +8159,43 @@
       <c r="AR28" t="s">
         <v>239</v>
       </c>
-      <c r="AT28" t="s">
-        <v>610</v>
+      <c r="AS28" t="s">
+        <v>176</v>
       </c>
       <c r="AU28" t="s">
-        <v>611</v>
+        <v>391</v>
       </c>
       <c r="AV28" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AX28" t="s">
-        <v>612</v>
+        <v>392</v>
       </c>
     </row>
-    <row r="29" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
+        <v>394</v>
+      </c>
+      <c r="D29" t="s">
         <v>395</v>
-      </c>
-      <c r="D29" t="s">
-        <v>396</v>
       </c>
       <c r="E29">
         <v>2015</v>
       </c>
       <c r="F29" t="s">
+        <v>396</v>
+      </c>
+      <c r="G29" t="s">
         <v>397</v>
-      </c>
-      <c r="G29" t="s">
-        <v>398</v>
       </c>
       <c r="H29" t="s">
         <v>265</v>
@@ -8198,13 +8207,13 @@
         <v>248</v>
       </c>
       <c r="K29" t="s">
+        <v>398</v>
+      </c>
+      <c r="L29" t="s">
+        <v>248</v>
+      </c>
+      <c r="M29" t="s">
         <v>399</v>
-      </c>
-      <c r="L29" t="s">
-        <v>248</v>
-      </c>
-      <c r="M29" t="s">
-        <v>400</v>
       </c>
       <c r="N29" t="s">
         <v>251</v>
@@ -8213,7 +8222,7 @@
         <v>252</v>
       </c>
       <c r="P29" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="Q29" t="s">
         <v>21</v>
@@ -8237,10 +8246,10 @@
         <v>113</v>
       </c>
       <c r="Y29" t="s">
+        <v>401</v>
+      </c>
+      <c r="Z29" t="s">
         <v>402</v>
-      </c>
-      <c r="Z29" t="s">
-        <v>403</v>
       </c>
       <c r="AA29">
         <v>2</v>
@@ -8252,10 +8261,10 @@
         <v>3</v>
       </c>
       <c r="AD29" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AE29" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="AF29">
         <v>4.4000000000000004</v>
@@ -8270,7 +8279,7 @@
         <v>150</v>
       </c>
       <c r="AL29" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AM29" t="s">
         <v>232</v>
@@ -8288,45 +8297,45 @@
         <v>239</v>
       </c>
       <c r="AT29" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AU29" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="AV29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW29" t="s">
         <v>209</v>
       </c>
       <c r="AX29" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D30" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="E30">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F30" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="G30" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="H30" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="I30" t="s">
         <v>248</v>
@@ -8335,13 +8344,13 @@
         <v>248</v>
       </c>
       <c r="K30" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="L30" t="s">
         <v>248</v>
       </c>
       <c r="M30" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="N30" t="s">
         <v>251</v>
@@ -8350,31 +8359,34 @@
         <v>252</v>
       </c>
       <c r="P30" t="s">
-        <v>325</v>
+        <v>369</v>
       </c>
       <c r="Q30" t="s">
         <v>21</v>
       </c>
       <c r="S30" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="T30" t="s">
         <v>46</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
         <v>46</v>
       </c>
       <c r="W30" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X30" t="s">
-        <v>80</v>
+        <v>113</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>401</v>
       </c>
       <c r="Z30" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="AA30">
         <v>2</v>
@@ -8385,85 +8397,97 @@
       <c r="AC30">
         <v>3</v>
       </c>
-      <c r="AD30" t="s">
-        <v>413</v>
+      <c r="AD30" s="12" t="s">
+        <v>400</v>
       </c>
       <c r="AE30" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="AF30">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG30" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH30" t="s">
-        <v>115</v>
+        <v>117</v>
+      </c>
+      <c r="AK30" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>379</v>
       </c>
       <c r="AM30" t="s">
-        <v>159</v>
+        <v>232</v>
+      </c>
+      <c r="AN30" t="s">
+        <v>160</v>
       </c>
       <c r="AO30" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="AQ30" t="s">
         <v>164</v>
       </c>
+      <c r="AR30" t="s">
+        <v>239</v>
+      </c>
       <c r="AT30" t="s">
-        <v>416</v>
+        <v>608</v>
       </c>
       <c r="AU30" t="s">
-        <v>259</v>
+        <v>612</v>
       </c>
       <c r="AV30" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX30" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
+        <v>406</v>
+      </c>
+      <c r="D31" t="s">
         <v>407</v>
-      </c>
-      <c r="D31" t="s">
-        <v>408</v>
       </c>
       <c r="E31">
         <v>2014</v>
       </c>
       <c r="F31" t="s">
+        <v>408</v>
+      </c>
+      <c r="G31" t="s">
         <v>409</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>248</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
         <v>410</v>
       </c>
-      <c r="H31" t="s">
-        <v>248</v>
-      </c>
-      <c r="I31" t="s">
-        <v>248</v>
-      </c>
-      <c r="J31" t="s">
-        <v>248</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="s">
         <v>411</v>
-      </c>
-      <c r="L31" t="s">
-        <v>248</v>
-      </c>
-      <c r="M31" t="s">
-        <v>412</v>
       </c>
       <c r="N31" t="s">
         <v>251</v>
@@ -8472,7 +8496,7 @@
         <v>252</v>
       </c>
       <c r="P31" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q31" t="s">
         <v>21</v>
@@ -8496,7 +8520,7 @@
         <v>80</v>
       </c>
       <c r="Z31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA31">
         <v>2</v>
@@ -8508,10 +8532,10 @@
         <v>3</v>
       </c>
       <c r="AD31" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE31" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF31">
         <v>4.4000000000000004</v>
@@ -8520,19 +8544,19 @@
         <v>111</v>
       </c>
       <c r="AH31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AM31" t="s">
         <v>159</v>
       </c>
       <c r="AO31" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
       </c>
       <c r="AT31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AU31" t="s">
         <v>259</v>
@@ -8544,48 +8568,48 @@
         <v>208</v>
       </c>
       <c r="AX31" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
+        <v>406</v>
+      </c>
+      <c r="D32" t="s">
         <v>407</v>
-      </c>
-      <c r="D32" t="s">
-        <v>408</v>
       </c>
       <c r="E32">
         <v>2014</v>
       </c>
       <c r="F32" t="s">
+        <v>408</v>
+      </c>
+      <c r="G32" t="s">
         <v>409</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>248</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32" t="s">
         <v>410</v>
       </c>
-      <c r="H32" t="s">
-        <v>248</v>
-      </c>
-      <c r="I32" t="s">
-        <v>248</v>
-      </c>
-      <c r="J32" t="s">
-        <v>248</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
+        <v>248</v>
+      </c>
+      <c r="M32" t="s">
         <v>411</v>
-      </c>
-      <c r="L32" t="s">
-        <v>248</v>
-      </c>
-      <c r="M32" t="s">
-        <v>412</v>
       </c>
       <c r="N32" t="s">
         <v>251</v>
@@ -8594,7 +8618,7 @@
         <v>252</v>
       </c>
       <c r="P32" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q32" t="s">
         <v>21</v>
@@ -8618,7 +8642,7 @@
         <v>80</v>
       </c>
       <c r="Z32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA32">
         <v>2</v>
@@ -8630,10 +8654,10 @@
         <v>3</v>
       </c>
       <c r="AD32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF32">
         <v>4.4000000000000004</v>
@@ -8642,25 +8666,19 @@
         <v>111</v>
       </c>
       <c r="AH32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL32" t="s">
-        <v>642</v>
+        <v>116</v>
       </c>
       <c r="AM32" t="s">
         <v>159</v>
       </c>
       <c r="AO32" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
       </c>
       <c r="AT32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AU32" t="s">
         <v>259</v>
@@ -8672,48 +8690,48 @@
         <v>208</v>
       </c>
       <c r="AX32" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
+        <v>406</v>
+      </c>
+      <c r="D33" t="s">
         <v>407</v>
-      </c>
-      <c r="D33" t="s">
-        <v>408</v>
       </c>
       <c r="E33">
         <v>2014</v>
       </c>
       <c r="F33" t="s">
+        <v>408</v>
+      </c>
+      <c r="G33" t="s">
         <v>409</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
+        <v>248</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>248</v>
+      </c>
+      <c r="K33" t="s">
         <v>410</v>
       </c>
-      <c r="H33" t="s">
-        <v>248</v>
-      </c>
-      <c r="I33" t="s">
-        <v>248</v>
-      </c>
-      <c r="J33" t="s">
-        <v>248</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="s">
         <v>411</v>
-      </c>
-      <c r="L33" t="s">
-        <v>248</v>
-      </c>
-      <c r="M33" t="s">
-        <v>412</v>
       </c>
       <c r="N33" t="s">
         <v>251</v>
@@ -8722,7 +8740,7 @@
         <v>252</v>
       </c>
       <c r="P33" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q33" t="s">
         <v>21</v>
@@ -8746,7 +8764,7 @@
         <v>80</v>
       </c>
       <c r="Z33" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA33">
         <v>2</v>
@@ -8758,10 +8776,10 @@
         <v>3</v>
       </c>
       <c r="AD33" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF33">
         <v>4.4000000000000004</v>
@@ -8770,78 +8788,78 @@
         <v>111</v>
       </c>
       <c r="AH33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AI33" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AL33" t="s">
-        <v>415</v>
+        <v>640</v>
       </c>
       <c r="AM33" t="s">
         <v>159</v>
       </c>
       <c r="AO33" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
       </c>
       <c r="AT33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AU33" t="s">
-        <v>644</v>
+        <v>259</v>
       </c>
       <c r="AV33" t="s">
         <v>199</v>
       </c>
       <c r="AW33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AX33" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D34" t="s">
         <v>407</v>
-      </c>
-      <c r="D34" t="s">
-        <v>408</v>
       </c>
       <c r="E34">
         <v>2014</v>
       </c>
       <c r="F34" t="s">
+        <v>408</v>
+      </c>
+      <c r="G34" t="s">
         <v>409</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
+        <v>248</v>
+      </c>
+      <c r="I34" t="s">
+        <v>248</v>
+      </c>
+      <c r="J34" t="s">
+        <v>248</v>
+      </c>
+      <c r="K34" t="s">
         <v>410</v>
       </c>
-      <c r="H34" t="s">
-        <v>248</v>
-      </c>
-      <c r="I34" t="s">
-        <v>248</v>
-      </c>
-      <c r="J34" t="s">
-        <v>248</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="s">
         <v>411</v>
-      </c>
-      <c r="L34" t="s">
-        <v>248</v>
-      </c>
-      <c r="M34" t="s">
-        <v>412</v>
       </c>
       <c r="N34" t="s">
         <v>251</v>
@@ -8850,7 +8868,7 @@
         <v>252</v>
       </c>
       <c r="P34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q34" t="s">
         <v>21</v>
@@ -8874,7 +8892,7 @@
         <v>80</v>
       </c>
       <c r="Z34" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="AA34">
         <v>2</v>
@@ -8886,10 +8904,10 @@
         <v>3</v>
       </c>
       <c r="AD34" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AE34" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF34">
         <v>4.4000000000000004</v>
@@ -8901,25 +8919,25 @@
         <v>117</v>
       </c>
       <c r="AI34" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AL34" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AM34" t="s">
         <v>159</v>
       </c>
       <c r="AO34" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
       </c>
       <c r="AT34" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AU34" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AV34" t="s">
         <v>199</v>
@@ -8928,48 +8946,48 @@
         <v>209</v>
       </c>
       <c r="AX34" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
-    <row r="35" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="D35" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="E35">
         <v>2014</v>
       </c>
       <c r="F35" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="G35" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="H35" t="s">
         <v>248</v>
       </c>
       <c r="I35" t="s">
-        <v>423</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>424</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="L35" t="s">
         <v>248</v>
       </c>
       <c r="M35" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="N35" t="s">
         <v>251</v>
@@ -8978,7 +8996,7 @@
         <v>252</v>
       </c>
       <c r="P35" t="s">
-        <v>248</v>
+        <v>324</v>
       </c>
       <c r="Q35" t="s">
         <v>21</v>
@@ -8999,10 +9017,10 @@
         <v>55</v>
       </c>
       <c r="X35" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="Z35" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="AA35">
         <v>2</v>
@@ -9011,40 +9029,43 @@
         <v>2</v>
       </c>
       <c r="AC35">
-        <v>2</v>
-      </c>
-      <c r="AD35" s="12" t="s">
-        <v>428</v>
+        <v>3</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>412</v>
       </c>
       <c r="AE35" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="AF35">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH35" t="s">
         <v>117</v>
       </c>
+      <c r="AI35" t="s">
+        <v>144</v>
+      </c>
       <c r="AL35" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="AM35" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AO35" t="s">
-        <v>272</v>
+        <v>641</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
       </c>
       <c r="AT35" t="s">
-        <v>404</v>
+        <v>415</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>642</v>
       </c>
       <c r="AV35" t="s">
         <v>199</v>
@@ -9053,48 +9074,48 @@
         <v>209</v>
       </c>
       <c r="AX35" t="s">
-        <v>432</v>
+        <v>643</v>
       </c>
     </row>
-    <row r="36" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C36" t="s">
+        <v>418</v>
+      </c>
+      <c r="D36" t="s">
         <v>419</v>
-      </c>
-      <c r="D36" t="s">
-        <v>420</v>
       </c>
       <c r="E36">
         <v>2014</v>
       </c>
       <c r="F36" t="s">
+        <v>420</v>
+      </c>
+      <c r="G36" t="s">
         <v>421</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" t="s">
         <v>422</v>
       </c>
-      <c r="H36" t="s">
-        <v>248</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>423</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>424</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
+        <v>248</v>
+      </c>
+      <c r="M36" t="s">
         <v>425</v>
-      </c>
-      <c r="L36" t="s">
-        <v>248</v>
-      </c>
-      <c r="M36" t="s">
-        <v>426</v>
       </c>
       <c r="N36" t="s">
         <v>251</v>
@@ -9127,7 +9148,7 @@
         <v>216</v>
       </c>
       <c r="Z36" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA36">
         <v>2</v>
@@ -9139,10 +9160,10 @@
         <v>2</v>
       </c>
       <c r="AD36" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="AE36" t="s">
         <v>428</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>433</v>
       </c>
       <c r="AF36">
         <v>4.4000000000000004</v>
@@ -9151,16 +9172,16 @@
         <v>110</v>
       </c>
       <c r="AH36" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="AL36" t="s">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="AM36" t="s">
         <v>232</v>
       </c>
       <c r="AN36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO36" t="s">
         <v>272</v>
@@ -9169,57 +9190,57 @@
         <v>164</v>
       </c>
       <c r="AT36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AV36" t="s">
         <v>199</v>
       </c>
       <c r="AW36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX36" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="37" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="D37" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="E37">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F37" t="s">
-        <v>329</v>
+        <v>420</v>
       </c>
       <c r="G37" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="H37" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="I37" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="J37" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="K37" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="L37" t="s">
         <v>248</v>
       </c>
       <c r="M37" t="s">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="N37" t="s">
         <v>251</v>
@@ -9234,25 +9255,25 @@
         <v>21</v>
       </c>
       <c r="S37" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="T37" t="s">
         <v>46</v>
       </c>
       <c r="U37" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="W37" t="s">
         <v>55</v>
       </c>
       <c r="X37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Z37" t="s">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AA37">
         <v>2</v>
@@ -9261,10 +9282,13 @@
         <v>2</v>
       </c>
       <c r="AC37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD37" s="12" t="s">
-        <v>444</v>
+        <v>427</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>432</v>
       </c>
       <c r="AF37">
         <v>4.4000000000000004</v>
@@ -9273,16 +9297,16 @@
         <v>110</v>
       </c>
       <c r="AH37" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>144</v>
+        <v>220</v>
+      </c>
+      <c r="AL37" t="s">
+        <v>429</v>
       </c>
       <c r="AM37" t="s">
         <v>232</v>
       </c>
       <c r="AN37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AO37" t="s">
         <v>272</v>
@@ -9291,60 +9315,57 @@
         <v>164</v>
       </c>
       <c r="AT37" t="s">
-        <v>404</v>
-      </c>
-      <c r="AU37" t="s">
-        <v>445</v>
+        <v>403</v>
       </c>
       <c r="AV37" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AW37" t="s">
         <v>208</v>
       </c>
       <c r="AX37" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
     </row>
-    <row r="38" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C38" t="s">
+        <v>434</v>
+      </c>
+      <c r="D38" t="s">
         <v>435</v>
-      </c>
-      <c r="D38" t="s">
-        <v>436</v>
       </c>
       <c r="E38">
         <v>2013</v>
       </c>
       <c r="F38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G38" t="s">
+        <v>436</v>
+      </c>
+      <c r="H38" t="s">
         <v>437</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>438</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>439</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>440</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
+        <v>248</v>
+      </c>
+      <c r="M38" t="s">
         <v>441</v>
-      </c>
-      <c r="L38" t="s">
-        <v>248</v>
-      </c>
-      <c r="M38" t="s">
-        <v>442</v>
       </c>
       <c r="N38" t="s">
         <v>251</v>
@@ -9377,7 +9398,7 @@
         <v>215</v>
       </c>
       <c r="Z38" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AA38">
         <v>2</v>
@@ -9389,7 +9410,7 @@
         <v>3</v>
       </c>
       <c r="AD38" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AF38">
         <v>4.4000000000000004</v>
@@ -9401,7 +9422,7 @@
         <v>117</v>
       </c>
       <c r="AI38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="AM38" t="s">
         <v>232</v>
@@ -9416,10 +9437,10 @@
         <v>164</v>
       </c>
       <c r="AT38" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AU38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AV38" t="s">
         <v>205</v>
@@ -9428,48 +9449,48 @@
         <v>208</v>
       </c>
       <c r="AX38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C39" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D39" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="E39">
         <v>2013</v>
       </c>
       <c r="F39" t="s">
-        <v>450</v>
+        <v>328</v>
       </c>
       <c r="G39" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="H39" t="s">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="I39" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="J39" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="K39" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="L39" t="s">
         <v>248</v>
       </c>
       <c r="M39" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="N39" t="s">
         <v>251</v>
@@ -9484,16 +9505,16 @@
         <v>21</v>
       </c>
       <c r="S39" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="T39" t="s">
+        <v>46</v>
+      </c>
+      <c r="U39" t="s">
+        <v>58</v>
+      </c>
+      <c r="V39" t="s">
         <v>45</v>
-      </c>
-      <c r="U39" t="s">
-        <v>57</v>
-      </c>
-      <c r="V39" t="s">
-        <v>41</v>
       </c>
       <c r="W39" t="s">
         <v>55</v>
@@ -9501,11 +9522,8 @@
       <c r="X39" t="s">
         <v>215</v>
       </c>
-      <c r="Y39" t="s">
-        <v>455</v>
-      </c>
       <c r="Z39" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="AA39">
         <v>2</v>
@@ -9516,11 +9534,8 @@
       <c r="AC39">
         <v>3</v>
       </c>
-      <c r="AD39" t="s">
-        <v>457</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>458</v>
+      <c r="AD39" s="12" t="s">
+        <v>443</v>
       </c>
       <c r="AF39">
         <v>4.4000000000000004</v>
@@ -9532,13 +9547,7 @@
         <v>117</v>
       </c>
       <c r="AI39" t="s">
-        <v>130</v>
-      </c>
-      <c r="AK39" t="s">
-        <v>150</v>
-      </c>
-      <c r="AL39" t="s">
-        <v>595</v>
+        <v>147</v>
       </c>
       <c r="AM39" t="s">
         <v>232</v>
@@ -9552,67 +9561,61 @@
       <c r="AQ39" t="s">
         <v>164</v>
       </c>
-      <c r="AR39" t="s">
-        <v>170</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>188</v>
-      </c>
       <c r="AT39" t="s">
-        <v>459</v>
+        <v>403</v>
       </c>
       <c r="AU39" t="s">
-        <v>259</v>
+        <v>444</v>
       </c>
       <c r="AV39" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="AW39" t="s">
         <v>208</v>
       </c>
       <c r="AX39" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C40" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="D40" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="E40">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>449</v>
       </c>
       <c r="G40" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="H40" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="I40" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="J40" t="s">
-        <v>466</v>
+        <v>384</v>
       </c>
       <c r="K40" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="L40" t="s">
         <v>248</v>
       </c>
       <c r="M40" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="N40" t="s">
         <v>251</v>
@@ -9627,28 +9630,28 @@
         <v>21</v>
       </c>
       <c r="S40" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="T40" t="s">
+        <v>45</v>
+      </c>
+      <c r="U40" t="s">
+        <v>57</v>
+      </c>
+      <c r="V40" t="s">
         <v>41</v>
       </c>
-      <c r="U40" t="s">
-        <v>56</v>
-      </c>
-      <c r="V40" t="s">
-        <v>42</v>
-      </c>
       <c r="W40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="X40" t="s">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="Y40" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="Z40" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="AA40">
         <v>2</v>
@@ -9657,25 +9660,31 @@
         <v>2</v>
       </c>
       <c r="AC40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD40" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="AE40" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="AF40">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH40" t="s">
         <v>117</v>
       </c>
+      <c r="AI40" t="s">
+        <v>130</v>
+      </c>
+      <c r="AK40" t="s">
+        <v>150</v>
+      </c>
       <c r="AL40" t="s">
-        <v>473</v>
+        <v>593</v>
       </c>
       <c r="AM40" t="s">
         <v>232</v>
@@ -9687,63 +9696,69 @@
         <v>272</v>
       </c>
       <c r="AQ40" t="s">
-        <v>617</v>
+        <v>164</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>188</v>
       </c>
       <c r="AT40" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="AU40" t="s">
-        <v>475</v>
+        <v>259</v>
       </c>
       <c r="AV40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AW40" t="s">
         <v>208</v>
       </c>
       <c r="AX40" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
-    <row r="41" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C41" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="D41" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F41" t="s">
-        <v>480</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="H41" t="s">
-        <v>482</v>
+        <v>248</v>
       </c>
       <c r="I41" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="J41" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="K41" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="L41" t="s">
         <v>248</v>
       </c>
       <c r="M41" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="N41" t="s">
         <v>251</v>
@@ -9758,123 +9773,123 @@
         <v>21</v>
       </c>
       <c r="S41" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="T41" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V41" t="s">
         <v>42</v>
       </c>
       <c r="W41" t="s">
-        <v>214</v>
+        <v>50</v>
       </c>
       <c r="X41" t="s">
-        <v>216</v>
+        <v>69</v>
       </c>
       <c r="Y41" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="Z41" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="AA41">
         <v>2</v>
       </c>
       <c r="AB41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC41">
         <v>2</v>
       </c>
-      <c r="AD41" s="12" t="s">
-        <v>487</v>
+      <c r="AD41" t="s">
+        <v>468</v>
       </c>
       <c r="AE41" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AF41">
         <v>4.4000000000000004</v>
       </c>
       <c r="AG41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH41" t="s">
         <v>117</v>
       </c>
-      <c r="AK41" t="s">
-        <v>150</v>
-      </c>
       <c r="AL41" t="s">
-        <v>596</v>
+        <v>472</v>
       </c>
       <c r="AM41" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="AN41" t="s">
+        <v>160</v>
       </c>
       <c r="AO41" t="s">
-        <v>491</v>
+        <v>272</v>
       </c>
       <c r="AQ41" t="s">
-        <v>164</v>
-      </c>
-      <c r="AR41" t="s">
-        <v>239</v>
+        <v>615</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>473</v>
       </c>
       <c r="AU41" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="AV41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AW41" t="s">
         <v>208</v>
       </c>
       <c r="AX41" t="s">
-        <v>493</v>
+        <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C42" t="s">
+        <v>477</v>
+      </c>
+      <c r="D42" t="s">
         <v>478</v>
-      </c>
-      <c r="D42" t="s">
-        <v>479</v>
       </c>
       <c r="E42">
         <v>2011</v>
       </c>
       <c r="F42" t="s">
+        <v>479</v>
+      </c>
+      <c r="G42" t="s">
         <v>480</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>481</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>482</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>483</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>484</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
+        <v>248</v>
+      </c>
+      <c r="M42" t="s">
         <v>485</v>
-      </c>
-      <c r="L42" t="s">
-        <v>248</v>
-      </c>
-      <c r="M42" t="s">
-        <v>486</v>
       </c>
       <c r="N42" t="s">
         <v>251</v>
@@ -9907,10 +9922,10 @@
         <v>216</v>
       </c>
       <c r="Y42" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z42" t="s">
         <v>488</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>489</v>
       </c>
       <c r="AA42">
         <v>2</v>
@@ -9922,10 +9937,10 @@
         <v>2</v>
       </c>
       <c r="AD42" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AE42" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF42">
         <v>4.4000000000000004</v>
@@ -9940,13 +9955,13 @@
         <v>150</v>
       </c>
       <c r="AL42" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="AM42" t="s">
         <v>233</v>
       </c>
       <c r="AO42" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AQ42" t="s">
         <v>164</v>
@@ -9955,57 +9970,57 @@
         <v>239</v>
       </c>
       <c r="AU42" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AV42" t="s">
         <v>199</v>
       </c>
       <c r="AW42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AX42" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="43" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C43" t="s">
+        <v>477</v>
+      </c>
+      <c r="D43" t="s">
         <v>478</v>
-      </c>
-      <c r="D43" t="s">
-        <v>479</v>
       </c>
       <c r="E43">
         <v>2011</v>
       </c>
       <c r="F43" t="s">
+        <v>479</v>
+      </c>
+      <c r="G43" t="s">
         <v>480</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>481</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>482</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>483</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>484</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
+        <v>248</v>
+      </c>
+      <c r="M43" t="s">
         <v>485</v>
-      </c>
-      <c r="L43" t="s">
-        <v>248</v>
-      </c>
-      <c r="M43" t="s">
-        <v>486</v>
       </c>
       <c r="N43" t="s">
         <v>251</v>
@@ -10038,10 +10053,10 @@
         <v>216</v>
       </c>
       <c r="Y43" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z43" t="s">
         <v>488</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>489</v>
       </c>
       <c r="AA43">
         <v>2</v>
@@ -10053,10 +10068,10 @@
         <v>2</v>
       </c>
       <c r="AD43" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="AE43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AF43">
         <v>4.4000000000000004</v>
@@ -10071,13 +10086,13 @@
         <v>150</v>
       </c>
       <c r="AL43" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AM43" t="s">
         <v>233</v>
       </c>
       <c r="AO43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AQ43" t="s">
         <v>164</v>
@@ -10086,7 +10101,7 @@
         <v>239</v>
       </c>
       <c r="AU43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AV43" t="s">
         <v>199</v>
@@ -10095,48 +10110,48 @@
         <v>210</v>
       </c>
       <c r="AX43" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="D44" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="E44">
         <v>2011</v>
       </c>
       <c r="F44" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="G44" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="H44" t="s">
-        <v>366</v>
+        <v>481</v>
       </c>
       <c r="I44" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="J44" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="K44" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="L44" t="s">
         <v>248</v>
       </c>
       <c r="M44" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="N44" t="s">
         <v>251</v>
@@ -10150,52 +10165,124 @@
       <c r="Q44" t="s">
         <v>21</v>
       </c>
-      <c r="R44" t="s">
-        <v>84</v>
+      <c r="S44" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" t="s">
+        <v>45</v>
+      </c>
+      <c r="U44" t="s">
+        <v>58</v>
+      </c>
+      <c r="V44" t="s">
+        <v>42</v>
+      </c>
+      <c r="W44" t="s">
+        <v>214</v>
+      </c>
+      <c r="X44" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>487</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA44">
+        <v>2</v>
+      </c>
+      <c r="AB44">
+        <v>1</v>
+      </c>
+      <c r="AC44">
+        <v>2</v>
+      </c>
+      <c r="AD44" s="12" t="s">
+        <v>486</v>
       </c>
       <c r="AE44" t="s">
-        <v>505</v>
+        <v>489</v>
+      </c>
+      <c r="AF44">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL44" t="s">
+        <v>596</v>
+      </c>
+      <c r="AM44" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO44" t="s">
+        <v>490</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>239</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>491</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW44" t="s">
+        <v>210</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>494</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C45" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D45" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="E45">
         <v>2011</v>
       </c>
       <c r="F45" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="G45" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="H45" t="s">
-        <v>511</v>
+        <v>365</v>
       </c>
       <c r="I45" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="J45" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="K45" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="L45" t="s">
         <v>248</v>
       </c>
       <c r="M45" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="N45" t="s">
         <v>251</v>
@@ -10213,54 +10300,54 @@
         <v>84</v>
       </c>
       <c r="AE45" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="D46" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="E46">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="F46" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="G46" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="H46" t="s">
+        <v>510</v>
+      </c>
+      <c r="I46" t="s">
         <v>511</v>
       </c>
-      <c r="I46" t="s">
-        <v>523</v>
-      </c>
       <c r="J46" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="K46" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="L46" t="s">
         <v>248</v>
       </c>
       <c r="M46" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="N46" t="s">
         <v>251</v>
       </c>
       <c r="O46" t="s">
-        <v>527</v>
+        <v>252</v>
       </c>
       <c r="P46" t="s">
         <v>248</v>
@@ -10269,57 +10356,57 @@
         <v>21</v>
       </c>
       <c r="R46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AE46" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
     </row>
-    <row r="47" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C47" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="D47" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="E47">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F47" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="G47" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="H47" t="s">
-        <v>279</v>
+        <v>510</v>
       </c>
       <c r="I47" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="J47" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="K47" t="s">
-        <v>248</v>
+        <v>524</v>
       </c>
       <c r="L47" t="s">
         <v>248</v>
       </c>
       <c r="M47" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="N47" t="s">
         <v>251</v>
       </c>
       <c r="O47" t="s">
-        <v>252</v>
+        <v>526</v>
       </c>
       <c r="P47" t="s">
         <v>248</v>
@@ -10327,115 +10414,43 @@
       <c r="Q47" t="s">
         <v>21</v>
       </c>
-      <c r="S47" t="s">
-        <v>26</v>
-      </c>
-      <c r="T47" t="s">
-        <v>41</v>
-      </c>
-      <c r="U47" t="s">
-        <v>51</v>
-      </c>
-      <c r="V47" t="s">
-        <v>44</v>
-      </c>
-      <c r="W47" t="s">
-        <v>214</v>
-      </c>
-      <c r="X47" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>538</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>537</v>
-      </c>
-      <c r="AA47">
-        <v>2</v>
-      </c>
-      <c r="AB47">
-        <v>1</v>
-      </c>
-      <c r="AC47">
-        <v>2</v>
-      </c>
-      <c r="AD47" s="12" t="s">
-        <v>539</v>
+      <c r="R47" t="s">
+        <v>85</v>
       </c>
       <c r="AE47" t="s">
-        <v>540</v>
-      </c>
-      <c r="AF47" t="s">
-        <v>516</v>
-      </c>
-      <c r="AG47" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH47" t="s">
-        <v>124</v>
-      </c>
-      <c r="AK47" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL47" t="s">
-        <v>541</v>
-      </c>
-      <c r="AM47" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO47" t="s">
-        <v>272</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>164</v>
-      </c>
-      <c r="AT47" t="s">
-        <v>542</v>
-      </c>
-      <c r="AU47" t="s">
-        <v>543</v>
-      </c>
-      <c r="AV47" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW47" t="s">
-        <v>208</v>
-      </c>
-      <c r="AX47" t="s">
-        <v>544</v>
+        <v>527</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>566</v>
+        <v>528</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C48" t="s">
-        <v>567</v>
+        <v>529</v>
       </c>
       <c r="D48" t="s">
-        <v>568</v>
+        <v>530</v>
       </c>
       <c r="E48">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="F48" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="G48" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="H48" t="s">
-        <v>511</v>
+        <v>279</v>
       </c>
       <c r="I48" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="J48" t="s">
-        <v>572</v>
+        <v>534</v>
       </c>
       <c r="K48" t="s">
         <v>248</v>
@@ -10444,7 +10459,7 @@
         <v>248</v>
       </c>
       <c r="M48" t="s">
-        <v>573</v>
+        <v>535</v>
       </c>
       <c r="N48" t="s">
         <v>251</v>
@@ -10462,120 +10477,120 @@
         <v>26</v>
       </c>
       <c r="T48" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="V48" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W48" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="X48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Y48" t="s">
-        <v>591</v>
+        <v>537</v>
       </c>
       <c r="Z48" t="s">
-        <v>592</v>
+        <v>536</v>
       </c>
       <c r="AA48">
         <v>2</v>
       </c>
       <c r="AB48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC48">
         <v>2</v>
       </c>
-      <c r="AD48" t="s">
-        <v>593</v>
-      </c>
-      <c r="AF48">
-        <v>4.4000000000000004</v>
+      <c r="AD48" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>539</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>515</v>
       </c>
       <c r="AG48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AH48" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI48" t="s">
-        <v>144</v>
+        <v>124</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>141</v>
       </c>
       <c r="AL48" t="s">
-        <v>630</v>
+        <v>540</v>
       </c>
       <c r="AM48" t="s">
-        <v>232</v>
-      </c>
-      <c r="AN48" t="s">
-        <v>160</v>
+        <v>233</v>
       </c>
       <c r="AO48" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="AQ48" t="s">
         <v>164</v>
       </c>
       <c r="AT48" t="s">
-        <v>258</v>
+        <v>541</v>
       </c>
       <c r="AU48" t="s">
-        <v>633</v>
+        <v>542</v>
       </c>
       <c r="AV48" t="s">
         <v>199</v>
       </c>
       <c r="AW48" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AX48" t="s">
-        <v>636</v>
+        <v>543</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C49" t="s">
+        <v>566</v>
+      </c>
+      <c r="D49" t="s">
         <v>567</v>
-      </c>
-      <c r="D49" t="s">
-        <v>568</v>
       </c>
       <c r="E49">
         <v>1998</v>
       </c>
       <c r="F49" t="s">
+        <v>568</v>
+      </c>
+      <c r="G49" t="s">
         <v>569</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
+        <v>510</v>
+      </c>
+      <c r="I49" t="s">
         <v>570</v>
       </c>
-      <c r="H49" t="s">
-        <v>511</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="J49" t="s">
         <v>571</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
+        <v>248</v>
+      </c>
+      <c r="L49" t="s">
+        <v>248</v>
+      </c>
+      <c r="M49" t="s">
         <v>572</v>
-      </c>
-      <c r="K49" t="s">
-        <v>248</v>
-      </c>
-      <c r="L49" t="s">
-        <v>248</v>
-      </c>
-      <c r="M49" t="s">
-        <v>573</v>
       </c>
       <c r="N49" t="s">
         <v>251</v>
@@ -10608,10 +10623,10 @@
         <v>215</v>
       </c>
       <c r="Y49" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z49" t="s">
         <v>591</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>592</v>
       </c>
       <c r="AA49">
         <v>2</v>
@@ -10623,7 +10638,7 @@
         <v>2</v>
       </c>
       <c r="AD49" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF49">
         <v>4.4000000000000004</v>
@@ -10632,16 +10647,13 @@
         <v>110</v>
       </c>
       <c r="AH49" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AI49" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK49" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="AL49" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AM49" t="s">
         <v>232</v>
@@ -10659,7 +10671,7 @@
         <v>258</v>
       </c>
       <c r="AU49" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AV49" t="s">
         <v>199</v>
@@ -10668,48 +10680,48 @@
         <v>207</v>
       </c>
       <c r="AX49" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
+        <v>566</v>
+      </c>
+      <c r="D50" t="s">
         <v>567</v>
-      </c>
-      <c r="D50" t="s">
-        <v>568</v>
       </c>
       <c r="E50">
         <v>1998</v>
       </c>
       <c r="F50" t="s">
+        <v>568</v>
+      </c>
+      <c r="G50" t="s">
         <v>569</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
+        <v>510</v>
+      </c>
+      <c r="I50" t="s">
         <v>570</v>
       </c>
-      <c r="H50" t="s">
-        <v>511</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="J50" t="s">
         <v>571</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
+        <v>248</v>
+      </c>
+      <c r="L50" t="s">
+        <v>248</v>
+      </c>
+      <c r="M50" t="s">
         <v>572</v>
-      </c>
-      <c r="K50" t="s">
-        <v>248</v>
-      </c>
-      <c r="L50" t="s">
-        <v>248</v>
-      </c>
-      <c r="M50" t="s">
-        <v>573</v>
       </c>
       <c r="N50" t="s">
         <v>251</v>
@@ -10742,10 +10754,10 @@
         <v>215</v>
       </c>
       <c r="Y50" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z50" t="s">
         <v>591</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>592</v>
       </c>
       <c r="AA50">
         <v>2</v>
@@ -10757,7 +10769,7 @@
         <v>2</v>
       </c>
       <c r="AD50" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF50">
         <v>4.4000000000000004</v>
@@ -10766,10 +10778,16 @@
         <v>110</v>
       </c>
       <c r="AH50" t="s">
-        <v>117</v>
+        <v>120</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK50" t="s">
+        <v>148</v>
       </c>
       <c r="AL50" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="AM50" t="s">
         <v>232</v>
@@ -10787,57 +10805,57 @@
         <v>258</v>
       </c>
       <c r="AU50" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="AV50" t="s">
         <v>199</v>
       </c>
       <c r="AW50" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AX50" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C51" t="s">
+        <v>566</v>
+      </c>
+      <c r="D51" t="s">
         <v>567</v>
-      </c>
-      <c r="D51" t="s">
-        <v>568</v>
       </c>
       <c r="E51">
         <v>1998</v>
       </c>
       <c r="F51" t="s">
+        <v>568</v>
+      </c>
+      <c r="G51" t="s">
         <v>569</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
+        <v>510</v>
+      </c>
+      <c r="I51" t="s">
         <v>570</v>
       </c>
-      <c r="H51" t="s">
-        <v>511</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="J51" t="s">
         <v>571</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
+        <v>248</v>
+      </c>
+      <c r="L51" t="s">
+        <v>248</v>
+      </c>
+      <c r="M51" t="s">
         <v>572</v>
-      </c>
-      <c r="K51" t="s">
-        <v>248</v>
-      </c>
-      <c r="L51" t="s">
-        <v>248</v>
-      </c>
-      <c r="M51" t="s">
-        <v>573</v>
       </c>
       <c r="N51" t="s">
         <v>251</v>
@@ -10870,10 +10888,10 @@
         <v>215</v>
       </c>
       <c r="Y51" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z51" t="s">
         <v>591</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>592</v>
       </c>
       <c r="AA51">
         <v>2</v>
@@ -10885,7 +10903,7 @@
         <v>2</v>
       </c>
       <c r="AD51" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF51">
         <v>4.4000000000000004</v>
@@ -10897,7 +10915,7 @@
         <v>117</v>
       </c>
       <c r="AL51" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="AM51" t="s">
         <v>232</v>
@@ -10915,57 +10933,57 @@
         <v>258</v>
       </c>
       <c r="AU51" t="s">
+        <v>631</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW51" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX51" t="s">
         <v>635</v>
       </c>
-      <c r="AV51" t="s">
-        <v>200</v>
-      </c>
-      <c r="AW51" t="s">
-        <v>209</v>
-      </c>
-      <c r="AX51" t="s">
-        <v>636</v>
-      </c>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C52" t="s">
+        <v>566</v>
+      </c>
+      <c r="D52" t="s">
         <v>567</v>
-      </c>
-      <c r="D52" t="s">
-        <v>568</v>
       </c>
       <c r="E52">
         <v>1998</v>
       </c>
       <c r="F52" t="s">
+        <v>568</v>
+      </c>
+      <c r="G52" t="s">
         <v>569</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
+        <v>510</v>
+      </c>
+      <c r="I52" t="s">
         <v>570</v>
       </c>
-      <c r="H52" t="s">
-        <v>511</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>571</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
+        <v>248</v>
+      </c>
+      <c r="L52" t="s">
+        <v>248</v>
+      </c>
+      <c r="M52" t="s">
         <v>572</v>
-      </c>
-      <c r="K52" t="s">
-        <v>248</v>
-      </c>
-      <c r="L52" t="s">
-        <v>248</v>
-      </c>
-      <c r="M52" t="s">
-        <v>573</v>
       </c>
       <c r="N52" t="s">
         <v>251</v>
@@ -10998,10 +11016,10 @@
         <v>215</v>
       </c>
       <c r="Y52" t="s">
+        <v>590</v>
+      </c>
+      <c r="Z52" t="s">
         <v>591</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>592</v>
       </c>
       <c r="AA52">
         <v>2</v>
@@ -11013,7 +11031,7 @@
         <v>2</v>
       </c>
       <c r="AD52" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="AF52">
         <v>4.4000000000000004</v>
@@ -11022,10 +11040,10 @@
         <v>110</v>
       </c>
       <c r="AH52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL52" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM52" t="s">
         <v>232</v>
@@ -11046,54 +11064,54 @@
         <v>633</v>
       </c>
       <c r="AV52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AW52" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AX52" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
-    <row r="53" spans="1:50" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>574</v>
-      </c>
-      <c r="B53" t="s">
+        <v>565</v>
+      </c>
+      <c r="B53" s="11" t="s">
         <v>243</v>
       </c>
       <c r="C53" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="D53" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="E53">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="F53" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G53" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="H53" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="I53" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="J53" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="K53" t="s">
-        <v>581</v>
+        <v>248</v>
       </c>
       <c r="L53" t="s">
         <v>248</v>
       </c>
       <c r="M53" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="N53" t="s">
         <v>251</v>
@@ -11102,13 +11120,13 @@
         <v>252</v>
       </c>
       <c r="P53" t="s">
-        <v>583</v>
+        <v>248</v>
       </c>
       <c r="Q53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="T53" t="s">
         <v>46</v>
@@ -11117,7 +11135,7 @@
         <v>59</v>
       </c>
       <c r="V53" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="W53" t="s">
         <v>55</v>
@@ -11126,10 +11144,10 @@
         <v>215</v>
       </c>
       <c r="Y53" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="Z53" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="AA53">
         <v>2</v>
@@ -11140,11 +11158,8 @@
       <c r="AC53">
         <v>2</v>
       </c>
-      <c r="AD53" s="12" t="s">
-        <v>587</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>586</v>
+      <c r="AD53" t="s">
+        <v>592</v>
       </c>
       <c r="AF53">
         <v>4.4000000000000004</v>
@@ -11153,57 +11168,188 @@
         <v>110</v>
       </c>
       <c r="AH53" t="s">
-        <v>117</v>
-      </c>
-      <c r="AI53" t="s">
-        <v>138</v>
-      </c>
-      <c r="AK53" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="AL53" t="s">
-        <v>599</v>
+        <v>629</v>
       </c>
       <c r="AM53" t="s">
         <v>232</v>
       </c>
       <c r="AN53" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AO53" t="s">
         <v>257</v>
       </c>
-      <c r="AP53" t="s">
-        <v>588</v>
-      </c>
       <c r="AQ53" t="s">
         <v>164</v>
       </c>
-      <c r="AR53" t="s">
-        <v>239</v>
-      </c>
-      <c r="AS53" t="s">
-        <v>175</v>
-      </c>
       <c r="AT53" t="s">
-        <v>589</v>
+        <v>258</v>
       </c>
       <c r="AU53" t="s">
-        <v>259</v>
+        <v>631</v>
       </c>
       <c r="AV53" t="s">
         <v>199</v>
       </c>
       <c r="AW53" t="s">
+        <v>208</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>573</v>
+      </c>
+      <c r="B54" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" t="s">
+        <v>574</v>
+      </c>
+      <c r="D54" t="s">
+        <v>575</v>
+      </c>
+      <c r="E54">
+        <v>2002</v>
+      </c>
+      <c r="F54" t="s">
+        <v>576</v>
+      </c>
+      <c r="G54" t="s">
+        <v>577</v>
+      </c>
+      <c r="H54" t="s">
+        <v>481</v>
+      </c>
+      <c r="I54" t="s">
+        <v>578</v>
+      </c>
+      <c r="J54" t="s">
+        <v>579</v>
+      </c>
+      <c r="K54" t="s">
+        <v>580</v>
+      </c>
+      <c r="L54" t="s">
+        <v>248</v>
+      </c>
+      <c r="M54" t="s">
+        <v>581</v>
+      </c>
+      <c r="N54" t="s">
+        <v>251</v>
+      </c>
+      <c r="O54" t="s">
+        <v>252</v>
+      </c>
+      <c r="P54" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>22</v>
+      </c>
+      <c r="S54" t="s">
+        <v>24</v>
+      </c>
+      <c r="T54" t="s">
+        <v>46</v>
+      </c>
+      <c r="U54" t="s">
+        <v>59</v>
+      </c>
+      <c r="V54" t="s">
+        <v>46</v>
+      </c>
+      <c r="W54" t="s">
+        <v>55</v>
+      </c>
+      <c r="X54" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>583</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA54">
+        <v>2</v>
+      </c>
+      <c r="AB54">
+        <v>2</v>
+      </c>
+      <c r="AC54">
+        <v>2</v>
+      </c>
+      <c r="AD54" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>585</v>
+      </c>
+      <c r="AF54">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AG54" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK54" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL54" t="s">
+        <v>597</v>
+      </c>
+      <c r="AM54" t="s">
+        <v>232</v>
+      </c>
+      <c r="AN54" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO54" t="s">
+        <v>257</v>
+      </c>
+      <c r="AP54" t="s">
+        <v>587</v>
+      </c>
+      <c r="AQ54" t="s">
+        <v>164</v>
+      </c>
+      <c r="AR54" t="s">
+        <v>239</v>
+      </c>
+      <c r="AS54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>588</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>259</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>199</v>
+      </c>
+      <c r="AW54" t="s">
         <v>207</v>
       </c>
-      <c r="AX53" t="s">
-        <v>590</v>
+      <c r="AX54" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AX52">
-    <sortCondition ref="A6:A52"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:AX53">
+    <sortCondition ref="A6:A53"/>
   </sortState>
   <mergeCells count="7">
     <mergeCell ref="AQ1:AT1"/>
@@ -11215,14 +11361,14 @@
     <mergeCell ref="AM1:AP1"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="Q3:Q11 P12:P1048576" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="P12:P1048576 Q3:Q11" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ecosystem_component</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>Fishery_type</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AI3:AJ1048576 AN3:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR3:AS1048576 AN3:AN1048576 AI3:AJ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT(AH3)</formula1>
     </dataValidation>
   </dataValidations>
@@ -11242,7 +11388,7 @@
           <x14:formula1>
             <xm:f>Validation!$R$3:$R$9</xm:f>
           </x14:formula1>
-          <xm:sqref>R3:R1048576 AF47</xm:sqref>
+          <xm:sqref>AF48 R3:R1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
@@ -11332,21 +11478,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AY38"/>
   <sheetViews>
-    <sheetView topLeftCell="AB2" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+    <sheetView topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:AG2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="19" width="32.109375" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.08984375" customWidth="1"/>
+    <col min="23" max="23" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="25" customWidth="1"/>
-    <col min="32" max="32" width="14.6640625" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" customWidth="1"/>
+    <col min="32" max="32" width="14.6328125" customWidth="1"/>
+    <col min="33" max="33" width="26.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
@@ -11412,7 +11558,7 @@
       <c r="AW1" s="9"/>
       <c r="AX1" s="9"/>
     </row>
-    <row r="2" spans="1:50" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -11564,7 +11710,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q3" t="s">
         <v>21</v>
       </c>
@@ -11621,7 +11767,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="Q4" t="s">
         <v>22</v>
       </c>
@@ -11678,7 +11824,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R5" t="s">
         <v>83</v>
       </c>
@@ -11734,7 +11880,7 @@
       </c>
       <c r="AX5" s="8"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
         <v>84</v>
       </c>
@@ -11779,7 +11925,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R7" t="s">
         <v>85</v>
       </c>
@@ -11821,7 +11967,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R8" t="s">
         <v>86</v>
       </c>
@@ -11859,7 +12005,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R9" t="s">
         <v>87</v>
       </c>
@@ -11894,7 +12040,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S10" t="s">
         <v>33</v>
       </c>
@@ -11926,7 +12072,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S11" t="s">
         <v>32</v>
       </c>
@@ -11961,7 +12107,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S12" t="s">
         <v>30</v>
       </c>
@@ -11993,7 +12139,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S13" t="s">
         <v>79</v>
       </c>
@@ -12028,7 +12174,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S14" t="s">
         <v>31</v>
       </c>
@@ -12057,7 +12203,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S15" t="s">
         <v>35</v>
       </c>
@@ -12086,7 +12232,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="S16" t="s">
         <v>34</v>
       </c>
@@ -12106,7 +12252,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="17" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AM17" t="s">
         <v>162</v>
       </c>
@@ -12114,22 +12260,22 @@
         <v>171</v>
       </c>
     </row>
-    <row r="18" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="18" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="19" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ19" s="7" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="22" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH22" s="5" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="23" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH23" s="6" t="s">
         <v>115</v>
       </c>
@@ -12164,7 +12310,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="24" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH24" t="s">
         <v>129</v>
       </c>
@@ -12190,7 +12336,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="25" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="25" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH25" t="s">
         <v>137</v>
       </c>
@@ -12213,7 +12359,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="26" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="26" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ26" t="s">
         <v>144</v>
       </c>
@@ -12224,7 +12370,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="27" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ27" t="s">
         <v>147</v>
       </c>
@@ -12235,7 +12381,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="28" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AJ28" t="s">
         <v>149</v>
       </c>
@@ -12243,12 +12389,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="29" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AQ29" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="30" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH30" s="5" t="s">
         <v>151</v>
       </c>
@@ -12271,7 +12417,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="31" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="31" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH31" s="6" t="s">
         <v>129</v>
       </c>
@@ -12297,7 +12443,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="34:48" x14ac:dyDescent="0.3">
+    <row r="32" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH32" t="s">
         <v>153</v>
       </c>
@@ -12323,7 +12469,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -12343,7 +12489,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -12358,7 +12504,7 @@
       </c>
       <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -12372,7 +12518,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -12380,10 +12526,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.3">
+    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -12411,38 +12557,38 @@
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.33203125" customWidth="1"/>
-    <col min="10" max="10" width="14.77734375" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" customWidth="1"/>
+    <col min="9" max="9" width="17.36328125" customWidth="1"/>
+    <col min="10" max="10" width="14.81640625" customWidth="1"/>
+    <col min="13" max="13" width="14.453125" customWidth="1"/>
     <col min="15" max="15" width="25" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.88671875" customWidth="1"/>
-    <col min="19" max="19" width="17.77734375" customWidth="1"/>
-    <col min="20" max="20" width="19.33203125" customWidth="1"/>
-    <col min="21" max="21" width="17.77734375" customWidth="1"/>
-    <col min="22" max="22" width="18.6640625" customWidth="1"/>
-    <col min="26" max="26" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.54296875" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.90625" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="19.36328125" customWidth="1"/>
+    <col min="21" max="21" width="17.81640625" customWidth="1"/>
+    <col min="22" max="22" width="18.6328125" customWidth="1"/>
+    <col min="26" max="26" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="15.21875" customWidth="1"/>
-    <col min="31" max="31" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.77734375" customWidth="1"/>
-    <col min="33" max="33" width="12.5546875" customWidth="1"/>
+    <col min="28" max="28" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" customWidth="1"/>
+    <col min="30" max="30" width="15.1796875" customWidth="1"/>
+    <col min="31" max="31" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" customWidth="1"/>
+    <col min="33" max="33" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
@@ -12489,7 +12635,7 @@
       <c r="AF1" s="19"/>
       <c r="AG1" s="19"/>
     </row>
-    <row r="2" spans="1:33" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
@@ -12590,7 +12736,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -12656,7 +12802,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -12707,7 +12853,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>83</v>
       </c>
@@ -12761,7 +12907,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -12803,7 +12949,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -12848,7 +12994,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>86</v>
       </c>
@@ -12886,7 +13032,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -12924,7 +13070,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>33</v>
       </c>
@@ -12959,7 +13105,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -12991,7 +13137,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>30</v>
       </c>
@@ -13023,7 +13169,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
         <v>79</v>
       </c>
@@ -13052,7 +13198,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B14" t="s">
         <v>31</v>
       </c>
@@ -13075,7 +13221,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>35</v>
       </c>
@@ -13101,7 +13247,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>34</v>
       </c>
@@ -13118,7 +13264,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q17" t="s">
         <v>119</v>
       </c>
@@ -13129,7 +13275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q18" t="s">
         <v>120</v>
       </c>
@@ -13143,7 +13289,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R19" t="s">
         <v>152</v>
       </c>
@@ -13157,7 +13303,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S20" t="s">
         <v>156</v>
       </c>
@@ -13168,7 +13314,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S21" t="s">
         <v>228</v>
       </c>
@@ -13182,7 +13328,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:28" x14ac:dyDescent="0.35">
       <c r="S22" t="s">
         <v>113</v>
       </c>
@@ -13193,7 +13339,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q23" t="s">
         <v>127</v>
       </c>
@@ -13204,7 +13350,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R24" t="s">
         <v>141</v>
       </c>
@@ -13212,7 +13358,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="25" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R25" t="s">
         <v>146</v>
       </c>
@@ -13220,7 +13366,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="26" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R26" t="s">
         <v>148</v>
       </c>
@@ -13228,7 +13374,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R27" t="s">
         <v>150</v>
       </c>
@@ -13242,7 +13388,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q28" t="s">
         <v>122</v>
       </c>
@@ -13253,7 +13399,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R29" t="s">
         <v>142</v>
       </c>
@@ -13264,7 +13410,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="30" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q30" t="s">
         <v>123</v>
       </c>
@@ -13275,7 +13421,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="31" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="17:28" x14ac:dyDescent="0.35">
       <c r="R31" t="s">
         <v>143</v>
       </c>
@@ -13283,7 +13429,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="32" spans="17:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:28" x14ac:dyDescent="0.35">
       <c r="Q32" t="s">
         <v>128</v>
       </c>
@@ -13291,12 +13437,12 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z33" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="26:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:26" x14ac:dyDescent="0.35">
       <c r="Z34" t="s">
         <v>150</v>
       </c>
@@ -13316,21 +13462,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -13444,17 +13575,33 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13468,17 +13615,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/estb_dtu_dk/Documents/Projects/SEAwise/SEAwise GitHub/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{C49FC541-BA9D-4D5E-8D96-2C0C7E18968F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F2EEDFC-ABC4-48E0-9955-0C18358463CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345CFFB0-4185-4334-9C05-64DB5CAD9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{71F3BC60-E1CA-45D9-91CF-C0CC18C54D03}">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{B8183FC1-67C0-4F55-812F-804973C200EE}">
       <text>
         <r>
           <rPr>
@@ -365,7 +365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{1CF28140-118D-40ED-BED2-A2D958C89BA0}">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{84ED1AB3-5E74-4811-B55B-BDC57AE70E8C}">
       <text>
         <r>
           <rPr>
@@ -392,7 +392,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{E49B3E37-28D1-45DB-B753-694979BCD530}">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{F89CEDDF-4556-42AB-A0B1-602C89BC8E90}">
       <text>
         <r>
           <rPr>
@@ -419,7 +419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{109235FD-E2B1-45B8-93E2-402AE0DC252F}">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{EE6801CC-F586-460E-B20F-1DADA37E5026}">
       <text>
         <r>
           <rPr>
@@ -446,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{3A3A9FAA-D4C3-4B97-ADD4-E56E463CE0F6}">
+    <comment ref="AD2" authorId="0" shapeId="0" xr:uid="{9A7E8B87-ECC5-4E7D-98D9-534AA7584417}">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{169AA010-4EAC-4C1D-96A8-5DD22FF4A906}">
+    <comment ref="AE2" authorId="0" shapeId="0" xr:uid="{0FE94008-7B3A-4BD9-B6B6-01F81D979686}">
       <text>
         <r>
           <rPr>
@@ -494,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{90594037-8A0D-4ECF-88ED-4A2E801CD52E}">
+    <comment ref="AF2" authorId="1" shapeId="0" xr:uid="{454174CE-C92D-4CAB-9DB2-24E68B9EC5C3}">
       <text>
         <r>
           <rPr>
@@ -4331,9 +4331,6 @@
     <t>The ‘discards-landed’ scenario caused bottom-up cascades— reductions in the biomasses of all the components in the scavenger compartment of the food web (carnivore/scavenge feeding benthos, birds and mammals) due to reductions in their food intake (Fig. 5). The magnitude of the effect increased with exploitation intensity in line with the ‘status-quo’ discard rates of fish and benthos.</t>
   </si>
   <si>
-    <t>Carnivore/scavenge feeding benthos</t>
-  </si>
-  <si>
     <t>Scenario of all discards are landed</t>
   </si>
   <si>
@@ -4366,6 +4363,9 @@
   </si>
   <si>
     <t>80% + survival for most if undamaged, 50% for great circular crabs. Lower survival if damaged.</t>
+  </si>
+  <si>
+    <t>Predating and scavenging benthos</t>
   </si>
 </sst>
 </file>
@@ -4862,8 +4862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ66" sqref="AJ66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6309,7 +6309,7 @@
         <v>150</v>
       </c>
       <c r="AL12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AM12" t="s">
         <v>232</v>
@@ -6339,7 +6339,7 @@
         <v>210</v>
       </c>
       <c r="AX12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="13" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -6449,7 +6449,7 @@
         <v>150</v>
       </c>
       <c r="AL13" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AM13" t="s">
         <v>232</v>
@@ -6479,7 +6479,7 @@
         <v>209</v>
       </c>
       <c r="AX13" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.35">
@@ -7662,7 +7662,7 @@
         <v>357</v>
       </c>
       <c r="Z24" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AA24" s="16">
         <v>2</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AD24" s="17" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF24" s="16">
         <v>4.4000000000000004</v>
@@ -7692,7 +7692,7 @@
         <v>141</v>
       </c>
       <c r="AL24" s="16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AM24" s="16" t="s">
         <v>232</v>
@@ -7710,7 +7710,7 @@
         <v>239</v>
       </c>
       <c r="AT24" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="AU24" s="16" t="s">
         <v>259</v>
@@ -8550,7 +8550,7 @@
         <v>159</v>
       </c>
       <c r="AO31" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AQ31" t="s">
         <v>164</v>
@@ -8672,7 +8672,7 @@
         <v>159</v>
       </c>
       <c r="AO32" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AQ32" t="s">
         <v>164</v>
@@ -8794,13 +8794,13 @@
         <v>140</v>
       </c>
       <c r="AL33" t="s">
-        <v>640</v>
+        <v>651</v>
       </c>
       <c r="AM33" t="s">
         <v>159</v>
       </c>
       <c r="AO33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AQ33" t="s">
         <v>164</v>
@@ -8928,7 +8928,7 @@
         <v>159</v>
       </c>
       <c r="AO34" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AQ34" t="s">
         <v>164</v>
@@ -8937,7 +8937,7 @@
         <v>415</v>
       </c>
       <c r="AU34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AV34" t="s">
         <v>199</v>
@@ -8946,7 +8946,7 @@
         <v>209</v>
       </c>
       <c r="AX34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.35">
@@ -9056,7 +9056,7 @@
         <v>159</v>
       </c>
       <c r="AO35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AQ35" t="s">
         <v>164</v>
@@ -9065,7 +9065,7 @@
         <v>415</v>
       </c>
       <c r="AU35" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AV35" t="s">
         <v>199</v>
@@ -9074,7 +9074,7 @@
         <v>209</v>
       </c>
       <c r="AX35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
@@ -13576,18 +13576,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13607,24 +13607,24 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345CFFB0-4185-4334-9C05-64DB5CAD9BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE657D-FBFF-418E-BB74-C34FED7E9698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4862,8 +4862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ66" sqref="AJ66"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH57" sqref="AH57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10519,7 +10519,7 @@
         <v>107</v>
       </c>
       <c r="AH48" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AK48" t="s">
         <v>141</v>
@@ -13462,6 +13462,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -13575,12 +13581,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13591,6 +13591,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13606,21 +13621,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>

--- a/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
+++ b/Systematic Reviews/Analysis Task 4.1/Data_Extraction_Files/DataExtractionForm_WP4_Thorpe.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://share.dtu.dk/sites/SEAwise_517900/Shared Documents/WP4 Ecological effects of fisheries/Task 4.1/Data extraction/Data extraction files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CE657D-FBFF-418E-BB74-C34FED7E9698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F749BFD6-D86D-4AE4-BF11-C535919FE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataExtraction" sheetId="1" r:id="rId1"/>
@@ -4523,7 +4523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4537,23 +4537,19 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4862,8 +4858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AH57" sqref="AH57"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <selection activeCell="AV55" sqref="AV55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4883,70 +4879,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="23" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="21" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="24" t="s">
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="24"/>
-      <c r="AO1" s="24"/>
-      <c r="AP1" s="24"/>
-      <c r="AQ1" s="18" t="s">
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="19" t="s">
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
-      <c r="AX1" s="19"/>
+      <c r="AV1" s="15"/>
+      <c r="AW1" s="15"/>
+      <c r="AX1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="2" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -5104,7 +5100,7 @@
       <c r="A3" t="s">
         <v>242</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C3" t="s">
@@ -5182,7 +5178,7 @@
       <c r="AC3">
         <v>3</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AD3" s="12" t="s">
         <v>255</v>
       </c>
       <c r="AE3" t="s">
@@ -5238,7 +5234,7 @@
       <c r="A4" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C4" t="s">
@@ -5316,7 +5312,7 @@
       <c r="AC4">
         <v>3</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AD4" s="12" t="s">
         <v>255</v>
       </c>
       <c r="AE4" t="s">
@@ -5372,7 +5368,7 @@
       <c r="A5" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C5" t="s">
@@ -5450,7 +5446,7 @@
       <c r="AC5">
         <v>3</v>
       </c>
-      <c r="AD5" s="13" t="s">
+      <c r="AD5" s="12" t="s">
         <v>255</v>
       </c>
       <c r="AE5" t="s">
@@ -5503,7 +5499,7 @@
       <c r="A6" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C6" t="s">
@@ -5581,7 +5577,7 @@
       <c r="AC6">
         <v>3</v>
       </c>
-      <c r="AD6" s="13" t="s">
+      <c r="AD6" s="12" t="s">
         <v>255</v>
       </c>
       <c r="AE6" t="s">
@@ -5631,7 +5627,7 @@
       <c r="A7" t="s">
         <v>558</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C7" t="s">
@@ -5709,7 +5705,7 @@
       <c r="AC7">
         <v>3</v>
       </c>
-      <c r="AD7" s="12" t="s">
+      <c r="AD7" s="11" t="s">
         <v>563</v>
       </c>
       <c r="AE7" t="s">
@@ -5756,7 +5752,7 @@
       <c r="A8" t="s">
         <v>260</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C8" t="s">
@@ -5834,7 +5830,7 @@
       <c r="AC8">
         <v>2</v>
       </c>
-      <c r="AD8" s="13" t="s">
+      <c r="AD8" s="12" t="s">
         <v>271</v>
       </c>
       <c r="AF8">
@@ -5876,7 +5872,7 @@
       <c r="AW8" t="s">
         <v>208</v>
       </c>
-      <c r="AX8" s="15" t="s">
+      <c r="AX8" t="s">
         <v>638</v>
       </c>
     </row>
@@ -5884,7 +5880,7 @@
       <c r="A9" t="s">
         <v>260</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C9" t="s">
@@ -5962,7 +5958,7 @@
       <c r="AC9">
         <v>2</v>
       </c>
-      <c r="AD9" s="13" t="s">
+      <c r="AD9" s="12" t="s">
         <v>271</v>
       </c>
       <c r="AF9">
@@ -6007,7 +6003,7 @@
       <c r="AW9" t="s">
         <v>208</v>
       </c>
-      <c r="AX9" s="15" t="s">
+      <c r="AX9" t="s">
         <v>638</v>
       </c>
     </row>
@@ -6015,7 +6011,7 @@
       <c r="A10" t="s">
         <v>274</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C10" t="s">
@@ -6066,13 +6062,13 @@
       <c r="R10" t="s">
         <v>84</v>
       </c>
-      <c r="AD10" s="12"/>
+      <c r="AD10" s="11"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>286</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C11" t="s">
@@ -6153,7 +6149,7 @@
       <c r="AC11">
         <v>2</v>
       </c>
-      <c r="AD11" s="13" t="s">
+      <c r="AD11" s="12" t="s">
         <v>295</v>
       </c>
       <c r="AF11">
@@ -6206,7 +6202,7 @@
       <c r="A12" t="s">
         <v>296</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C12" t="s">
@@ -6284,13 +6280,13 @@
       <c r="AB12">
         <v>1</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12" s="12">
         <v>3</v>
       </c>
-      <c r="AD12" s="13" t="s">
+      <c r="AD12" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="AE12" s="13" t="s">
+      <c r="AE12" s="12" t="s">
         <v>304</v>
       </c>
       <c r="AF12" t="s">
@@ -6346,7 +6342,7 @@
       <c r="A13" t="s">
         <v>296</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C13" t="s">
@@ -6424,13 +6420,13 @@
       <c r="AB13">
         <v>1</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="12">
         <v>3</v>
       </c>
-      <c r="AD13" s="13" t="s">
+      <c r="AD13" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="AE13" s="13" t="s">
+      <c r="AE13" s="12" t="s">
         <v>304</v>
       </c>
       <c r="AF13" t="s">
@@ -6486,7 +6482,7 @@
       <c r="A14" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C14" t="s">
@@ -6542,7 +6538,7 @@
       <c r="A15" t="s">
         <v>317</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C15" t="s">
@@ -6598,7 +6594,7 @@
       <c r="A16" t="s">
         <v>325</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C16" t="s">
@@ -6723,7 +6719,7 @@
       <c r="A17" t="s">
         <v>325</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C17" t="s">
@@ -6845,7 +6841,7 @@
       <c r="A18" t="s">
         <v>325</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C18" t="s">
@@ -6982,7 +6978,7 @@
       <c r="A19" t="s">
         <v>325</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C19" t="s">
@@ -7113,7 +7109,7 @@
       <c r="A20" t="s">
         <v>341</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C20" t="s">
@@ -7169,7 +7165,7 @@
       <c r="A21" t="s">
         <v>348</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C21" t="s">
@@ -7250,7 +7246,7 @@
       <c r="AC21">
         <v>2</v>
       </c>
-      <c r="AD21" s="12" t="s">
+      <c r="AD21" s="11" t="s">
         <v>360</v>
       </c>
       <c r="AE21" t="s">
@@ -7293,7 +7289,7 @@
         <v>620</v>
       </c>
       <c r="AV21" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="AW21" t="s">
         <v>207</v>
@@ -7306,7 +7302,7 @@
       <c r="A22" t="s">
         <v>348</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C22" t="s">
@@ -7387,7 +7383,7 @@
       <c r="AC22">
         <v>2</v>
       </c>
-      <c r="AD22" s="12" t="s">
+      <c r="AD22" s="11" t="s">
         <v>360</v>
       </c>
       <c r="AE22" t="s">
@@ -7436,7 +7432,7 @@
         <v>620</v>
       </c>
       <c r="AV22" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="AW22" t="s">
         <v>207</v>
@@ -7449,7 +7445,7 @@
       <c r="A23" t="s">
         <v>348</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C23" t="s">
@@ -7530,7 +7526,7 @@
       <c r="AC23">
         <v>2</v>
       </c>
-      <c r="AD23" s="12" t="s">
+      <c r="AD23" s="11" t="s">
         <v>360</v>
       </c>
       <c r="AE23" t="s">
@@ -7588,137 +7584,137 @@
         <v>626</v>
       </c>
     </row>
-    <row r="24" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="16" t="s">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>361</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" t="s">
         <v>362</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" t="s">
         <v>363</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24">
         <v>2017</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" t="s">
         <v>364</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" t="s">
         <v>365</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="H24" t="s">
         <v>366</v>
       </c>
-      <c r="I24" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="K24" s="16" t="s">
+      <c r="I24" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" t="s">
+        <v>248</v>
+      </c>
+      <c r="K24" t="s">
         <v>367</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="M24" s="16" t="s">
+      <c r="L24" t="s">
+        <v>248</v>
+      </c>
+      <c r="M24" t="s">
         <v>368</v>
       </c>
-      <c r="N24" s="16" t="s">
+      <c r="N24" t="s">
         <v>251</v>
       </c>
-      <c r="O24" s="16" t="s">
+      <c r="O24" t="s">
         <v>252</v>
       </c>
-      <c r="P24" s="16" t="s">
+      <c r="P24" t="s">
         <v>369</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="Q24" t="s">
         <v>21</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="T24" s="16" t="s">
+      <c r="T24" t="s">
         <v>46</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="U24" t="s">
         <v>59</v>
       </c>
-      <c r="V24" s="16" t="s">
+      <c r="V24" t="s">
         <v>44</v>
       </c>
-      <c r="W24" s="16" t="s">
+      <c r="W24" t="s">
         <v>53</v>
       </c>
-      <c r="X24" s="16" t="s">
+      <c r="X24" t="s">
         <v>69</v>
       </c>
-      <c r="Y24" s="16" t="s">
+      <c r="Y24" t="s">
         <v>357</v>
       </c>
-      <c r="Z24" s="16" t="s">
+      <c r="Z24" t="s">
         <v>643</v>
       </c>
-      <c r="AA24" s="16">
+      <c r="AA24">
         <v>2</v>
       </c>
-      <c r="AB24" s="16">
+      <c r="AB24">
         <v>2</v>
       </c>
-      <c r="AC24" s="16">
+      <c r="AC24">
         <v>3</v>
       </c>
-      <c r="AD24" s="17" t="s">
+      <c r="AD24" t="s">
         <v>646</v>
       </c>
-      <c r="AF24" s="16">
+      <c r="AF24">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AG24" s="16" t="s">
+      <c r="AG24" t="s">
         <v>109</v>
       </c>
-      <c r="AH24" s="16" t="s">
+      <c r="AH24" t="s">
         <v>117</v>
       </c>
-      <c r="AI24" s="16" t="s">
+      <c r="AI24" t="s">
         <v>138</v>
       </c>
-      <c r="AK24" s="16" t="s">
+      <c r="AK24" t="s">
         <v>141</v>
       </c>
-      <c r="AL24" s="16" t="s">
+      <c r="AL24" t="s">
         <v>644</v>
       </c>
-      <c r="AM24" s="16" t="s">
+      <c r="AM24" t="s">
         <v>232</v>
       </c>
-      <c r="AN24" s="16" t="s">
+      <c r="AN24" t="s">
         <v>160</v>
       </c>
-      <c r="AO24" s="16" t="s">
+      <c r="AO24" t="s">
         <v>339</v>
       </c>
-      <c r="AQ24" s="16" t="s">
+      <c r="AQ24" t="s">
         <v>164</v>
       </c>
-      <c r="AR24" s="16" t="s">
+      <c r="AR24" t="s">
         <v>239</v>
       </c>
-      <c r="AT24" s="16" t="s">
+      <c r="AT24" t="s">
         <v>645</v>
       </c>
-      <c r="AU24" s="16" t="s">
+      <c r="AU24" t="s">
         <v>259</v>
       </c>
-      <c r="AV24" s="16" t="s">
+      <c r="AV24" t="s">
         <v>199</v>
       </c>
-      <c r="AW24" s="16" t="s">
+      <c r="AW24" t="s">
         <v>208</v>
       </c>
     </row>
@@ -7726,7 +7722,7 @@
       <c r="A25" t="s">
         <v>370</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C25" t="s">
@@ -7777,13 +7773,13 @@
       <c r="R25" t="s">
         <v>84</v>
       </c>
-      <c r="AD25" s="12"/>
+      <c r="AD25" s="11"/>
     </row>
     <row r="26" spans="1:50" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>544</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>243</v>
       </c>
       <c r="C26" t="s">
@@ -7861,7 +7857,7 @@
       <c r="AC26">
         <v>3</v>
       </c>
-      <c r="AD26" s="12" t="s">
+      <c r="AD26" s="11" t="s">
         <v>554</v>
       </c>
       <c r="AF26">
@@ -7917,7 +7913,7 @@
       <c r="A27" t="s">
         <v>380</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C27" t="s">
@@ -7995,7 +7991,7 @@
       <c r="AC27">
         <v>3</v>
       </c>
-      <c r="AD27" s="12" t="s">
+      <c r="AD27" s="11" t="s">
         <v>388</v>
       </c>
       <c r="AE27" t="s">
@@ -8048,7 +8044,7 @@
       <c r="A28" t="s">
         <v>380</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C28" t="s">
@@ -8126,7 +8122,7 @@
       <c r="AC28">
         <v>3</v>
       </c>
-      <c r="AD28" s="12" t="s">
+      <c r="AD28" s="11" t="s">
         <v>388</v>
       </c>
       <c r="AE28" t="s">
@@ -8179,7 +8175,7 @@
       <c r="A29" t="s">
         <v>393</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C29" t="s">
@@ -8260,7 +8256,7 @@
       <c r="AC29">
         <v>3</v>
       </c>
-      <c r="AD29" s="12" t="s">
+      <c r="AD29" s="11" t="s">
         <v>400</v>
       </c>
       <c r="AE29" t="s">
@@ -8316,7 +8312,7 @@
       <c r="A30" t="s">
         <v>393</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C30" t="s">
@@ -8397,7 +8393,7 @@
       <c r="AC30">
         <v>3</v>
       </c>
-      <c r="AD30" s="12" t="s">
+      <c r="AD30" s="11" t="s">
         <v>400</v>
       </c>
       <c r="AE30" t="s">
@@ -8453,7 +8449,7 @@
       <c r="A31" t="s">
         <v>405</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C31" t="s">
@@ -8575,7 +8571,7 @@
       <c r="A32" t="s">
         <v>405</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C32" t="s">
@@ -8697,7 +8693,7 @@
       <c r="A33" t="s">
         <v>405</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C33" t="s">
@@ -8825,7 +8821,7 @@
       <c r="A34" t="s">
         <v>405</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C34" t="s">
@@ -8953,7 +8949,7 @@
       <c r="A35" t="s">
         <v>405</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C35" t="s">
@@ -9081,7 +9077,7 @@
       <c r="A36" t="s">
         <v>417</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C36" t="s">
@@ -9159,7 +9155,7 @@
       <c r="AC36">
         <v>2</v>
       </c>
-      <c r="AD36" s="12" t="s">
+      <c r="AD36" s="11" t="s">
         <v>427</v>
       </c>
       <c r="AE36" t="s">
@@ -9206,7 +9202,7 @@
       <c r="A37" t="s">
         <v>417</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C37" t="s">
@@ -9284,7 +9280,7 @@
       <c r="AC37">
         <v>2</v>
       </c>
-      <c r="AD37" s="12" t="s">
+      <c r="AD37" s="11" t="s">
         <v>427</v>
       </c>
       <c r="AE37" t="s">
@@ -9331,7 +9327,7 @@
       <c r="A38" t="s">
         <v>433</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C38" t="s">
@@ -9409,7 +9405,7 @@
       <c r="AC38">
         <v>3</v>
       </c>
-      <c r="AD38" s="12" t="s">
+      <c r="AD38" s="11" t="s">
         <v>443</v>
       </c>
       <c r="AF38">
@@ -9456,7 +9452,7 @@
       <c r="A39" t="s">
         <v>433</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C39" t="s">
@@ -9534,7 +9530,7 @@
       <c r="AC39">
         <v>3</v>
       </c>
-      <c r="AD39" s="12" t="s">
+      <c r="AD39" s="11" t="s">
         <v>443</v>
       </c>
       <c r="AF39">
@@ -9581,7 +9577,7 @@
       <c r="A40" t="s">
         <v>446</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C40" t="s">
@@ -9724,7 +9720,7 @@
       <c r="A41" t="s">
         <v>460</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C41" t="s">
@@ -9855,7 +9851,7 @@
       <c r="A42" t="s">
         <v>476</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C42" t="s">
@@ -9936,7 +9932,7 @@
       <c r="AC42">
         <v>2</v>
       </c>
-      <c r="AD42" s="12" t="s">
+      <c r="AD42" s="11" t="s">
         <v>486</v>
       </c>
       <c r="AE42" t="s">
@@ -9986,7 +9982,7 @@
       <c r="A43" t="s">
         <v>476</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C43" t="s">
@@ -10067,7 +10063,7 @@
       <c r="AC43">
         <v>2</v>
       </c>
-      <c r="AD43" s="12" t="s">
+      <c r="AD43" s="11" t="s">
         <v>486</v>
       </c>
       <c r="AE43" t="s">
@@ -10117,7 +10113,7 @@
       <c r="A44" t="s">
         <v>476</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C44" t="s">
@@ -10198,7 +10194,7 @@
       <c r="AC44">
         <v>2</v>
       </c>
-      <c r="AD44" s="12" t="s">
+      <c r="AD44" s="11" t="s">
         <v>486</v>
       </c>
       <c r="AE44" t="s">
@@ -10248,7 +10244,7 @@
       <c r="A45" t="s">
         <v>495</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C45" t="s">
@@ -10307,7 +10303,7 @@
       <c r="A46" t="s">
         <v>505</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C46" t="s">
@@ -10366,7 +10362,7 @@
       <c r="A47" t="s">
         <v>517</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C47" t="s">
@@ -10425,7 +10421,7 @@
       <c r="A48" t="s">
         <v>528</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C48" t="s">
@@ -10506,7 +10502,7 @@
       <c r="AC48">
         <v>2</v>
       </c>
-      <c r="AD48" s="12" t="s">
+      <c r="AD48" s="11" t="s">
         <v>538</v>
       </c>
       <c r="AE48" t="s">
@@ -10556,7 +10552,7 @@
       <c r="A49" t="s">
         <v>565</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C49" t="s">
@@ -10687,7 +10683,7 @@
       <c r="A50" t="s">
         <v>565</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C50" t="s">
@@ -10821,7 +10817,7 @@
       <c r="A51" t="s">
         <v>565</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C51" t="s">
@@ -10949,7 +10945,7 @@
       <c r="A52" t="s">
         <v>565</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C52" t="s">
@@ -11077,7 +11073,7 @@
       <c r="A53" t="s">
         <v>565</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>243</v>
       </c>
       <c r="C53" t="s">
@@ -11286,7 +11282,7 @@
       <c r="AC54">
         <v>2</v>
       </c>
-      <c r="AD54" s="12" t="s">
+      <c r="AD54" s="11" t="s">
         <v>586</v>
       </c>
       <c r="AE54" t="s">
@@ -11476,7 +11472,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY38"/>
+  <dimension ref="A1:AX38"/>
   <sheetViews>
     <sheetView topLeftCell="Q2" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2:AG2"/>
@@ -11493,70 +11489,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="23" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="21" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="22" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="22"/>
-      <c r="AK1" s="22"/>
-      <c r="AL1" s="22"/>
-      <c r="AM1" s="10" t="s">
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="18" t="s">
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="9"/>
+      <c r="AQ1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="9" t="s">
+      <c r="AR1" s="14"/>
+      <c r="AS1" s="14"/>
+      <c r="AT1" s="14"/>
+      <c r="AU1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="9"/>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AV1" s="8"/>
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
     <row r="2" spans="1:50" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -11878,7 +11874,7 @@
       <c r="AW5" t="s">
         <v>210</v>
       </c>
-      <c r="AX5" s="8"/>
+      <c r="AX5" s="7"/>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.35">
       <c r="R6" t="s">
@@ -12266,7 +12262,7 @@
       </c>
     </row>
     <row r="19" spans="34:48" x14ac:dyDescent="0.35">
-      <c r="AQ19" s="7" t="s">
+      <c r="AQ19" t="s">
         <v>113</v>
       </c>
     </row>
@@ -12469,7 +12465,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="33" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AH33" t="s">
         <v>155</v>
       </c>
@@ -12489,7 +12485,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="34" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI34" t="s">
         <v>157</v>
       </c>
@@ -12502,9 +12498,8 @@
       <c r="AV34" t="s">
         <v>194</v>
       </c>
-      <c r="AY34" s="7"/>
     </row>
-    <row r="35" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="35" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AI35" t="s">
         <v>113</v>
       </c>
@@ -12518,7 +12513,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="36" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="36" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AU36" t="s">
         <v>211</v>
       </c>
@@ -12526,10 +12521,10 @@
         <v>196</v>
       </c>
     </row>
-    <row r="37" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="37" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL37" s="5"/>
     </row>
-    <row r="38" spans="34:51" x14ac:dyDescent="0.35">
+    <row r="38" spans="34:48" x14ac:dyDescent="0.35">
       <c r="AL38" s="6"/>
       <c r="AM38" s="6"/>
       <c r="AN38" s="6"/>
@@ -12589,51 +12584,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="21" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="10" t="s">
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="18" t="s">
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="19" t="s">
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
     </row>
     <row r="2" spans="1:33" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -13156,7 +13151,7 @@
       <c r="G12" t="s">
         <v>76</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" t="s">
         <v>221</v>
       </c>
       <c r="R12" t="s">
@@ -13462,14 +13457,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="abe771af6212f3f785694fa6f4ad1686">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AB0F5ECCA53DA47AEBDEAEE6167985F" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="125e2131eddd38cce17ebc9527d7a9d7">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="553f2d8843fd2aa64b81f9e8c63a6619">
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -13582,31 +13580,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{296C6747-B437-4BFD-90D3-AF1F913D3FA0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD4DBF91-E6EC-4039-9E19-4D2025A7D9B6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -13622,9 +13610,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66D459FE-C8DA-484C-BC8E-5EB6A351EBC9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{495201D0-9695-4A45-BC3A-28D949F46F55}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>